--- a/Archivos de trabajo/Vale/ITCRM/Metodología en R/comparacion/itcrm_comparaciónl.xlsx
+++ b/Archivos de trabajo/Vale/ITCRM/Metodología en R/comparacion/itcrm_comparaciónl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcorvalan\Desktop\Trabajo\Paper-ITCRM.SF\Archivos de trabajo\Vale\ITCRM\Metodología en R\comparacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E659DC2D-E871-41F2-B7DB-757E3A426972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45F411D-70EB-4137-8BFF-8392AFAA18D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="4" r:id="rId1"/>
@@ -4730,868 +4730,868 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="300"/>
                 <c:pt idx="0">
-                  <c:v>56.350339739928515</c:v>
+                  <c:v>56.350227518469339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.067076535666331</c:v>
+                  <c:v>76.067266591292821</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.527845373459812</c:v>
+                  <c:v>90.528071559704273</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.10557977260477</c:v>
+                  <c:v>99.105827390548185</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.70165879982919</c:v>
+                  <c:v>111.70193788941316</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117.59017212775926</c:v>
+                  <c:v>117.59046592995136</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112.9087474791651</c:v>
+                  <c:v>112.90902958469245</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>109.50927681006242</c:v>
+                  <c:v>109.50955042192132</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108.69387569661919</c:v>
+                  <c:v>108.69414727117659</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107.09545951782758</c:v>
+                  <c:v>107.09572709869937</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105.48736299649819</c:v>
+                  <c:v>105.48625052797969</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>104.96260515057965</c:v>
+                  <c:v>104.96149821615136</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>98.460984818820975</c:v>
+                  <c:v>98.459946450406008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.325788289717337</c:v>
+                  <c:v>95.324782985048955</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>92.340261107259153</c:v>
+                  <c:v>92.339287287926155</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>87.969565540867507</c:v>
+                  <c:v>87.968637814839752</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>88.716311625106044</c:v>
+                  <c:v>88.715376023902664</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>88.292140074938402</c:v>
+                  <c:v>88.291208947043316</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87.106013541881197</c:v>
+                  <c:v>87.105094922862904</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>90.495426215631639</c:v>
+                  <c:v>90.494471851906226</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>91.324482096780386</c:v>
+                  <c:v>91.32351898984119</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>90.503679667174524</c:v>
+                  <c:v>90.502725216408308</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>91.658718042998444</c:v>
+                  <c:v>91.657751411210782</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>96.139044083019627</c:v>
+                  <c:v>96.138030201765019</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>95.647485209987309</c:v>
+                  <c:v>95.646476512706911</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>96.824858331983009</c:v>
+                  <c:v>96.823707440954564</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>94.586399534428423</c:v>
+                  <c:v>94.585275250432431</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>91.616936818818758</c:v>
+                  <c:v>91.615847830800035</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>92.920078900792632</c:v>
+                  <c:v>92.952561189270043</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>93.755530635494537</c:v>
+                  <c:v>93.788304974781397</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>95.079991752829272</c:v>
+                  <c:v>95.113229087074785</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>95.819063386055788</c:v>
+                  <c:v>95.852559079294124</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>95.490260214425945</c:v>
+                  <c:v>95.523539533627471</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>95.923591299165722</c:v>
+                  <c:v>95.957021638622678</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>97.404831664047094</c:v>
+                  <c:v>97.4353106040125</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>98.808340477216774</c:v>
+                  <c:v>98.839258589039744</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>96.404755843299654</c:v>
+                  <c:v>96.434921849600684</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>95.224344259178579</c:v>
+                  <c:v>95.248083354049555</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>94.46619620769458</c:v>
+                  <c:v>94.489629125748223</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>93.250471317453744</c:v>
+                  <c:v>93.27360266750874</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>92.340423054664896</c:v>
+                  <c:v>92.363328661679276</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>90.129733755052854</c:v>
+                  <c:v>90.152090987058187</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>88.839772177917695</c:v>
+                  <c:v>88.86180942705991</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>90.297484915736902</c:v>
+                  <c:v>90.319883759444181</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>90.836892151516139</c:v>
+                  <c:v>90.859424798489144</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>92.438414127430903</c:v>
+                  <c:v>92.461344041730513</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>90.851166697824169</c:v>
+                  <c:v>90.873702885685731</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>92.023034278060976</c:v>
+                  <c:v>92.045861154847046</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>93.422259199558852</c:v>
+                  <c:v>93.444374806482472</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>94.271968320216217</c:v>
+                  <c:v>94.289673923880386</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>93.778145757892673</c:v>
+                  <c:v>93.795758614723127</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>94.051408878915694</c:v>
+                  <c:v>94.069073058409742</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>94.177550110615599</c:v>
+                  <c:v>94.195237981209914</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>92.894701245632348</c:v>
+                  <c:v>92.912148179138271</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>93.056335867327107</c:v>
+                  <c:v>93.073813158091951</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>93.651677973173079</c:v>
+                  <c:v>93.669267077571988</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>93.179721609862781</c:v>
+                  <c:v>93.197222074208199</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>92.440305194279148</c:v>
+                  <c:v>92.457666785805515</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>92.250445224172324</c:v>
+                  <c:v>92.267771157321732</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>92.455315533056208</c:v>
+                  <c:v>92.472679943735642</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>92.031178430194032</c:v>
+                  <c:v>92.048463181950709</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>93.286436917124377</c:v>
+                  <c:v>93.291389235507069</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>93.266991013480194</c:v>
+                  <c:v>93.271942299533762</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>93.955622237114483</c:v>
+                  <c:v>93.960610080691112</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>94.492132747458498</c:v>
+                  <c:v>94.497149072891133</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>94.325298119169943</c:v>
+                  <c:v>94.33030558781455</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>96.412611607220427</c:v>
+                  <c:v>96.417729885552916</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>96.1699093161196</c:v>
+                  <c:v>96.175014710060097</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>97.183396033925533</c:v>
+                  <c:v>97.188555231066914</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>99.56168958423514</c:v>
+                  <c:v>99.566975038389387</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>99.766462379893412</c:v>
+                  <c:v>99.771758704867864</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>99.477821307356621</c:v>
+                  <c:v>99.483102309176516</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>100.16924212584182</c:v>
+                  <c:v>100.17367121192302</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>101.62096945243316</c:v>
+                  <c:v>101.62097929020588</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>103.36015705452625</c:v>
+                  <c:v>103.36016706066711</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>104.61329251476239</c:v>
+                  <c:v>104.61330264221741</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>104.05950078466905</c:v>
+                  <c:v>104.05951085851233</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>100.87444271603793</c:v>
+                  <c:v>100.87445248154054</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>101.37862332428003</c:v>
+                  <c:v>101.3786331385916</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>99.491370781637784</c:v>
+                  <c:v>99.490811504821679</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>97.809956927829759</c:v>
+                  <c:v>97.809407102846293</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>94.633629276871517</c:v>
+                  <c:v>94.633097307169393</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>92.428029567031416</c:v>
+                  <c:v>92.427509995799369</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>95.146753479053643</c:v>
+                  <c:v>95.146218624895624</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>94.988344404653759</c:v>
+                  <c:v>94.987810440970179</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>93.540002692657779</c:v>
+                  <c:v>93.587903897629914</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>97.294534085392399</c:v>
+                  <c:v>97.344236973379878</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>100.22904456616884</c:v>
+                  <c:v>100.28024654808895</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>103.73918390072272</c:v>
+                  <c:v>103.79217903642896</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>106.67148623916516</c:v>
+                  <c:v>106.72597934077505</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>107.74515213133382</c:v>
+                  <c:v>107.80019371489162</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>109.75234656878361</c:v>
+                  <c:v>109.80841352710922</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>110.20635033850982</c:v>
+                  <c:v>110.2626492245457</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>110.66070741558394</c:v>
+                  <c:v>110.71723840981707</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>110.18960418622083</c:v>
+                  <c:v>110.24589451748905</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>108.46776022486249</c:v>
+                  <c:v>108.52317095258105</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>107.81636202383753</c:v>
+                  <c:v>107.87143998495081</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>106.14482687900077</c:v>
+                  <c:v>106.38547292629497</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>105.76380451352809</c:v>
+                  <c:v>106.00358672667343</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>105.92530809068177</c:v>
+                  <c:v>106.16545645636235</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>103.0804286349337</c:v>
+                  <c:v>103.3141272374352</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>102.35495265747348</c:v>
+                  <c:v>102.5870064984589</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>103.92365715955827</c:v>
+                  <c:v>104.15926748604467</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>104.06621553841168</c:v>
+                  <c:v>104.30214906586217</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>105.64513529725288</c:v>
+                  <c:v>105.88464846970476</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>107.86421405436238</c:v>
+                  <c:v>108.10875820710066</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>107.13662819158318</c:v>
+                  <c:v>107.37982054067083</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>105.95863162863333</c:v>
+                  <c:v>106.19915001125221</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>105.28102498198155</c:v>
+                  <c:v>105.5200052468256</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>106.89952210498998</c:v>
+                  <c:v>107.14217616313191</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>108.16975930116072</c:v>
+                  <c:v>108.41529670437646</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>110.64742360701743</c:v>
+                  <c:v>110.89858512610094</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>110.50562335965179</c:v>
+                  <c:v>110.75646300259601</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>110.39092597499611</c:v>
+                  <c:v>110.64150526330732</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>111.12992441642773</c:v>
+                  <c:v>111.38218117688517</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>111.53819735537967</c:v>
+                  <c:v>111.79138086540075</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>108.59324652082086</c:v>
+                  <c:v>108.83974520889925</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>107.6893248907609</c:v>
+                  <c:v>107.93377174317665</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>107.75576152814428</c:v>
+                  <c:v>108.00035918684381</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>106.28296917026958</c:v>
+                  <c:v>106.52422369856592</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>106.39917494143776</c:v>
+                  <c:v>106.64069324829357</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>108.82893566414518</c:v>
+                  <c:v>109.07500848552365</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>107.62270537595759</c:v>
+                  <c:v>107.86605079319087</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>107.80782348815848</c:v>
+                  <c:v>108.05158747547041</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>105.99010096319439</c:v>
+                  <c:v>106.22975490286622</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>105.07819655852096</c:v>
+                  <c:v>105.31578859353191</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>105.80508371658908</c:v>
+                  <c:v>106.04431931424921</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>106.82675261255162</c:v>
+                  <c:v>107.06829830307638</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>109.10651799623308</c:v>
+                  <c:v>109.35321845829561</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>110.72511169577568</c:v>
+                  <c:v>110.97547195581269</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>111.10467723985633</c:v>
+                  <c:v>111.3558957345509</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>112.73704079557866</c:v>
+                  <c:v>112.99195022323349</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>114.47140594368939</c:v>
+                  <c:v>114.73023693983787</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>116.16742654347216</c:v>
+                  <c:v>116.43009240735647</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>116.59627393978165</c:v>
+                  <c:v>116.85990946939052</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>117.97470668354543</c:v>
+                  <c:v>118.24145898382072</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>118.42208924316375</c:v>
+                  <c:v>118.68985311897278</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>117.92167477594782</c:v>
+                  <c:v>118.18830716591573</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>114.20557797478945</c:v>
+                  <c:v>114.46380790801372</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>115.30510712926281</c:v>
+                  <c:v>115.5658232049783</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>118.02428009956682</c:v>
+                  <c:v>118.29114449016322</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>120.99295471386422</c:v>
+                  <c:v>121.26653156685528</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>122.13557872842944</c:v>
+                  <c:v>122.41173916558698</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>126.47942321373662</c:v>
+                  <c:v>126.76540550628221</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>136.26532717232388</c:v>
+                  <c:v>136.57343634667836</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>145.26353354628125</c:v>
+                  <c:v>145.59198854149921</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>144.90783290756153</c:v>
+                  <c:v>145.23548362899697</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>144.6067144477241</c:v>
+                  <c:v>144.93368431099873</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>143.50694187950805</c:v>
+                  <c:v>143.83142504990926</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>142.84587690805574</c:v>
+                  <c:v>143.16886534618152</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>142.26083048973317</c:v>
+                  <c:v>142.58249608093487</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>141.84762211938985</c:v>
+                  <c:v>142.16835340622765</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>139.79131543619425</c:v>
+                  <c:v>140.10739721337669</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>137.24074921426794</c:v>
+                  <c:v>137.55106391284659</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>135.16498918408863</c:v>
+                  <c:v>135.47061038710001</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>132.60740435051022</c:v>
+                  <c:v>132.90724260515336</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>129.08146407923871</c:v>
+                  <c:v>129.37332983956986</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>127.84078399536543</c:v>
+                  <c:v>128.16785413674566</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>125.1835009249908</c:v>
+                  <c:v>125.50377262598016</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>125.5163918903319</c:v>
+                  <c:v>125.83751526550297</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>126.16026621824319</c:v>
+                  <c:v>126.48303689297609</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>126.13798329739774</c:v>
+                  <c:v>126.4606969631086</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>124.79630258342735</c:v>
+                  <c:v>125.11558366927528</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>122.36142190380797</c:v>
+                  <c:v>122.67447354750733</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>120.32694150679659</c:v>
+                  <c:v>120.6347880995702</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>121.60208496405302</c:v>
+                  <c:v>121.91319390658552</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>119.78328907643024</c:v>
+                  <c:v>120.08974477913179</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>137.64767766768102</c:v>
+                  <c:v>137.99983794070519</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>156.1123190038158</c:v>
+                  <c:v>156.51171954448853</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>163.81518698496964</c:v>
+                  <c:v>164.23429468043986</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>163.00156733571708</c:v>
+                  <c:v>163.41859345216852</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>149.28182366576823</c:v>
+                  <c:v>149.66374894536938</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>139.9018251555085</c:v>
+                  <c:v>140.25975247966059</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>136.85842055444502</c:v>
+                  <c:v>137.20856157799693</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>141.56557857848443</c:v>
+                  <c:v>141.92776247906127</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>141.87842488642983</c:v>
+                  <c:v>142.24140917857946</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>142.66088480588377</c:v>
+                  <c:v>143.02587095744383</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>139.90742156640695</c:v>
+                  <c:v>140.26536320851645</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>137.06711020432053</c:v>
+                  <c:v>137.41778514319398</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>138.0444193192595</c:v>
+                  <c:v>138.39759462319958</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>139.5019030784687</c:v>
+                  <c:v>139.85880723484763</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>135.00465689061389</c:v>
+                  <c:v>135.35005521215268</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>131.63487242542874</c:v>
+                  <c:v>131.97079664927236</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>127.65147217591462</c:v>
+                  <c:v>127.97723100351921</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>129.78198201105704</c:v>
+                  <c:v>130.11317777075701</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>131.8622664050306</c:v>
+                  <c:v>132.19877092454126</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>139.31252131878892</c:v>
+                  <c:v>139.66803843772124</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>140.45210165313159</c:v>
+                  <c:v>140.87612610607911</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>137.45701304536598</c:v>
+                  <c:v>137.87199533523099</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>136.20835891527619</c:v>
+                  <c:v>136.61957152225142</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>134.33234122373884</c:v>
+                  <c:v>134.73789013920634</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>132.89748607883573</c:v>
+                  <c:v>133.29870317113568</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>143.15967009919589</c:v>
+                  <c:v>143.59186869276255</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>146.58244760006639</c:v>
+                  <c:v>147.02497954813813</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>149.04521931594118</c:v>
+                  <c:v>149.49518636407387</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>141.46114283526109</c:v>
+                  <c:v>141.88821358036247</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>158.31699369130584</c:v>
+                  <c:v>158.79495219710341</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>169.50809209580777</c:v>
+                  <c:v>170.01983649247489</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>169.02578109290386</c:v>
+                  <c:v>169.53606939417085</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>175.62802840559198</c:v>
+                  <c:v>176.15824887072148</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>209.18806955189223</c:v>
+                  <c:v>209.81960767564317</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>192.73870669696211</c:v>
+                  <c:v>193.3205842460132</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>184.30763458228301</c:v>
+                  <c:v>184.86405875114889</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>185.88562584653116</c:v>
+                  <c:v>186.44681396605853</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>180.34399963045018</c:v>
+                  <c:v>180.88845759786832</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>179.54716707753781</c:v>
+                  <c:v>180.25141488907954</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>185.57786739541382</c:v>
+                  <c:v>186.30576975728937</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>187.28070890716887</c:v>
+                  <c:v>188.01529041874963</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>186.97246162131728</c:v>
+                  <c:v>187.70583407747256</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>178.99967537922848</c:v>
+                  <c:v>179.70177573371674</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>171.81044206050541</c:v>
+                  <c:v>172.48434368641563</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>201.54618893952861</c:v>
+                  <c:v>202.33672473463776</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>203.97092974271169</c:v>
+                  <c:v>204.7709762331551</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>206.06881371703682</c:v>
+                  <c:v>206.87708885414636</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>201.89326249905696</c:v>
+                  <c:v>202.68515964003817</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>196.67905181676085</c:v>
+                  <c:v>197.45049696999038</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>194.9101655111117</c:v>
+                  <c:v>195.67467246347789</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>193.19529349311793</c:v>
+                  <c:v>193.95307410785705</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>185.82042768939417</c:v>
+                  <c:v>186.52631972986103</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>185.86585089109869</c:v>
+                  <c:v>186.57191548458854</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>189.55565995024773</c:v>
+                  <c:v>190.27574133875888</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>196.22747766859655</c:v>
+                  <c:v>196.97290386489547</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>198.66474456223412</c:v>
+                  <c:v>199.41942941390317</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>199.06321198191603</c:v>
+                  <c:v>199.81941052604313</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>199.7434985275595</c:v>
+                  <c:v>200.50228133469679</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>199.05356658110094</c:v>
+                  <c:v>199.80972848441442</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>202.23597474956944</c:v>
+                  <c:v>203.00422594050099</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>205.22714291298664</c:v>
+                  <c:v>206.00675691168107</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>205.13282906513467</c:v>
+                  <c:v>205.91208478570366</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>204.90061021072304</c:v>
+                  <c:v>205.67898378155735</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>199.07521280951116</c:v>
+                  <c:v>199.83145694221426</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>196.7408882588488</c:v>
+                  <c:v>197.48826479211371</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>195.2987010997077</c:v>
+                  <c:v>196.04059907257343</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>192.22404721457301</c:v>
+                  <c:v>192.9422229479911</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>187.17861899500983</c:v>
+                  <c:v>187.87794430797067</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>184.8327355016425</c:v>
+                  <c:v>185.52329626811306</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>182.24759588247321</c:v>
+                  <c:v>182.92849820834337</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>178.01742080118507</c:v>
+                  <c:v>178.68251860553198</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>175.08511932989867</c:v>
+                  <c:v>175.73926164875738</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>170.66338278177625</c:v>
+                  <c:v>171.3010048788706</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>170.03841322193554</c:v>
+                  <c:v>170.67370034596848</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>168.33853076509965</c:v>
+                  <c:v>168.96746689222115</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>163.465039096895</c:v>
+                  <c:v>164.0757671823909</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>161.13057050439136</c:v>
+                  <c:v>161.73257669105175</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>157.33217321933097</c:v>
+                  <c:v>157.91998806627322</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>156.87908141852517</c:v>
+                  <c:v>157.46520345158143</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>149.71621984813862</c:v>
+                  <c:v>150.2755804357034</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>149.25238394027042</c:v>
+                  <c:v>149.81001157247326</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>148.25892067214394</c:v>
+                  <c:v>148.81283658762067</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>146.86684661270024</c:v>
+                  <c:v>147.41556154618175</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>149.95267285798616</c:v>
+                  <c:v>150.51291686683061</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>155.79113707749866</c:v>
+                  <c:v>156.37319439942047</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>157.85403542800455</c:v>
+                  <c:v>158.44380002462643</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>156.98866802213328</c:v>
+                  <c:v>157.57519948595831</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>154.67056365302324</c:v>
+                  <c:v>155.24843435702371</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>154.93454692462072</c:v>
+                  <c:v>155.51340390678169</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>153.70815273712333</c:v>
+                  <c:v>154.28242774029769</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>156.06404365488419</c:v>
+                  <c:v>156.64712059367599</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>158.24629558122274</c:v>
+                  <c:v>158.83752571624785</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>169.11389772433699</c:v>
+                  <c:v>169.74573073008892</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>162.12408400347732</c:v>
+                  <c:v>162.72980209453371</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>148.03444499359966</c:v>
+                  <c:v>148.58752223676973</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>134.97310106972347</c:v>
+                  <c:v>135.47737931824179</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>197.43949899287483</c:v>
+                  <c:v>198.1771603783759</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>208.33583778299391</c:v>
+                  <c:v>209.11648889766309</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>187.43361558769752</c:v>
+                  <c:v>188.13594439723926</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>170.85185288976248</c:v>
+                  <c:v>171.49204850286969</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>159.27901868155286</c:v>
+                  <c:v>159.87584995552064</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>156.9115824968539</c:v>
+                  <c:v>157.49954279731966</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>151.48761397888237</c:v>
+                  <c:v>151.96828816226386</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>149.18119223145533</c:v>
+                  <c:v>149.65454807797184</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>147.9891506514997</c:v>
+                  <c:v>148.45872411873148</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>147.2886851116404</c:v>
+                  <c:v>147.7560359832915</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>145.51530016174002</c:v>
+                  <c:v>145.97702403630387</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>142.80408225355993</c:v>
+                  <c:v>143.25720336239428</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>140.59508150639914</c:v>
+                  <c:v>141.04119339776449</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>140.01279675832265</c:v>
+                  <c:v>140.45672417215863</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>139.96227877384493</c:v>
+                  <c:v>140.40604601433446</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>137.55518046298829</c:v>
+                  <c:v>137.9913157087407</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>141.4736924909877</c:v>
+                  <c:v>142.26017912672782</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>143.77310822081532</c:v>
+                  <c:v>144.57237786737304</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>146.98571227225398</c:v>
+                  <c:v>147.83115734841911</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>156.48079192362488</c:v>
+                  <c:v>157.38608673028727</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>160.24695513902506</c:v>
+                  <c:v>161.17403848572511</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>160.24695513902506</c:v>
+                  <c:v>161.17403848572511</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>160.24695513902506</c:v>
+                  <c:v>161.17403848572511</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>160.24695513902506</c:v>
+                  <c:v>161.17403848572511</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>160.24695513902506</c:v>
+                  <c:v>161.17403848572511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10272,505 +10272,505 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="288"/>
                 <c:pt idx="0">
-                  <c:v>40.938096955019887</c:v>
+                  <c:v>40.833546154366879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.26215757835957</c:v>
+                  <c:v>55.121272406114628</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.767797108803165</c:v>
+                  <c:v>65.6001288918917</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71.999456476027603</c:v>
+                  <c:v>71.815901286153178</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.150412918340265</c:v>
+                  <c:v>80.943528308640836</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.428373453313142</c:v>
+                  <c:v>85.210582624362814</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.02735374276169</c:v>
+                  <c:v>81.818233462858416</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.557663932730946</c:v>
+                  <c:v>79.354839872329862</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78.96528117171421</c:v>
+                  <c:v>78.76396733007725</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.804043869439752</c:v>
+                  <c:v>77.605690482560945</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76.635773871298724</c:v>
+                  <c:v>76.43940174285153</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76.254541252768504</c:v>
+                  <c:v>76.059145997874637</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71.531163102172059</c:v>
+                  <c:v>71.347871069755612</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>69.253466462296416</c:v>
+                  <c:v>69.076010818221008</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>67.08450347429303</c:v>
+                  <c:v>66.912605598567339</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>63.909226099150032</c:v>
+                  <c:v>63.745464579920373</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64.451731499089576</c:v>
+                  <c:v>64.286579859623643</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>64.143574066029416</c:v>
+                  <c:v>63.979212051668988</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63.281862082830656</c:v>
+                  <c:v>63.119708126244042</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>65.744244835072507</c:v>
+                  <c:v>65.575781248952808</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>66.346547681874128</c:v>
+                  <c:v>66.176540750055395</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>65.750240905389674</c:v>
+                  <c:v>65.581761954890766</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>66.589367576754583</c:v>
+                  <c:v>66.418738441268061</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>69.844290664405889</c:v>
+                  <c:v>69.665321087603701</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>69.487176849366378</c:v>
+                  <c:v>69.309122343899872</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>70.342529545427254</c:v>
+                  <c:v>70.162189235727297</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>68.716306106366545</c:v>
+                  <c:v>68.540135018907179</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>66.559013832406961</c:v>
+                  <c:v>66.388373492268087</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>67.50573672962868</c:v>
+                  <c:v>67.357007498232903</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>68.112686115813688</c:v>
+                  <c:v>67.962619648205475</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>69.0748971314854</c:v>
+                  <c:v>68.922710712125905</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>69.611827100627949</c:v>
+                  <c:v>69.458457712449899</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>69.37295407552422</c:v>
+                  <c:v>69.220037471834843</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>69.687765841390643</c:v>
+                  <c:v>69.534155308104644</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70.763875798332677</c:v>
+                  <c:v>70.605380454053744</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>71.783514369030627</c:v>
+                  <c:v>71.622735261115537</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>70.037328254855851</c:v>
+                  <c:v>69.880460215493997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>69.179768138970033</c:v>
+                  <c:v>69.020431310198418</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>68.62897929579438</c:v>
+                  <c:v>68.470826151511773</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>67.745764329265171</c:v>
+                  <c:v>67.589646523777731</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>67.084621127862277</c:v>
+                  <c:v>66.930026904354264</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>65.478572019682431</c:v>
+                  <c:v>65.327678881618766</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>64.541424659848673</c:v>
+                  <c:v>64.39269114594282</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>65.60044197312186</c:v>
+                  <c:v>65.449267989903149</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>65.992317262933511</c:v>
+                  <c:v>65.840240216462419</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>67.155810903401076</c:v>
+                  <c:v>67.001052625481094</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>66.002687613200152</c:v>
+                  <c:v>65.850586668610234</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>66.854040574683467</c:v>
+                  <c:v>66.699977716203307</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>67.870566930381216</c:v>
+                  <c:v>67.713394595892936</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>68.4878741999661</c:v>
+                  <c:v>68.32593090753781</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>68.129115831724135</c:v>
+                  <c:v>67.968020842911898</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>68.327639428818699</c:v>
+                  <c:v>68.166075020195819</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>68.419280082578538</c:v>
+                  <c:v>68.257498984660444</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>67.487300054495265</c:v>
+                  <c:v>67.327722673891927</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>67.604726388475981</c:v>
+                  <c:v>67.444871346938285</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>68.037237939657601</c:v>
+                  <c:v>67.876360201103395</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>67.694365200133646</c:v>
+                  <c:v>67.534298202764944</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>67.157184749208213</c:v>
+                  <c:v>66.998387944145335</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>67.019252912417457</c:v>
+                  <c:v>66.860782254662297</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>67.168089647155909</c:v>
+                  <c:v>67.009267056870499</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>66.859957239803464</c:v>
+                  <c:v>66.701863245304281</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>67.771893066255174</c:v>
+                  <c:v>67.602535356303733</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>67.757765763874417</c:v>
+                  <c:v>67.588443357165545</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>68.258051155755012</c:v>
+                  <c:v>68.08747856723096</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>68.647821996378497</c:v>
+                  <c:v>68.476275394971125</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>68.526617896813988</c:v>
+                  <c:v>68.35537417684921</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>70.043035408113994</c:v>
+                  <c:v>69.868002255901942</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>69.866714023537639</c:v>
+                  <c:v>69.692121487406325</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>70.603004482613017</c:v>
+                  <c:v>70.426572002806424</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>72.330816815234726</c:v>
+                  <c:v>72.150066640781603</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>72.479582707350005</c:v>
+                  <c:v>72.29846077626344</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>72.269887144426193</c:v>
+                  <c:v>72.089289229398759</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72.772199155933208</c:v>
+                  <c:v>72.58970206542196</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73.82686811307768</c:v>
+                  <c:v>73.638477266813666</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>75.090374793002908</c:v>
+                  <c:v>74.898759739905046</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76.000768256568307</c:v>
+                  <c:v>75.806830068283787</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>75.59844274009258</c:v>
+                  <c:v>75.405531203032211</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>73.284522067692492</c:v>
+                  <c:v>73.097515175984171</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>73.650805478197483</c:v>
+                  <c:v>73.462863907239708</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>72.279730735332166</c:v>
+                  <c:v>72.094875609614988</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>71.058196247937886</c:v>
+                  <c:v>70.8764651918449</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>68.750618158152207</c:v>
+                  <c:v>68.574788723904661</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>67.148266598567574</c:v>
+                  <c:v>66.976535172101421</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>69.123399022222387</c:v>
+                  <c:v>68.946616202388142</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>69.008316024031657</c:v>
+                  <c:v>68.831827528510487</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>67.956106690364081</c:v>
+                  <c:v>67.817401305820468</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>70.683745439053396</c:v>
+                  <c:v>70.539384992036062</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>72.815645177936858</c:v>
+                  <c:v>72.66693066058285</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>75.365734939006643</c:v>
+                  <c:v>75.211812263885164</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>77.496030479133225</c:v>
+                  <c:v>77.337757009999066</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>78.27604065464871</c:v>
+                  <c:v>78.116174137255484</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>79.73425227976287</c:v>
+                  <c:v>79.571407594182048</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>80.064082595405623</c:v>
+                  <c:v>79.900564283215019</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>80.394169586172765</c:v>
+                  <c:v>80.229977123153773</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>80.051916642029042</c:v>
+                  <c:v>79.888423176887173</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>78.801009986331323</c:v>
+                  <c:v>78.640071301540615</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>78.327774104649691</c:v>
+                  <c:v>78.167801929811148</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>77.11341642484031</c:v>
+                  <c:v>77.091012941628207</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>76.836606549128078</c:v>
+                  <c:v>76.814283486492428</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>76.953937680237729</c:v>
+                  <c:v>76.931580529811043</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>74.887154205244144</c:v>
+                  <c:v>74.865397509978607</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>74.360101377508315</c:v>
+                  <c:v>74.338497805003058</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>75.499753370673105</c:v>
+                  <c:v>75.477818699177817</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>75.603320958059214</c:v>
+                  <c:v>75.581356197445686</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>76.750394258237336</c:v>
+                  <c:v>76.728096242548148</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>78.362538244034866</c:v>
+                  <c:v>78.339771857958326</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>77.83395260052275</c:v>
+                  <c:v>77.811555537339871</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>76.978146979309244</c:v>
+                  <c:v>76.9559961779688</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>76.48587085948418</c:v>
+                  <c:v>76.463861712768619</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>77.661696816327364</c:v>
+                  <c:v>77.639349264430308</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>78.584514562106889</c:v>
+                  <c:v>78.561901464666647</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>80.384518999405458</c:v>
+                  <c:v>80.361387941448953</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>80.281502188829108</c:v>
+                  <c:v>80.258400774488649</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>80.198175403663456</c:v>
+                  <c:v>80.175097967033111</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>80.735052199518847</c:v>
+                  <c:v>80.711820273834732</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>81.031659411401947</c:v>
+                  <c:v>81.008342135470116</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>78.892174834212994</c:v>
+                  <c:v>78.869473205950243</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>78.23548258529452</c:v>
+                  <c:v>78.212969923597214</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>78.283748301439587</c:v>
+                  <c:v>78.261221751034711</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>77.213775757892279</c:v>
+                  <c:v>77.191557097578979</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>77.298198374486432</c:v>
+                  <c:v>77.275955421131869</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>79.063401219806892</c:v>
+                  <c:v>79.039954041388256</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>78.187084010082685</c:v>
+                  <c:v>78.163896713804846</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>78.321570922857063</c:v>
+                  <c:v>78.298343742908784</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>77.00100921359774</c:v>
+                  <c:v>76.978173661704062</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>76.338517539110498</c:v>
+                  <c:v>76.315878456888669</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>76.866595578918066</c:v>
+                  <c:v>76.843799888963346</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>77.608830328732807</c:v>
+                  <c:v>77.585814520362518</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>79.26506269117445</c:v>
+                  <c:v>79.241555707682593</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>80.440958810141524</c:v>
+                  <c:v>80.417103100871671</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>80.716710316096481</c:v>
+                  <c:v>80.692772829485151</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>81.902610131757243</c:v>
+                  <c:v>81.878320952654377</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>83.16261333522425</c:v>
+                  <c:v>83.13795048740154</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>84.394759513438331</c:v>
+                  <c:v>84.369731258223183</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>84.706313913465948</c:v>
+                  <c:v>84.681193263141409</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>85.707734908807183</c:v>
+                  <c:v>85.682317275347742</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>86.032754965228634</c:v>
+                  <c:v>86.00724094326155</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>85.669207627783479</c:v>
+                  <c:v>85.643801420040859</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>82.96949132008811</c:v>
+                  <c:v>82.944885744862773</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>83.768290960666079</c:v>
+                  <c:v>83.743448492043754</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>85.743749621776828</c:v>
+                  <c:v>85.718321307732069</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>87.900469346075099</c:v>
+                  <c:v>87.874401431514897</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>88.730577077586432</c:v>
+                  <c:v>88.704262984847858</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>91.886347344771323</c:v>
+                  <c:v>91.859097371367852</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>98.995732787664949</c:v>
+                  <c:v>98.966374442671651</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>105.53286187434776</c:v>
+                  <c:v>105.50156486709513</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>105.27444804220272</c:v>
+                  <c:v>105.24322767060113</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>105.05568775148106</c:v>
+                  <c:v>105.02453225580804</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>104.2567112726543</c:v>
+                  <c:v>104.22579272282171</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>103.77645255514199</c:v>
+                  <c:v>103.74567643166171</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>103.35142074331944</c:v>
+                  <c:v>103.32077066800522</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>103.05122797774231</c:v>
+                  <c:v>103.02066692811158</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>101.55733667638663</c:v>
+                  <c:v>101.52721865773282</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>99.704369546723839</c:v>
+                  <c:v>99.674801047192958</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>98.196345535457354</c:v>
+                  <c:v>98.167224258124179</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>96.338279437347722</c:v>
+                  <c:v>96.309709191296321</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>93.77671041488729</c:v>
+                  <c:v>93.748899832156383</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>92.8753656883394</c:v>
+                  <c:v>92.875365688339372</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>90.944869572894547</c:v>
+                  <c:v>90.944869572894532</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>91.186712349308692</c:v>
+                  <c:v>91.186712349308678</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>91.654482193901174</c:v>
+                  <c:v>91.65448219390116</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>91.63829381991404</c:v>
+                  <c:v>91.638293819914026</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>90.663572897117533</c:v>
+                  <c:v>90.663572897117518</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>88.894650441703618</c:v>
+                  <c:v>88.894650441703604</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>87.416615772696588</c:v>
+                  <c:v>87.416615772696574</c:v>
                 </c:pt>
                 <c:pt idx="165">
                   <c:v>88.342997880162983</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>87.021656381024982</c:v>
+                  <c:v>87.021656381024968</c:v>
                 </c:pt>
                 <c:pt idx="167">
                   <c:v>100</c:v>
@@ -10782,16 +10782,16 @@
                   <c:v>119.01049822319858</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>118.41940968248463</c:v>
+                  <c:v>118.41940968248461</c:v>
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>108.4521193493545</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>101.63762115425558</c:v>
+                  <c:v>101.63762115425557</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>99.42661065801525</c:v>
+                  <c:v>99.426610658015235</c:v>
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>102.84632547180512</c:v>
@@ -10803,337 +10803,337 @@
                   <c:v>103.64205718770351</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>101.64168690457791</c:v>
+                  <c:v>101.64168690457788</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>99.578222115187344</c:v>
+                  <c:v>99.57822211518733</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>100.28822981854901</c:v>
+                  <c:v>100.28822981854898</c:v>
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>101.34708078058846</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>98.079865333109296</c:v>
+                  <c:v>98.079865333109282</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>95.631742326398822</c:v>
+                  <c:v>95.631124368404443</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>92.737832078867342</c:v>
+                  <c:v>92.737232820887499</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>94.285631410641074</c:v>
+                  <c:v>94.285022151013791</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>95.796942338091611</c:v>
+                  <c:v>95.796323312599483</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>101.20949636006739</c:v>
+                  <c:v>101.20884235946193</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>102.03739288084554</c:v>
+                  <c:v>102.08426923414923</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>99.861483589446863</c:v>
+                  <c:v>99.907360322025056</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>98.954345778444775</c:v>
+                  <c:v>98.999805768578625</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>97.591433070199471</c:v>
+                  <c:v>97.636266933226096</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>96.549021625839899</c:v>
+                  <c:v>96.593376601217855</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>104.00442094259105</c:v>
+                  <c:v>104.05220095581569</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>106.49104299017402</c:v>
+                  <c:v>106.53996536670631</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>108.2802280731368</c:v>
+                  <c:v>108.32997240787191</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>102.77045369177009</c:v>
+                  <c:v>102.81766681590454</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>115.01610225021463</c:v>
+                  <c:v>115.06894107030281</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>123.14635086328624</c:v>
+                  <c:v>123.20292474946808</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>122.79595555616865</c:v>
+                  <c:v>122.8523684694586</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>127.59243844971063</c:v>
+                  <c:v>127.65105488487016</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>151.97355530903266</c:v>
+                  <c:v>152.04337251888441</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>140.02321721859039</c:v>
+                  <c:v>140.08754439920273</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>133.89810689523716</c:v>
+                  <c:v>133.95962017765558</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>135.044505651094</c:v>
+                  <c:v>135.10654559331419</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>131.01855598744623</c:v>
+                  <c:v>131.07874639359449</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>130.43966314565333</c:v>
+                  <c:v>130.61712070019149</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>134.8209214567712</c:v>
+                  <c:v>135.00433952490579</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>136.05802297610538</c:v>
+                  <c:v>136.24312406767805</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>135.83408364703376</c:v>
+                  <c:v>136.01888007877568</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>130.0419145547682</c:v>
+                  <c:v>130.21883098944636</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>124.8189907535546</c:v>
+                  <c:v>124.9888016249175</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>146.42178666182514</c:v>
+                  <c:v>146.62098720838819</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>148.18334257345995</c:v>
+                  <c:v>148.38493964111731</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>149.70743946333991</c:v>
+                  <c:v>149.91110999930007</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>146.67393298598341</c:v>
+                  <c:v>146.87347656678156</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>142.88584823900743</c:v>
+                  <c:v>143.08023829334462</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>141.60076567486877</c:v>
+                  <c:v>141.7934074296189</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>140.35492408345891</c:v>
+                  <c:v>140.54587092427852</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>134.99713968151013</c:v>
+                  <c:v>135.16415853329215</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>135.03013929507003</c:v>
+                  <c:v>135.19719897406941</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>137.71075775639795</c:v>
+                  <c:v>137.88113390431315</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>142.55778302511075</c:v>
+                  <c:v>142.73415592671162</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>144.3284390470175</c:v>
+                  <c:v>144.50700260937143</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>144.61792262308182</c:v>
+                  <c:v>144.7968443353536</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>145.11214566931866</c:v>
+                  <c:v>145.29167883577313</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>144.61091531211332</c:v>
+                  <c:v>144.78982835491973</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>146.92291085202481</c:v>
+                  <c:v>147.10468430240218</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>149.09597197016348</c:v>
+                  <c:v>149.28043393804319</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>149.02745367079945</c:v>
+                  <c:v>149.21183086764097</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>148.85874842393559</c:v>
+                  <c:v>149.04291689815759</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>144.62664113384676</c:v>
+                  <c:v>144.80557363268531</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>142.93077194795461</c:v>
+                  <c:v>143.10760631252998</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>141.88303385053248</c:v>
+                  <c:v>142.05857195050245</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>139.64932098502541</c:v>
+                  <c:v>139.81336922358793</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>135.98385542465161</c:v>
+                  <c:v>136.14359778356896</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>134.27958875403553</c:v>
+                  <c:v>134.43732908427575</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>132.40150431194962</c:v>
+                  <c:v>132.55703842706166</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>129.32831400974857</c:v>
+                  <c:v>129.48023800021201</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>127.19801909960431</c:v>
+                  <c:v>127.34744059936347</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>123.98566083606883</c:v>
+                  <c:v>124.13130872840156</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>123.53162516294287</c:v>
+                  <c:v>123.67673969247875</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>122.29667337469705</c:v>
+                  <c:v>122.44033718707837</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>118.75611842253097</c:v>
+                  <c:v>118.89562308970963</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>117.06014459132716</c:v>
+                  <c:v>117.19765697155664</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>114.30063760259995</c:v>
+                  <c:v>114.43490834686865</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>113.97146982550188</c:v>
+                  <c:v>114.10535389124152</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>108.76770490061907</c:v>
+                  <c:v>108.89547602242314</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>108.43073161074778</c:v>
+                  <c:v>108.55810688476504</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>107.70898803689326</c:v>
+                  <c:v>107.83551546746131</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>106.69765672856232</c:v>
+                  <c:v>106.82299613244636</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>108.93948622948272</c:v>
+                  <c:v>109.06745914549694</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>113.18108646454674</c:v>
+                  <c:v>113.3140420546072</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>114.679766562504</c:v>
+                  <c:v>114.8144826754836</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>114.05108366677037</c:v>
+                  <c:v>114.18506125613288</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>112.36699832048028</c:v>
+                  <c:v>112.49899758848252</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>112.5587801769347</c:v>
+                  <c:v>112.69100473407919</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>111.66781404639217</c:v>
+                  <c:v>111.79899197170701</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>113.37935103537691</c:v>
+                  <c:v>113.51253952992542</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>114.96474060628353</c:v>
+                  <c:v>115.09979148272338</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>122.85997162452971</c:v>
+                  <c:v>123.00429715216339</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>117.78192465759503</c:v>
+                  <c:v>117.92028492414195</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>107.5459081489156</c:v>
+                  <c:v>107.67224400699207</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>98.056940267154573</c:v>
+                  <c:v>98.172129286450897</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>143.43830737889206</c:v>
+                  <c:v>143.60680659895218</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>151.35441535452082</c:v>
+                  <c:v>151.53386555969351</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>136.16910852663514</c:v>
+                  <c:v>136.33055458954684</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>124.12258294850812</c:v>
+                  <c:v>124.26974629966972</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>115.71500615222567</c:v>
+                  <c:v>115.85220123534855</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>113.99508161385855</c:v>
+                  <c:v>114.13023750433169</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>110.05460938078065</c:v>
+                  <c:v>110.12207726472877</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>108.37901137105949</c:v>
+                  <c:v>108.44545204630917</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>107.51300215088686</c:v>
+                  <c:v>107.57891192779532</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>107.00411921749627</c:v>
+                  <c:v>107.06971702878252</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>105.71576842222763</c:v>
+                  <c:v>105.7805764228696</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>103.74608905377096</c:v>
+                  <c:v>103.80968956206166</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>102.14126666621573</c:v>
+                  <c:v>102.20388335409937</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>101.71824118700474</c:v>
+                  <c:v>101.78035443237918</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>101.68154025217338</c:v>
+                  <c:v>101.74363108648225</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>99.932801478194179</c:v>
+                  <c:v>99.993824462338765</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>102.77957092203454</c:v>
+                  <c:v>103.08720738342691</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>104.45007911279313</c:v>
+                  <c:v>104.76271568484876</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>106.7840117340138</c:v>
+                  <c:v>107.12415286454045</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>113.68211551044989</c:v>
+                  <c:v>114.04802286645572</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>116.41820469060499</c:v>
+                  <c:v>116.79291866630832</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>116.41820469060499</c:v>
+                  <c:v>116.79291866630832</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>116.41820469060499</c:v>
+                  <c:v>116.79291866630832</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>116.41820469060499</c:v>
+                  <c:v>116.79291866630832</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>116.41820469060499</c:v>
+                  <c:v>116.79291866630832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16554,7 +16554,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{57AF0F34-10AC-4A21-A531-13651A315E15}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="51" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16565,7 +16565,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EE8BBE07-14F2-44A2-8E60-432677DB8658}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="51" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16576,7 +16576,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{491E9BB4-9E6D-412C-B96F-ACBEC6389B22}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="51" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16587,7 +16587,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9317935" cy="6087717"/>
+    <xdr:ext cx="9282206" cy="6051176"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -16620,7 +16620,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9317935" cy="6087717"/>
+    <xdr:ext cx="9282206" cy="6051176"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -16653,7 +16653,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9317935" cy="6087717"/>
+    <xdr:ext cx="9282206" cy="6051176"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -25135,8 +25135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2078B3E5-1980-43E4-A9D0-8FE017CD674E}">
   <dimension ref="A1:K289"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="I1" activeCellId="1" sqref="A1:A289 I1:K289"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25182,7 +25182,7 @@
       </c>
       <c r="C2">
         <f>B2/AVERAGE(B$2:B$13)*100</f>
-        <v>56.350339739928515</v>
+        <v>56.350227518469339</v>
       </c>
       <c r="D2">
         <v>0.39462523152211898</v>
@@ -25199,7 +25199,7 @@
       </c>
       <c r="I2">
         <f>B2/B$169*100</f>
-        <v>40.938096955019887</v>
+        <v>40.833546154366879</v>
       </c>
       <c r="J2">
         <f>D2/D$169*100</f>
@@ -25215,11 +25215,11 @@
         <v>37288</v>
       </c>
       <c r="B3">
-        <v>134.98956153012688</v>
+        <v>134.99016763749717</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="0">B3/AVERAGE(B$2:B$13)*100</f>
-        <v>76.067076535666331</v>
+        <v>76.067266591292821</v>
       </c>
       <c r="D3">
         <v>0.49560227284090003</v>
@@ -25236,7 +25236,7 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="2">B3/B$169*100</f>
-        <v>55.26215757835957</v>
+        <v>55.121272406114628</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" si="3">D3/D$169*100</f>
@@ -25252,11 +25252,11 @@
         <v>37316</v>
       </c>
       <c r="B4">
-        <v>160.65181823440531</v>
+        <v>160.65253956611409</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>90.527845373459812</v>
+        <v>90.528071559704273</v>
       </c>
       <c r="D4">
         <v>0.56600209818588598</v>
@@ -25273,7 +25273,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>65.767797108803165</v>
+        <v>65.6001288918917</v>
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
@@ -25289,11 +25289,11 @@
         <v>37347</v>
       </c>
       <c r="B5">
-        <v>175.87397029015764</v>
+        <v>175.87475996980717</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>99.10557977260477</v>
+        <v>99.105827390548185</v>
       </c>
       <c r="D5">
         <v>0.60559356947540699</v>
@@ -25310,7 +25310,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>71.999456476027603</v>
+        <v>71.815901286153178</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
@@ -25326,11 +25326,11 @@
         <v>37377</v>
       </c>
       <c r="B6">
-        <v>198.22712571984735</v>
+        <v>198.2280157658667</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>111.70165879982919</v>
+        <v>111.70193788941316</v>
       </c>
       <c r="D6">
         <v>0.66665123524901904</v>
@@ -25347,7 +25347,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>81.150412918340265</v>
+        <v>80.943528308640836</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
@@ -25363,11 +25363,11 @@
         <v>37408</v>
       </c>
       <c r="B7">
-        <v>208.6769532720983</v>
+        <v>208.6778902381715</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>117.59017212775926</v>
+        <v>117.59046592995136</v>
       </c>
       <c r="D7">
         <v>0.69671911805897002</v>
@@ -25384,7 +25384,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>85.428373453313142</v>
+        <v>85.210582624362814</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
@@ -25400,11 +25400,11 @@
         <v>37438</v>
       </c>
       <c r="B8">
-        <v>200.36924000861106</v>
+        <v>200.37013967279083</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>112.9087474791651</v>
+        <v>112.90902958469245</v>
       </c>
       <c r="D8">
         <v>0.68013423599974598</v>
@@ -25421,7 +25421,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>82.02735374276169</v>
+        <v>81.818233462858416</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
@@ -25437,11 +25437,11 @@
         <v>37469</v>
       </c>
       <c r="B9">
-        <v>194.33649790839991</v>
+        <v>194.33737048537822</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>109.50927681006242</v>
+        <v>109.50955042192132</v>
       </c>
       <c r="D9">
         <v>0.66337458000989302</v>
@@ -25458,7 +25458,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>79.557663932730946</v>
+        <v>79.354839872329862</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
@@ -25474,11 +25474,11 @@
         <v>37500</v>
       </c>
       <c r="B10">
-        <v>192.88947715003977</v>
+        <v>192.89034322984944</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>108.69387569661919</v>
+        <v>108.69414727117659</v>
       </c>
       <c r="D10">
         <v>0.65966881383199405</v>
@@ -25495,7 +25495,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>78.96528117171421</v>
+        <v>78.76396733007725</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
@@ -25511,11 +25511,11 @@
         <v>37530</v>
       </c>
       <c r="B11">
-        <v>190.05290830916192</v>
+        <v>190.05376165268842</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>107.09545951782758</v>
+        <v>107.09572709869937</v>
       </c>
       <c r="D11">
         <v>0.65476691078698201</v>
@@ -25532,7 +25532,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>77.804043869439752</v>
+        <v>77.605690482560945</v>
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
@@ -25548,11 +25548,11 @@
         <v>37561</v>
       </c>
       <c r="B12">
-        <v>187.1991606143811</v>
+        <v>187.19755921731732</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>105.48736299649819</v>
+        <v>105.48625052797969</v>
       </c>
       <c r="D12">
         <v>0.64680914187729699</v>
@@ -25569,7 +25569,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>76.635773871298724</v>
+        <v>76.43940174285153</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
@@ -25585,11 +25585,11 @@
         <v>37591</v>
       </c>
       <c r="B13">
-        <v>186.26791894247557</v>
+        <v>186.26632551172784</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>104.96260515057965</v>
+        <v>104.96149821615136</v>
       </c>
       <c r="D13">
         <v>0.64467523875507304</v>
@@ -25606,7 +25606,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>76.254541252768504</v>
+        <v>76.059145997874637</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
@@ -25622,11 +25622,11 @@
         <v>37622</v>
       </c>
       <c r="B14">
-        <v>174.73006422542269</v>
+        <v>174.7285694953668</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>98.460984818820975</v>
+        <v>98.459946450406008</v>
       </c>
       <c r="D14">
         <v>0.54731448897955304</v>
@@ -25643,7 +25643,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>71.531163102172059</v>
+        <v>71.347871069755612</v>
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
@@ -25659,11 +25659,11 @@
         <v>37653</v>
       </c>
       <c r="B15">
-        <v>169.16630623643206</v>
+        <v>169.16485910159869</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>95.325788289717337</v>
+        <v>95.324782985048955</v>
       </c>
       <c r="D15">
         <v>0.53530137981689196</v>
@@ -25680,7 +25680,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>69.253466462296416</v>
+        <v>69.076010818221008</v>
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
@@ -25696,11 +25696,11 @@
         <v>37681</v>
       </c>
       <c r="B16">
-        <v>163.86815329496415</v>
+        <v>163.86675148323232</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>92.340261107259153</v>
+        <v>92.339287287926155</v>
       </c>
       <c r="D16">
         <v>0.52260342668729398</v>
@@ -25717,7 +25717,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>67.08450347429303</v>
+        <v>66.912605598567339</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
@@ -25733,11 +25733,11 @@
         <v>37712</v>
       </c>
       <c r="B17">
-        <v>156.11186364957152</v>
+        <v>156.11052818909587</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>87.969565540867507</v>
+        <v>87.968637814839752</v>
       </c>
       <c r="D17">
         <v>0.50343366983179105</v>
@@ -25754,7 +25754,7 @@
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>63.909226099150032</v>
+        <v>63.745464579920373</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
@@ -25770,11 +25770,11 @@
         <v>37742</v>
       </c>
       <c r="B18">
-        <v>157.43704835597251</v>
+        <v>157.43570155919124</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>88.716311625106044</v>
+        <v>88.715376023902664</v>
       </c>
       <c r="D18">
         <v>0.51042924395073297</v>
@@ -25791,7 +25791,7 @@
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>64.451731499089576</v>
+        <v>64.286579859623643</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
@@ -25807,11 +25807,11 @@
         <v>37773</v>
       </c>
       <c r="B19">
-        <v>156.6843083509871</v>
+        <v>156.68296799352763</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>88.292140074938402</v>
+        <v>88.291208947043316</v>
       </c>
       <c r="D19">
         <v>0.50696610770320805</v>
@@ -25828,7 +25828,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>64.143574066029416</v>
+        <v>63.979212051668988</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
@@ -25844,11 +25844,11 @@
         <v>37803</v>
       </c>
       <c r="B20">
-        <v>154.57939374260764</v>
+        <v>154.57807139166093</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>87.106013541881197</v>
+        <v>87.105094922862904</v>
       </c>
       <c r="D20">
         <v>0.50019000257761903</v>
@@ -25865,7 +25865,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>63.281862082830656</v>
+        <v>63.119708126244042</v>
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
@@ -25881,11 +25881,11 @@
         <v>37834</v>
       </c>
       <c r="B21">
-        <v>160.59428680162637</v>
+        <v>160.59291299621773</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>90.495426215631639</v>
+        <v>90.494471851906226</v>
       </c>
       <c r="D21">
         <v>0.51429615715749699</v>
@@ -25902,7 +25902,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>65.744244835072507</v>
+        <v>65.575781248952808</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
@@ -25918,11 +25918,11 @@
         <v>37865</v>
       </c>
       <c r="B22">
-        <v>162.06553947725365</v>
+        <v>162.06415308599952</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>91.324482096780386</v>
+        <v>91.32351898984119</v>
       </c>
       <c r="D22">
         <v>0.518250428747</v>
@@ -25939,7 +25939,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>66.346547681874128</v>
+        <v>66.176540750055395</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
@@ -25955,11 +25955,11 @@
         <v>37895</v>
       </c>
       <c r="B23">
-        <v>160.60893347737132</v>
+        <v>160.60755954666757</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>90.503679667174524</v>
+        <v>90.502725216408308</v>
       </c>
       <c r="D23">
         <v>0.51629123821678102</v>
@@ -25976,7 +25976,7 @@
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>65.750240905389674</v>
+        <v>65.581761954890766</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
@@ -25992,11 +25992,11 @@
         <v>37926</v>
       </c>
       <c r="B24">
-        <v>162.65867866285686</v>
+        <v>162.65728719758772</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>91.658718042998444</v>
+        <v>91.657751411210782</v>
       </c>
       <c r="D24">
         <v>0.52057192359307702</v>
@@ -26013,7 +26013,7 @@
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>66.589367576754583</v>
+        <v>66.418738441268061</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
@@ -26029,11 +26029,11 @@
         <v>37956</v>
       </c>
       <c r="B25">
-        <v>170.60951988351152</v>
+        <v>170.60806040269284</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>96.139044083019627</v>
+        <v>96.138030201765019</v>
       </c>
       <c r="D25">
         <v>0.54285195547255305</v>
@@ -26050,7 +26050,7 @@
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>69.844290664405889</v>
+        <v>69.665321087603701</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
@@ -26066,11 +26066,11 @@
         <v>37987</v>
       </c>
       <c r="B26">
-        <v>169.73719351369547</v>
+        <v>169.7357414952013</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>95.647485209987309</v>
+        <v>95.646476512706911</v>
       </c>
       <c r="D26">
         <v>0.55863923636859902</v>
@@ -26087,7 +26087,7 @@
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>69.487176849366378</v>
+        <v>69.309122343899872</v>
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
@@ -26103,11 +26103,11 @@
         <v>38018</v>
       </c>
       <c r="B27">
-        <v>171.82657421207207</v>
+        <v>171.82487401531722</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>96.824858331983009</v>
+        <v>96.823707440954564</v>
       </c>
       <c r="D27">
         <v>0.565060389108753</v>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>70.342529545427254</v>
+        <v>70.162189235727297</v>
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
@@ -26140,11 +26140,11 @@
         <v>38047</v>
       </c>
       <c r="B28">
-        <v>167.8541779356953</v>
+        <v>167.85251704517285</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>94.586399534428423</v>
+        <v>94.585275250432431</v>
       </c>
       <c r="D28">
         <v>0.55451846435734398</v>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>68.716306106366545</v>
+        <v>68.540135018907179</v>
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
@@ -26177,11 +26177,11 @@
         <v>38078</v>
       </c>
       <c r="B29">
-        <v>162.5845331929759</v>
+        <v>162.58292444475407</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>91.616936818818758</v>
+        <v>91.615847830800035</v>
       </c>
       <c r="D29">
         <v>0.54042921640072195</v>
@@ -26198,7 +26198,7 @@
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>66.559013832406961</v>
+        <v>66.388373492268087</v>
       </c>
       <c r="J29">
         <f t="shared" si="3"/>
@@ -26214,11 +26214,11 @@
         <v>38108</v>
       </c>
       <c r="B30">
-        <v>164.89710502127048</v>
+        <v>164.9550769937955</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>92.920078900792632</v>
+        <v>92.952561189270043</v>
       </c>
       <c r="D30">
         <v>0.54638396311582604</v>
@@ -26235,7 +26235,7 @@
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>67.50573672962868</v>
+        <v>67.357007498232903</v>
       </c>
       <c r="J30">
         <f t="shared" si="3"/>
@@ -26251,11 +26251,11 @@
         <v>38139</v>
       </c>
       <c r="B31">
-        <v>166.37970785659985</v>
+        <v>166.43820105968757</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>93.755530635494537</v>
+        <v>93.788304974781397</v>
       </c>
       <c r="D31">
         <v>0.55201429706112304</v>
@@ -26272,7 +26272,7 @@
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>68.112686115813688</v>
+        <v>67.962619648205475</v>
       </c>
       <c r="J31">
         <f t="shared" si="3"/>
@@ -26288,11 +26288,11 @@
         <v>38169</v>
       </c>
       <c r="B32">
-        <v>168.73011270499555</v>
+        <v>168.7894322270491</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>95.079991752829272</v>
+        <v>95.113229087074785</v>
       </c>
       <c r="D32">
         <v>0.55762644738420697</v>
@@ -26309,7 +26309,7 @@
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>69.0748971314854</v>
+        <v>68.922710712125905</v>
       </c>
       <c r="J32">
         <f t="shared" si="3"/>
@@ -26325,11 +26325,11 @@
         <v>38200</v>
       </c>
       <c r="B33">
-        <v>170.04167823705362</v>
+        <v>170.10145885902145</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>95.819063386055788</v>
+        <v>95.852559079294124</v>
       </c>
       <c r="D33">
         <v>0.56119359924408696</v>
@@ -26346,7 +26346,7 @@
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
-        <v>69.611827100627949</v>
+        <v>69.458457712449899</v>
       </c>
       <c r="J33">
         <f t="shared" si="3"/>
@@ -26362,11 +26362,11 @@
         <v>38231</v>
       </c>
       <c r="B34">
-        <v>169.45818011947819</v>
+        <v>169.517575598641</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>95.490260214425945</v>
+        <v>95.523539533627471</v>
       </c>
       <c r="D34">
         <v>0.56029832868381602</v>
@@ -26383,7 +26383,7 @@
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>69.37295407552422</v>
+        <v>69.220037471834843</v>
       </c>
       <c r="J34">
         <f t="shared" si="3"/>
@@ -26399,11 +26399,11 @@
         <v>38261</v>
       </c>
       <c r="B35">
-        <v>170.2271747462004</v>
+        <v>170.28683975973621</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>95.923591299165722</v>
+        <v>95.957021638622678</v>
       </c>
       <c r="D35">
         <v>0.56275788016204098</v>
@@ -26420,7 +26420,7 @@
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
-        <v>69.687765841390643</v>
+        <v>69.534155308104644</v>
       </c>
       <c r="J35">
         <f t="shared" si="3"/>
@@ -26436,11 +26436,11 @@
         <v>38292</v>
       </c>
       <c r="B36">
-        <v>172.85580195895136</v>
+        <v>172.91023460744168</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>97.404831664047094</v>
+        <v>97.4353106040125</v>
       </c>
       <c r="D36">
         <v>0.57153236936712004</v>
@@ -26457,7 +26457,7 @@
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>70.763875798332677</v>
+        <v>70.605380454053744</v>
       </c>
       <c r="J36">
         <f t="shared" si="3"/>
@@ -26473,11 +26473,11 @@
         <v>38322</v>
       </c>
       <c r="B37">
-        <v>175.34648581222933</v>
+        <v>175.4017027822012</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>98.808340477216774</v>
+        <v>98.839258589039744</v>
       </c>
       <c r="D37">
         <v>0.58063763712666505</v>
@@ -26494,7 +26494,7 @@
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
-        <v>71.783514369030627</v>
+        <v>71.622735261115537</v>
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
@@ -26510,11 +26510,11 @@
         <v>38353</v>
       </c>
       <c r="B38">
-        <v>171.08105521321204</v>
+        <v>171.13492899029234</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>96.404755843299654</v>
+        <v>96.434921849600684</v>
       </c>
       <c r="D38">
         <v>0.50082791815254402</v>
@@ -26531,7 +26531,7 @@
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
-        <v>70.037328254855851</v>
+        <v>69.880460215493997</v>
       </c>
       <c r="J38">
         <f t="shared" si="3"/>
@@ -26547,11 +26547,11 @@
         <v>38384</v>
       </c>
       <c r="B39">
-        <v>168.9862824228988</v>
+        <v>169.02874673013707</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>95.224344259178579</v>
+        <v>95.248083354049555</v>
       </c>
       <c r="D39">
         <v>0.49590284067427498</v>
@@ -26568,7 +26568,7 @@
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
-        <v>69.179768138970033</v>
+        <v>69.020431310198418</v>
       </c>
       <c r="J39">
         <f t="shared" si="3"/>
@@ -26584,11 +26584,11 @@
         <v>38412</v>
       </c>
       <c r="B40">
-        <v>167.64086364639624</v>
+        <v>167.68278192803803</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>94.46619620769458</v>
+        <v>94.489629125748223</v>
       </c>
       <c r="D40">
         <v>0.49327628547404301</v>
@@ -26605,7 +26605,7 @@
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
-        <v>68.62897929579438</v>
+        <v>68.470826151511773</v>
       </c>
       <c r="J40">
         <f t="shared" si="3"/>
@@ -26621,11 +26621,11 @@
         <v>38443</v>
       </c>
       <c r="B41">
-        <v>165.48342343245656</v>
+        <v>165.5248022502436</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>93.250471317453744</v>
+        <v>93.27360266750874</v>
       </c>
       <c r="D41">
         <v>0.48716069163428399</v>
@@ -26642,7 +26642,7 @@
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
-        <v>67.745764329265171</v>
+        <v>67.589646523777731</v>
       </c>
       <c r="J41">
         <f t="shared" si="3"/>
@@ -26658,11 +26658,11 @@
         <v>38473</v>
       </c>
       <c r="B42">
-        <v>163.86844068880507</v>
+        <v>163.90941568320426</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>92.340423054664896</v>
+        <v>92.363328661679276</v>
       </c>
       <c r="D42">
         <v>0.482472289012572</v>
@@ -26679,7 +26679,7 @@
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
-        <v>67.084621127862277</v>
+        <v>66.930026904354264</v>
       </c>
       <c r="J42">
         <f t="shared" si="3"/>
@@ -26695,11 +26695,11 @@
         <v>38504</v>
       </c>
       <c r="B43">
-        <v>159.94532450207939</v>
+        <v>159.98531852867842</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>90.129733755052854</v>
+        <v>90.152090987058187</v>
       </c>
       <c r="D43">
         <v>0.47145133726108901</v>
@@ -26716,7 +26716,7 @@
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
-        <v>65.478572019682431</v>
+        <v>65.327678881618766</v>
       </c>
       <c r="J43">
         <f t="shared" si="3"/>
@@ -26732,11 +26732,11 @@
         <v>38534</v>
       </c>
       <c r="B44">
-        <v>157.65614295838566</v>
+        <v>157.69556457945902</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>88.839772177917695</v>
+        <v>88.86180942705991</v>
       </c>
       <c r="D44">
         <v>0.46585182533798303</v>
@@ -26753,7 +26753,7 @@
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
-        <v>64.541424659848673</v>
+        <v>64.39269114594282</v>
       </c>
       <c r="J44">
         <f t="shared" si="3"/>
@@ -26769,11 +26769,11 @@
         <v>38565</v>
       </c>
       <c r="B45">
-        <v>160.24301775727227</v>
+        <v>160.28308622150806</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>90.297484915736902</v>
+        <v>90.319883759444181</v>
       </c>
       <c r="D45">
         <v>0.47350578348121602</v>
@@ -26790,7 +26790,7 @@
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
-        <v>65.60044197312186</v>
+        <v>65.449267989903149</v>
       </c>
       <c r="J45">
         <f t="shared" si="3"/>
@@ -26806,11 +26806,11 @@
         <v>38596</v>
       </c>
       <c r="B46">
-        <v>161.20025641504921</v>
+        <v>161.24056423500519</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>90.836892151516139</v>
+        <v>90.859424798489144</v>
       </c>
       <c r="D46">
         <v>0.47514857196204302</v>
@@ -26827,7 +26827,7 @@
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
-        <v>65.992317262933511</v>
+        <v>65.840240216462419</v>
       </c>
       <c r="J46">
         <f t="shared" si="3"/>
@@ -26843,11 +26843,11 @@
         <v>38626</v>
       </c>
       <c r="B47">
-        <v>164.04233684137176</v>
+        <v>164.08335531817576</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>92.438414127430903</v>
+        <v>92.461344041730513</v>
       </c>
       <c r="D47">
         <v>0.47774973976365298</v>
@@ -26864,7 +26864,7 @@
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
-        <v>67.155810903401076</v>
+        <v>67.001052625481094</v>
       </c>
       <c r="J47">
         <f t="shared" si="3"/>
@@ -26880,11 +26880,11 @@
         <v>38657</v>
       </c>
       <c r="B48">
-        <v>161.22558819898151</v>
+        <v>161.26590235310226</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>90.851166697824169</v>
+        <v>90.873702885685731</v>
       </c>
       <c r="D48">
         <v>0.47015795214935702</v>
@@ -26901,7 +26901,7 @@
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
-        <v>66.002687613200152</v>
+        <v>65.850586668610234</v>
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
@@ -26917,11 +26917,11 @@
         <v>38687</v>
       </c>
       <c r="B49">
-        <v>163.30519869582196</v>
+        <v>163.34603285262352</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>92.023034278060976</v>
+        <v>92.045861154847046</v>
       </c>
       <c r="D49">
         <v>0.47467820057557403</v>
@@ -26938,7 +26938,7 @@
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
-        <v>66.854040574683467</v>
+        <v>66.699977716203307</v>
       </c>
       <c r="J49">
         <f t="shared" si="3"/>
@@ -26954,11 +26954,11 @@
         <v>38718</v>
       </c>
       <c r="B50">
-        <v>165.78828030270429</v>
+        <v>165.8278571738777</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>93.422259199558852</v>
+        <v>93.444374806482472</v>
       </c>
       <c r="D50">
         <v>0.506854644931093</v>
@@ -26975,7 +26975,7 @@
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
-        <v>67.870566930381216</v>
+        <v>67.713394595892936</v>
       </c>
       <c r="J50">
         <f t="shared" si="3"/>
@@ -26991,11 +26991,11 @@
         <v>38749</v>
       </c>
       <c r="B51">
-        <v>167.29618446899502</v>
+        <v>167.3279382820167</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>94.271968320216217</v>
+        <v>94.289673923880386</v>
       </c>
       <c r="D51">
         <v>0.50974068097318603</v>
@@ -27012,7 +27012,7 @@
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
-        <v>68.4878741999661</v>
+        <v>68.32593090753781</v>
       </c>
       <c r="J51">
         <f t="shared" si="3"/>
@@ -27028,11 +27028,11 @@
         <v>38777</v>
       </c>
       <c r="B52">
-        <v>166.41984092856092</v>
+        <v>166.45142840635495</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>93.778145757892673</v>
+        <v>93.795758614723127</v>
       </c>
       <c r="D52">
         <v>0.50766916159919595</v>
@@ -27049,7 +27049,7 @@
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
-        <v>68.129115831724135</v>
+        <v>67.968020842911898</v>
       </c>
       <c r="J52">
         <f t="shared" si="3"/>
@@ -27065,11 +27065,11 @@
         <v>38808</v>
       </c>
       <c r="B53">
-        <v>166.90477699511206</v>
+        <v>166.9364565166621</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>94.051408878915694</v>
+        <v>94.069073058409742</v>
       </c>
       <c r="D53">
         <v>0.50884874428190097</v>
@@ -27086,7 +27086,7 @@
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
-        <v>68.327639428818699</v>
+        <v>68.166075020195819</v>
       </c>
       <c r="J53">
         <f t="shared" si="3"/>
@@ -27102,11 +27102,11 @@
         <v>38838</v>
       </c>
       <c r="B54">
-        <v>167.12862876296666</v>
+        <v>167.16035077291656</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>94.177550110615599</v>
+        <v>94.195237981209914</v>
       </c>
       <c r="D54">
         <v>0.51146633693893295</v>
@@ -27123,7 +27123,7 @@
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
-        <v>68.419280082578538</v>
+        <v>68.257498984660444</v>
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
@@ -27139,11 +27139,11 @@
         <v>38869</v>
       </c>
       <c r="B55">
-        <v>164.85206952498527</v>
+        <v>164.88335943042182</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>92.894701245632348</v>
+        <v>92.912148179138271</v>
       </c>
       <c r="D55">
         <v>0.50606815398054605</v>
@@ -27160,7 +27160,7 @@
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
-        <v>67.487300054495265</v>
+        <v>67.327722673891927</v>
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
@@ -27176,11 +27176,11 @@
         <v>38899</v>
       </c>
       <c r="B56">
-        <v>165.13890829550687</v>
+        <v>165.17025264465184</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>93.056335867327107</v>
+        <v>93.073813158091951</v>
       </c>
       <c r="D56">
         <v>0.50591992752034298</v>
@@ -27197,7 +27197,7 @@
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
-        <v>67.604726388475981</v>
+        <v>67.444871346938285</v>
       </c>
       <c r="J56">
         <f t="shared" si="3"/>
@@ -27213,11 +27213,11 @@
         <v>38930</v>
       </c>
       <c r="B57">
-        <v>166.1954096557358</v>
+        <v>166.22695453513646</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>93.651677973173079</v>
+        <v>93.669267077571988</v>
       </c>
       <c r="D57">
         <v>0.50820338514802899</v>
@@ -27234,7 +27234,7 @@
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
-        <v>68.037237939657601</v>
+        <v>67.876360201103395</v>
       </c>
       <c r="J57">
         <f t="shared" si="3"/>
@@ -27250,11 +27250,11 @@
         <v>38961</v>
       </c>
       <c r="B58">
-        <v>165.35787013869208</v>
+        <v>165.38925604810004</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>93.179721609862781</v>
+        <v>93.197222074208199</v>
       </c>
       <c r="D58">
         <v>0.50595640581444101</v>
@@ -27271,7 +27271,7 @@
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
-        <v>67.694365200133646</v>
+        <v>67.534298202764944</v>
       </c>
       <c r="J58">
         <f t="shared" si="3"/>
@@ -27287,11 +27287,11 @@
         <v>38991</v>
       </c>
       <c r="B59">
-        <v>164.04569275165903</v>
+        <v>164.07682960197738</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>92.440305194279148</v>
+        <v>92.457666785805515</v>
       </c>
       <c r="D59">
         <v>0.50255637007781195</v>
@@ -27308,7 +27308,7 @@
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
-        <v>67.157184749208213</v>
+        <v>66.998387944145335</v>
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
@@ -27324,11 +27324,11 @@
         <v>39022</v>
       </c>
       <c r="B60">
-        <v>163.70876493368476</v>
+        <v>163.73983783309492</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>92.250445224172324</v>
+        <v>92.267771157321732</v>
       </c>
       <c r="D60">
         <v>0.50323286961027003</v>
@@ -27345,7 +27345,7 @@
       </c>
       <c r="I60">
         <f t="shared" si="2"/>
-        <v>67.019252912417457</v>
+        <v>66.860782254662297</v>
       </c>
       <c r="J60">
         <f t="shared" si="3"/>
@@ -27361,11 +27361,11 @@
         <v>39052</v>
       </c>
       <c r="B61">
-        <v>164.07233028187861</v>
+        <v>164.10347218815897</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>92.455315533056208</v>
+        <v>92.472679943735642</v>
       </c>
       <c r="D61">
         <v>0.50476698430067601</v>
@@ -27382,7 +27382,7 @@
       </c>
       <c r="I61">
         <f t="shared" si="2"/>
-        <v>67.168089647155909</v>
+        <v>67.009267056870499</v>
       </c>
       <c r="J61">
         <f t="shared" si="3"/>
@@ -27398,11 +27398,11 @@
         <v>39083</v>
       </c>
       <c r="B62">
-        <v>163.31965140750148</v>
+        <v>163.35065045084497</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>92.031178430194032</v>
+        <v>92.048463181950709</v>
       </c>
       <c r="D62">
         <v>0.50253463196103099</v>
@@ -27419,7 +27419,7 @@
       </c>
       <c r="I62">
         <f t="shared" si="2"/>
-        <v>66.859957239803464</v>
+        <v>66.701863245304281</v>
       </c>
       <c r="J62">
         <f t="shared" si="3"/>
@@ -27435,11 +27435,11 @@
         <v>39114</v>
       </c>
       <c r="B63">
-        <v>165.54724842417201</v>
+        <v>165.55636657355092</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>93.286436917124377</v>
+        <v>93.291389235507069</v>
       </c>
       <c r="D63">
         <v>0.50766057313403501</v>
@@ -27456,7 +27456,7 @@
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
-        <v>67.771893066255174</v>
+        <v>67.602535356303733</v>
       </c>
       <c r="J63">
         <f t="shared" si="3"/>
@@ -27472,11 +27472,11 @@
         <v>39142</v>
       </c>
       <c r="B64">
-        <v>165.51273948645499</v>
+        <v>165.52185573512185</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>93.266991013480194</v>
+        <v>93.271942299533762</v>
       </c>
       <c r="D64">
         <v>0.507770251260241</v>
@@ -27493,7 +27493,7 @@
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
-        <v>67.757765763874417</v>
+        <v>67.588443357165545</v>
       </c>
       <c r="J64">
         <f t="shared" si="3"/>
@@ -27509,11 +27509,11 @@
         <v>39173</v>
       </c>
       <c r="B65">
-        <v>166.73479285261482</v>
+        <v>166.74397641055592</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>93.955622237114483</v>
+        <v>93.960610080691112</v>
       </c>
       <c r="D65">
         <v>0.51258176463788496</v>
@@ -27530,7 +27530,7 @@
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
-        <v>68.258051155755012</v>
+        <v>68.08747856723096</v>
       </c>
       <c r="J65">
         <f t="shared" si="3"/>
@@ -27546,11 +27546,11 @@
         <v>39203</v>
       </c>
       <c r="B66">
-        <v>167.68689094611372</v>
+        <v>167.69612694450745</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>94.492132747458498</v>
+        <v>94.497149072891133</v>
       </c>
       <c r="D66">
         <v>0.51515387245706501</v>
@@ -27567,7 +27567,7 @@
       </c>
       <c r="I66">
         <f t="shared" si="2"/>
-        <v>68.647821996378497</v>
+        <v>68.476275394971125</v>
       </c>
       <c r="J66">
         <f t="shared" si="3"/>
@@ -27583,11 +27583,11 @@
         <v>39234</v>
       </c>
       <c r="B67">
-        <v>167.39082418048542</v>
+        <v>167.40004387186698</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C130" si="5">B67/AVERAGE(B$2:B$13)*100</f>
-        <v>94.325298119169943</v>
+        <v>94.33030558781455</v>
       </c>
       <c r="D67">
         <v>0.51421048725924601</v>
@@ -27604,7 +27604,7 @@
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I130" si="7">B67/B$169*100</f>
-        <v>68.526617896813988</v>
+        <v>68.35537417684921</v>
       </c>
       <c r="J67">
         <f t="shared" ref="J67:J130" si="8">D67/D$169*100</f>
@@ -27620,11 +27620,11 @@
         <v>39264</v>
       </c>
       <c r="B68">
-        <v>171.09499614765366</v>
+        <v>171.10441986050731</v>
       </c>
       <c r="C68">
         <f t="shared" si="5"/>
-        <v>96.412611607220427</v>
+        <v>96.417729885552916</v>
       </c>
       <c r="D68">
         <v>0.52443542757159201</v>
@@ -27641,7 +27641,7 @@
       </c>
       <c r="I68">
         <f t="shared" si="7"/>
-        <v>70.043035408113994</v>
+        <v>69.868002255901942</v>
       </c>
       <c r="J68">
         <f t="shared" si="8"/>
@@ -27657,11 +27657,11 @@
         <v>39295</v>
       </c>
       <c r="B69">
-        <v>170.66429370252027</v>
+        <v>170.67369369278552</v>
       </c>
       <c r="C69">
         <f t="shared" si="5"/>
-        <v>96.1699093161196</v>
+        <v>96.175014710060097</v>
       </c>
       <c r="D69">
         <v>0.52346305244366498</v>
@@ -27678,7 +27678,7 @@
       </c>
       <c r="I69">
         <f t="shared" si="7"/>
-        <v>69.866714023537639</v>
+        <v>69.692121487406325</v>
       </c>
       <c r="J69">
         <f t="shared" si="8"/>
@@ -27694,11 +27694,11 @@
         <v>39326</v>
       </c>
       <c r="B70">
-        <v>172.46283958970295</v>
+        <v>172.47233864177815</v>
       </c>
       <c r="C70">
         <f t="shared" si="5"/>
-        <v>97.183396033925533</v>
+        <v>97.188555231066914</v>
       </c>
       <c r="D70">
         <v>0.52723171614184605</v>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="I70">
         <f t="shared" si="7"/>
-        <v>70.603004482613017</v>
+        <v>70.426572002806424</v>
       </c>
       <c r="J70">
         <f t="shared" si="8"/>
@@ -27731,11 +27731,11 @@
         <v>39356</v>
       </c>
       <c r="B71">
-        <v>176.68338832336815</v>
+        <v>176.69311983834552</v>
       </c>
       <c r="C71">
         <f t="shared" si="5"/>
-        <v>99.56168958423514</v>
+        <v>99.566975038389387</v>
       </c>
       <c r="D71">
         <v>0.53842778249512402</v>
@@ -27752,7 +27752,7 @@
       </c>
       <c r="I71">
         <f t="shared" si="7"/>
-        <v>72.330816815234726</v>
+        <v>72.150066640781603</v>
       </c>
       <c r="J71">
         <f t="shared" si="8"/>
@@ -27768,11 +27768,11 @@
         <v>39387</v>
       </c>
       <c r="B72">
-        <v>177.04678062340284</v>
+        <v>177.05653215360431</v>
       </c>
       <c r="C72">
         <f t="shared" si="5"/>
-        <v>99.766462379893412</v>
+        <v>99.771758704867864</v>
       </c>
       <c r="D72">
         <v>0.54050206216908803</v>
@@ -27789,7 +27789,7 @@
       </c>
       <c r="I72">
         <f t="shared" si="7"/>
-        <v>72.479582707350005</v>
+        <v>72.29846077626344</v>
       </c>
       <c r="J72">
         <f t="shared" si="8"/>
@@ -27805,11 +27805,11 @@
         <v>39417</v>
       </c>
       <c r="B73">
-        <v>176.53455465658709</v>
+        <v>176.54427797397969</v>
       </c>
       <c r="C73">
         <f t="shared" si="5"/>
-        <v>99.477821307356621</v>
+        <v>99.483102309176516</v>
       </c>
       <c r="D73">
         <v>0.53763342228922895</v>
@@ -27826,7 +27826,7 @@
       </c>
       <c r="I73">
         <f t="shared" si="7"/>
-        <v>72.269887144426193</v>
+        <v>72.089289229398759</v>
       </c>
       <c r="J73">
         <f t="shared" si="8"/>
@@ -27842,11 +27842,11 @@
         <v>39448</v>
       </c>
       <c r="B74">
-        <v>177.76155847178376</v>
+        <v>177.76977240968569</v>
       </c>
       <c r="C74">
         <f t="shared" si="5"/>
-        <v>100.16924212584182</v>
+        <v>100.17367121192302</v>
       </c>
       <c r="D74">
         <v>0.66858044668073902</v>
@@ -27863,7 +27863,7 @@
       </c>
       <c r="I74">
         <f t="shared" si="7"/>
-        <v>72.772199155933208</v>
+        <v>72.58970206542196</v>
       </c>
       <c r="J74">
         <f t="shared" si="8"/>
@@ -27879,11 +27879,11 @@
         <v>39479</v>
       </c>
       <c r="B75">
-        <v>180.33781148692339</v>
+        <v>180.33818808788058</v>
       </c>
       <c r="C75">
         <f t="shared" si="5"/>
-        <v>101.62096945243316</v>
+        <v>101.62097929020588</v>
       </c>
       <c r="D75">
         <v>0.674951064363292</v>
@@ -27900,7 +27900,7 @@
       </c>
       <c r="I75">
         <f t="shared" si="7"/>
-        <v>73.82686811307768</v>
+        <v>73.638477266813666</v>
       </c>
       <c r="J75">
         <f t="shared" si="8"/>
@@ -27916,11 +27916,11 @@
         <v>39508</v>
       </c>
       <c r="B76">
-        <v>183.42419501206254</v>
+        <v>183.42457805834022</v>
       </c>
       <c r="C76">
         <f t="shared" si="5"/>
-        <v>103.36015705452625</v>
+        <v>103.36016706066711</v>
       </c>
       <c r="D76">
         <v>0.685085285391143</v>
@@ -27937,7 +27937,7 @@
       </c>
       <c r="I76">
         <f t="shared" si="7"/>
-        <v>75.090374793002908</v>
+        <v>74.898759739905046</v>
       </c>
       <c r="J76">
         <f t="shared" si="8"/>
@@ -27953,11 +27953,11 @@
         <v>39539</v>
       </c>
       <c r="B77">
-        <v>185.64802447967477</v>
+        <v>185.64841216999409</v>
       </c>
       <c r="C77">
         <f t="shared" si="5"/>
-        <v>104.61329251476239</v>
+        <v>104.61330264221741</v>
       </c>
       <c r="D77">
         <v>0.69071187347131702</v>
@@ -27974,7 +27974,7 @@
       </c>
       <c r="I77">
         <f t="shared" si="7"/>
-        <v>76.000768256568307</v>
+        <v>75.806830068283787</v>
       </c>
       <c r="J77">
         <f t="shared" si="8"/>
@@ -27990,11 +27990,11 @@
         <v>39569</v>
       </c>
       <c r="B78">
-        <v>184.66525892289334</v>
+        <v>184.66564456089515</v>
       </c>
       <c r="C78">
         <f t="shared" si="5"/>
-        <v>104.05950078466905</v>
+        <v>104.05951085851233</v>
       </c>
       <c r="D78">
         <v>0.68396619276058501</v>
@@ -28011,7 +28011,7 @@
       </c>
       <c r="I78">
         <f t="shared" si="7"/>
-        <v>75.59844274009258</v>
+        <v>75.405531203032211</v>
       </c>
       <c r="J78">
         <f t="shared" si="8"/>
@@ -28027,11 +28027,11 @@
         <v>39600</v>
       </c>
       <c r="B79">
-        <v>179.01301603787971</v>
+        <v>179.01338987225552</v>
       </c>
       <c r="C79">
         <f t="shared" si="5"/>
-        <v>100.87444271603793</v>
+        <v>100.87445248154054</v>
       </c>
       <c r="D79">
         <v>0.66632243881581998</v>
@@ -28048,7 +28048,7 @@
       </c>
       <c r="I79">
         <f t="shared" si="7"/>
-        <v>73.284522067692492</v>
+        <v>73.097515175984171</v>
       </c>
       <c r="J79">
         <f t="shared" si="8"/>
@@ -28064,11 +28064,11 @@
         <v>39630</v>
       </c>
       <c r="B80">
-        <v>179.90774109289981</v>
+        <v>179.90811679573741</v>
       </c>
       <c r="C80">
         <f t="shared" si="5"/>
-        <v>101.37862332428003</v>
+        <v>101.3786331385916</v>
       </c>
       <c r="D80">
         <v>0.66903309309663195</v>
@@ -28085,7 +28085,7 @@
       </c>
       <c r="I80">
         <f t="shared" si="7"/>
-        <v>73.650805478197483</v>
+        <v>73.462863907239708</v>
       </c>
       <c r="J80">
         <f t="shared" si="8"/>
@@ -28101,11 +28101,11 @@
         <v>39661</v>
       </c>
       <c r="B81">
-        <v>176.55859971885948</v>
+        <v>176.55795883381762</v>
       </c>
       <c r="C81">
         <f t="shared" si="5"/>
-        <v>99.491370781637784</v>
+        <v>99.490811504821679</v>
       </c>
       <c r="D81">
         <v>0.65533126122468399</v>
@@ -28122,7 +28122,7 @@
       </c>
       <c r="I81">
         <f t="shared" si="7"/>
-        <v>72.279730735332166</v>
+        <v>72.094875609614988</v>
       </c>
       <c r="J81">
         <f t="shared" si="8"/>
@@ -28138,11 +28138,11 @@
         <v>39692</v>
       </c>
       <c r="B82">
-        <v>173.5747421918806</v>
+        <v>173.57411213785835</v>
       </c>
       <c r="C82">
         <f t="shared" si="5"/>
-        <v>97.809956927829759</v>
+        <v>97.809407102846293</v>
       </c>
       <c r="D82">
         <v>0.64189391578658594</v>
@@ -28159,7 +28159,7 @@
       </c>
       <c r="I82">
         <f t="shared" si="7"/>
-        <v>71.058196247937886</v>
+        <v>70.8764651918449</v>
       </c>
       <c r="J82">
         <f t="shared" si="8"/>
@@ -28175,11 +28175,11 @@
         <v>39722</v>
       </c>
       <c r="B83">
-        <v>167.93799241252202</v>
+        <v>167.93738281917754</v>
       </c>
       <c r="C83">
         <f t="shared" si="5"/>
-        <v>94.633629276871517</v>
+        <v>94.633097307169393</v>
       </c>
       <c r="D83">
         <v>0.62101247670320503</v>
@@ -28196,7 +28196,7 @@
       </c>
       <c r="I83">
         <f t="shared" si="7"/>
-        <v>68.750618158152207</v>
+        <v>68.574788723904661</v>
       </c>
       <c r="J83">
         <f t="shared" si="8"/>
@@ -28212,11 +28212,11 @@
         <v>39753</v>
       </c>
       <c r="B84">
-        <v>164.02390827386461</v>
+        <v>164.02331288814287</v>
       </c>
       <c r="C84">
         <f t="shared" si="5"/>
-        <v>92.428029567031416</v>
+        <v>92.427509995799369</v>
       </c>
       <c r="D84">
         <v>0.61194141073699604</v>
@@ -28233,7 +28233,7 @@
       </c>
       <c r="I84">
         <f t="shared" si="7"/>
-        <v>67.148266598567574</v>
+        <v>66.976535172101421</v>
       </c>
       <c r="J84">
         <f t="shared" si="8"/>
@@ -28249,11 +28249,11 @@
         <v>39783</v>
       </c>
       <c r="B85">
-        <v>168.84858887840016</v>
+        <v>168.84797597970746</v>
       </c>
       <c r="C85">
         <f t="shared" si="5"/>
-        <v>95.146753479053643</v>
+        <v>95.146218624895624</v>
       </c>
       <c r="D85">
         <v>0.63030649176110298</v>
@@ -28270,7 +28270,7 @@
       </c>
       <c r="I85">
         <f t="shared" si="7"/>
-        <v>69.123399022222387</v>
+        <v>68.946616202388142</v>
       </c>
       <c r="J85">
         <f t="shared" si="8"/>
@@ -28286,11 +28286,11 @@
         <v>39814</v>
       </c>
       <c r="B86">
-        <v>168.56747420343817</v>
+        <v>168.56686232515563</v>
       </c>
       <c r="C86">
         <f t="shared" si="5"/>
-        <v>94.988344404653759</v>
+        <v>94.987810440970179</v>
       </c>
       <c r="D86">
         <v>0.60184332843361998</v>
@@ -28307,7 +28307,7 @@
       </c>
       <c r="I86">
         <f t="shared" si="7"/>
-        <v>69.008316024031657</v>
+        <v>68.831827528510487</v>
       </c>
       <c r="J86">
         <f t="shared" si="8"/>
@@ -28323,11 +28323,11 @@
         <v>39845</v>
       </c>
       <c r="B87">
-        <v>165.99722934124131</v>
+        <v>166.08256615637544</v>
       </c>
       <c r="C87">
         <f t="shared" si="5"/>
-        <v>93.540002692657779</v>
+        <v>93.587903897629914</v>
       </c>
       <c r="D87">
         <v>0.59446057107549399</v>
@@ -28344,7 +28344,7 @@
       </c>
       <c r="I87">
         <f t="shared" si="7"/>
-        <v>67.956106690364081</v>
+        <v>67.817401305820468</v>
       </c>
       <c r="J87">
         <f t="shared" si="8"/>
@@ -28360,11 +28360,11 @@
         <v>39873</v>
       </c>
       <c r="B88">
-        <v>172.66006653097745</v>
+        <v>172.74861391016449</v>
       </c>
       <c r="C88">
         <f t="shared" si="5"/>
-        <v>97.294534085392399</v>
+        <v>97.344236973379878</v>
       </c>
       <c r="D88">
         <v>0.61511557498467995</v>
@@ -28381,7 +28381,7 @@
       </c>
       <c r="I88">
         <f t="shared" si="7"/>
-        <v>70.683745439053396</v>
+        <v>70.539384992036062</v>
       </c>
       <c r="J88">
         <f t="shared" si="8"/>
@@ -28397,11 +28397,11 @@
         <v>39904</v>
       </c>
       <c r="B89">
-        <v>177.86768461157817</v>
+        <v>177.95890267740464</v>
       </c>
       <c r="C89">
         <f t="shared" si="5"/>
-        <v>100.22904456616884</v>
+        <v>100.28024654808895</v>
       </c>
       <c r="D89">
         <v>0.63196412650368805</v>
@@ -28418,7 +28418,7 @@
       </c>
       <c r="I89">
         <f t="shared" si="7"/>
-        <v>72.815645177936858</v>
+        <v>72.66693066058285</v>
       </c>
       <c r="J89">
         <f t="shared" si="8"/>
@@ -28434,11 +28434,11 @@
         <v>39934</v>
       </c>
       <c r="B90">
-        <v>184.09682067491707</v>
+        <v>184.19123330497655</v>
       </c>
       <c r="C90">
         <f t="shared" si="5"/>
-        <v>103.73918390072272</v>
+        <v>103.79217903642896</v>
       </c>
       <c r="D90">
         <v>0.65284500148376601</v>
@@ -28455,7 +28455,7 @@
       </c>
       <c r="I90">
         <f t="shared" si="7"/>
-        <v>75.365734939006643</v>
+        <v>75.211812263885164</v>
       </c>
       <c r="J90">
         <f t="shared" si="8"/>
@@ -28471,11 +28471,11 @@
         <v>39965</v>
       </c>
       <c r="B91">
-        <v>189.30052015920725</v>
+        <v>189.39760146628436</v>
       </c>
       <c r="C91">
         <f t="shared" si="5"/>
-        <v>106.67148623916516</v>
+        <v>106.72597934077505</v>
       </c>
       <c r="D91">
         <v>0.66948036794795396</v>
@@ -28492,7 +28492,7 @@
       </c>
       <c r="I91">
         <f t="shared" si="7"/>
-        <v>77.496030479133225</v>
+        <v>77.337757009999066</v>
       </c>
       <c r="J91">
         <f t="shared" si="8"/>
@@ -28508,11 +28508,11 @@
         <v>39995</v>
       </c>
       <c r="B92">
-        <v>191.20586074299771</v>
+        <v>191.30391918925091</v>
       </c>
       <c r="C92">
         <f t="shared" si="5"/>
-        <v>107.74515213133382</v>
+        <v>107.80019371489162</v>
       </c>
       <c r="D92">
         <v>0.67511635517284396</v>
@@ -28529,7 +28529,7 @@
       </c>
       <c r="I92">
         <f t="shared" si="7"/>
-        <v>78.27604065464871</v>
+        <v>78.116174137255484</v>
       </c>
       <c r="J92">
         <f t="shared" si="8"/>
@@ -28545,11 +28545,11 @@
         <v>40026</v>
       </c>
       <c r="B93">
-        <v>194.76785246605303</v>
+        <v>194.86773765220099</v>
       </c>
       <c r="C93">
         <f t="shared" si="5"/>
-        <v>109.75234656878361</v>
+        <v>109.80841352710922</v>
       </c>
       <c r="D93">
         <v>0.68386026553165602</v>
@@ -28566,7 +28566,7 @@
       </c>
       <c r="I93">
         <f t="shared" si="7"/>
-        <v>79.73425227976287</v>
+        <v>79.571407594182048</v>
       </c>
       <c r="J93">
         <f t="shared" si="8"/>
@@ -28582,11 +28582,11 @@
         <v>40057</v>
       </c>
       <c r="B94">
-        <v>195.57353309162079</v>
+        <v>195.67383146484372</v>
       </c>
       <c r="C94">
         <f t="shared" si="5"/>
-        <v>110.20635033850982</v>
+        <v>110.2626492245457</v>
       </c>
       <c r="D94">
         <v>0.68871315864202398</v>
@@ -28603,7 +28603,7 @@
       </c>
       <c r="I94">
         <f t="shared" si="7"/>
-        <v>80.064082595405623</v>
+        <v>79.900564283215019</v>
       </c>
       <c r="J94">
         <f t="shared" si="8"/>
@@ -28619,11 +28619,11 @@
         <v>40087</v>
       </c>
       <c r="B95">
-        <v>196.37984070071613</v>
+        <v>196.48055258255769</v>
       </c>
       <c r="C95">
         <f t="shared" si="5"/>
-        <v>110.66070741558394</v>
+        <v>110.71723840981707</v>
       </c>
       <c r="D95">
         <v>0.69290657930877397</v>
@@ -28640,7 +28640,7 @@
       </c>
       <c r="I95">
         <f t="shared" si="7"/>
-        <v>80.394169586172765</v>
+        <v>80.229977123153773</v>
       </c>
       <c r="J95">
         <f t="shared" si="8"/>
@@ -28656,11 +28656,11 @@
         <v>40118</v>
       </c>
       <c r="B96">
-        <v>195.5438151655776</v>
+        <v>195.64409829819209</v>
       </c>
       <c r="C96">
         <f t="shared" si="5"/>
-        <v>110.18960418622083</v>
+        <v>110.24589451748905</v>
       </c>
       <c r="D96">
         <v>0.69105659270582498</v>
@@ -28677,7 +28677,7 @@
       </c>
       <c r="I96">
         <f t="shared" si="7"/>
-        <v>80.051916642029042</v>
+        <v>79.888423176887173</v>
       </c>
       <c r="J96">
         <f t="shared" si="8"/>
@@ -28693,11 +28693,11 @@
         <v>40148</v>
       </c>
       <c r="B97">
-        <v>192.48820987676282</v>
+        <v>192.58692596584729</v>
       </c>
       <c r="C97">
         <f t="shared" si="5"/>
-        <v>108.46776022486249</v>
+        <v>108.52317095258105</v>
       </c>
       <c r="D97">
         <v>0.68010285621004996</v>
@@ -28714,7 +28714,7 @@
       </c>
       <c r="I97">
         <f t="shared" si="7"/>
-        <v>78.801009986331323</v>
+        <v>78.640071301540615</v>
       </c>
       <c r="J97">
         <f t="shared" si="8"/>
@@ -28730,11 +28730,11 @@
         <v>40179</v>
       </c>
       <c r="B98">
-        <v>191.33223068651958</v>
+        <v>191.43035394062053</v>
       </c>
       <c r="C98">
         <f t="shared" si="5"/>
-        <v>107.81636202383753</v>
+        <v>107.87143998495081</v>
       </c>
       <c r="D98">
         <v>0.60353085188178102</v>
@@ -28751,7 +28751,7 @@
       </c>
       <c r="I98">
         <f t="shared" si="7"/>
-        <v>78.327774104649691</v>
+        <v>78.167801929811148</v>
       </c>
       <c r="J98">
         <f t="shared" si="8"/>
@@ -28767,11 +28767,11 @@
         <v>40210</v>
       </c>
       <c r="B99">
-        <v>188.36590403693535</v>
+        <v>188.79333342784832</v>
       </c>
       <c r="C99">
         <f t="shared" si="5"/>
-        <v>106.14482687900077</v>
+        <v>106.38547292629497</v>
       </c>
       <c r="D99">
         <v>0.59200191688300097</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="I99">
         <f t="shared" si="7"/>
-        <v>77.11341642484031</v>
+        <v>77.091012941628207</v>
       </c>
       <c r="J99">
         <f t="shared" si="8"/>
@@ -28804,11 +28804,11 @@
         <v>40238</v>
       </c>
       <c r="B100">
-        <v>187.68973710124123</v>
+        <v>188.11563217190152</v>
       </c>
       <c r="C100">
         <f t="shared" si="5"/>
-        <v>105.76380451352809</v>
+        <v>106.00358672667343</v>
       </c>
       <c r="D100">
         <v>0.59070596695537703</v>
@@ -28825,7 +28825,7 @@
       </c>
       <c r="I100">
         <f t="shared" si="7"/>
-        <v>76.836606549128078</v>
+        <v>76.814283486492428</v>
       </c>
       <c r="J100">
         <f t="shared" si="8"/>
@@ -28841,11 +28841,11 @@
         <v>40269</v>
       </c>
       <c r="B101">
-        <v>187.97634331852237</v>
+        <v>188.40288874000655</v>
       </c>
       <c r="C101">
         <f t="shared" si="5"/>
-        <v>105.92530809068177</v>
+        <v>106.16545645636235</v>
       </c>
       <c r="D101">
         <v>0.59149840067902903</v>
@@ -28862,7 +28862,7 @@
       </c>
       <c r="I101">
         <f t="shared" si="7"/>
-        <v>76.953937680237729</v>
+        <v>76.931580529811043</v>
       </c>
       <c r="J101">
         <f t="shared" si="8"/>
@@ -28878,11 +28878,11 @@
         <v>40299</v>
       </c>
       <c r="B102">
-        <v>182.92778554783646</v>
+        <v>183.34287506394358</v>
       </c>
       <c r="C102">
         <f t="shared" si="5"/>
-        <v>103.0804286349337</v>
+        <v>103.3141272374352</v>
       </c>
       <c r="D102">
         <v>0.57361729174821696</v>
@@ -28899,7 +28899,7 @@
       </c>
       <c r="I102">
         <f t="shared" si="7"/>
-        <v>74.887154205244144</v>
+        <v>74.865397509978607</v>
       </c>
       <c r="J102">
         <f t="shared" si="8"/>
@@ -28915,11 +28915,11 @@
         <v>40330</v>
       </c>
       <c r="B103">
-        <v>181.64034703227742</v>
+        <v>182.0525151647968</v>
       </c>
       <c r="C103">
         <f t="shared" si="5"/>
-        <v>102.35495265747348</v>
+        <v>102.5870064984589</v>
       </c>
       <c r="D103">
         <v>0.566962292349525</v>
@@ -28936,7 +28936,7 @@
       </c>
       <c r="I103">
         <f t="shared" si="7"/>
-        <v>74.360101377508315</v>
+        <v>74.338497805003058</v>
       </c>
       <c r="J103">
         <f t="shared" si="8"/>
@@ -28952,11 +28952,11 @@
         <v>40360</v>
       </c>
       <c r="B104">
-        <v>184.42418916938743</v>
+        <v>184.842674241032</v>
       </c>
       <c r="C104">
         <f t="shared" si="5"/>
-        <v>103.92365715955827</v>
+        <v>104.15926748604467</v>
       </c>
       <c r="D104">
         <v>0.57723889554744401</v>
@@ -28973,7 +28973,7 @@
       </c>
       <c r="I104">
         <f t="shared" si="7"/>
-        <v>75.499753370673105</v>
+        <v>75.477818699177817</v>
       </c>
       <c r="J104">
         <f t="shared" si="8"/>
@@ -28989,11 +28989,11 @@
         <v>40391</v>
       </c>
       <c r="B105">
-        <v>184.67717500676014</v>
+        <v>185.09623413973992</v>
       </c>
       <c r="C105">
         <f t="shared" si="5"/>
-        <v>104.06621553841168</v>
+        <v>104.30214906586217</v>
       </c>
       <c r="D105">
         <v>0.57804244254422199</v>
@@ -29010,7 +29010,7 @@
       </c>
       <c r="I105">
         <f t="shared" si="7"/>
-        <v>75.603320958059214</v>
+        <v>75.581356197445686</v>
       </c>
       <c r="J105">
         <f t="shared" si="8"/>
@@ -29026,11 +29026,11 @@
         <v>40422</v>
       </c>
       <c r="B106">
-        <v>187.47914526306795</v>
+        <v>187.90456247048871</v>
       </c>
       <c r="C106">
         <f t="shared" si="5"/>
-        <v>105.64513529725288</v>
+        <v>105.88464846970476</v>
       </c>
       <c r="D106">
         <v>0.58589186555066297</v>
@@ -29047,7 +29047,7 @@
       </c>
       <c r="I106">
         <f t="shared" si="7"/>
-        <v>76.750394258237336</v>
+        <v>76.728096242548148</v>
       </c>
       <c r="J106">
         <f t="shared" si="8"/>
@@ -29063,11 +29063,11 @@
         <v>40452</v>
       </c>
       <c r="B107">
-        <v>191.41714948336391</v>
+        <v>191.85150259005954</v>
       </c>
       <c r="C107">
         <f t="shared" si="5"/>
-        <v>107.86421405436238</v>
+        <v>108.10875820710066</v>
       </c>
       <c r="D107">
         <v>0.60138235422485398</v>
@@ -29084,7 +29084,7 @@
       </c>
       <c r="I107">
         <f t="shared" si="7"/>
-        <v>78.362538244034866</v>
+        <v>78.339771857958326</v>
       </c>
       <c r="J107">
         <f t="shared" si="8"/>
@@ -29100,11 +29100,11 @@
         <v>40483</v>
       </c>
       <c r="B108">
-        <v>190.12596673959129</v>
+        <v>190.55791834287808</v>
       </c>
       <c r="C108">
         <f t="shared" si="5"/>
-        <v>107.13662819158318</v>
+        <v>107.37982054067083</v>
       </c>
       <c r="D108">
         <v>0.59528876693266097</v>
@@ -29121,7 +29121,7 @@
       </c>
       <c r="I108">
         <f t="shared" si="7"/>
-        <v>77.83395260052275</v>
+        <v>77.811555537339871</v>
       </c>
       <c r="J108">
         <f t="shared" si="8"/>
@@ -29137,11 +29137,11 @@
         <v>40513</v>
       </c>
       <c r="B109">
-        <v>188.03547967529565</v>
+        <v>188.46268185242801</v>
       </c>
       <c r="C109">
         <f t="shared" si="5"/>
-        <v>105.95863162863333</v>
+        <v>106.19915001125221</v>
       </c>
       <c r="D109">
         <v>0.58804438123125502</v>
@@ -29158,7 +29158,7 @@
       </c>
       <c r="I109">
         <f t="shared" si="7"/>
-        <v>76.978146979309244</v>
+        <v>76.9559961779688</v>
       </c>
       <c r="J109">
         <f t="shared" si="8"/>
@@ -29174,11 +29174,11 @@
         <v>40544</v>
       </c>
       <c r="B110">
-        <v>186.83299065787517</v>
+        <v>187.25746087225716</v>
       </c>
       <c r="C110">
         <f t="shared" si="5"/>
-        <v>105.28102498198155</v>
+        <v>105.5200052468256</v>
       </c>
       <c r="D110">
         <v>0.625174671762878</v>
@@ -29195,7 +29195,7 @@
       </c>
       <c r="I110">
         <f t="shared" si="7"/>
-        <v>76.48587085948418</v>
+        <v>76.463861712768619</v>
       </c>
       <c r="J110">
         <f t="shared" si="8"/>
@@ -29211,11 +29211,11 @@
         <v>40575</v>
       </c>
       <c r="B111">
-        <v>189.70519538721348</v>
+        <v>190.13619089295602</v>
       </c>
       <c r="C111">
         <f t="shared" si="5"/>
-        <v>106.89952210498998</v>
+        <v>107.14217616313191</v>
       </c>
       <c r="D111">
         <v>0.63353730946051001</v>
@@ -29232,7 +29232,7 @@
       </c>
       <c r="I111">
         <f t="shared" si="7"/>
-        <v>77.661696816327364</v>
+        <v>77.639349264430308</v>
       </c>
       <c r="J111">
         <f t="shared" si="8"/>
@@ -29248,11 +29248,11 @@
         <v>40603</v>
       </c>
       <c r="B112">
-        <v>191.95937380394216</v>
+        <v>192.39549062839592</v>
       </c>
       <c r="C112">
         <f t="shared" si="5"/>
-        <v>108.16975930116072</v>
+        <v>108.41529670437646</v>
       </c>
       <c r="D112">
         <v>0.64044900136807703</v>
@@ -29269,7 +29269,7 @@
       </c>
       <c r="I112">
         <f t="shared" si="7"/>
-        <v>78.584514562106889</v>
+        <v>78.561901464666647</v>
       </c>
       <c r="J112">
         <f t="shared" si="8"/>
@@ -29285,11 +29285,11 @@
         <v>40634</v>
       </c>
       <c r="B113">
-        <v>196.35626709206031</v>
+        <v>196.80237331739758</v>
       </c>
       <c r="C113">
         <f t="shared" si="5"/>
-        <v>110.64742360701743</v>
+        <v>110.89858512610094</v>
       </c>
       <c r="D113">
         <v>0.65490442435978502</v>
@@ -29306,7 +29306,7 @@
       </c>
       <c r="I113">
         <f t="shared" si="7"/>
-        <v>80.384518999405458</v>
+        <v>80.361387941448953</v>
       </c>
       <c r="J113">
         <f t="shared" si="8"/>
@@ -29322,11 +29322,11 @@
         <v>40664</v>
       </c>
       <c r="B114">
-        <v>196.10462664406995</v>
+        <v>196.55016116180627</v>
       </c>
       <c r="C114">
         <f t="shared" si="5"/>
-        <v>110.50562335965179</v>
+        <v>110.75646300259601</v>
       </c>
       <c r="D114">
         <v>0.65245042183995605</v>
@@ -29343,7 +29343,7 @@
       </c>
       <c r="I114">
         <f t="shared" si="7"/>
-        <v>80.281502188829108</v>
+        <v>80.258400774488649</v>
       </c>
       <c r="J114">
         <f t="shared" si="8"/>
@@ -29359,11 +29359,11 @@
         <v>40695</v>
       </c>
       <c r="B115">
-        <v>195.90108326671847</v>
+        <v>196.34615534967179</v>
       </c>
       <c r="C115">
         <f t="shared" si="5"/>
-        <v>110.39092597499611</v>
+        <v>110.64150526330732</v>
       </c>
       <c r="D115">
         <v>0.65281354279604897</v>
@@ -29380,7 +29380,7 @@
       </c>
       <c r="I115">
         <f t="shared" si="7"/>
-        <v>80.198175403663456</v>
+        <v>80.175097967033111</v>
       </c>
       <c r="J115">
         <f t="shared" si="8"/>
@@ -29396,11 +29396,11 @@
         <v>40725</v>
       </c>
       <c r="B116">
-        <v>197.21251891172486</v>
+        <v>197.66057047485486</v>
       </c>
       <c r="C116">
         <f t="shared" si="5"/>
-        <v>111.12992441642773</v>
+        <v>111.38218117688517</v>
       </c>
       <c r="D116">
         <v>0.65415190881616803</v>
@@ -29417,7 +29417,7 @@
       </c>
       <c r="I116">
         <f t="shared" si="7"/>
-        <v>80.735052199518847</v>
+        <v>80.711820273834732</v>
       </c>
       <c r="J116">
         <f t="shared" si="8"/>
@@ -29433,11 +29433,11 @@
         <v>40756</v>
       </c>
       <c r="B117">
-        <v>197.93704504739009</v>
+        <v>198.38674267776474</v>
       </c>
       <c r="C117">
         <f t="shared" si="5"/>
-        <v>111.53819735537967</v>
+        <v>111.79138086540075</v>
       </c>
       <c r="D117">
         <v>0.65381019511841898</v>
@@ -29454,7 +29454,7 @@
       </c>
       <c r="I117">
         <f t="shared" si="7"/>
-        <v>81.031659411401947</v>
+        <v>81.008342135470116</v>
       </c>
       <c r="J117">
         <f t="shared" si="8"/>
@@ -29470,11 +29470,11 @@
         <v>40787</v>
       </c>
       <c r="B118">
-        <v>192.71089938766468</v>
+        <v>193.14872362001722</v>
       </c>
       <c r="C118">
         <f t="shared" si="5"/>
-        <v>108.59324652082086</v>
+        <v>108.83974520889925</v>
       </c>
       <c r="D118">
         <v>0.63480932870238405</v>
@@ -29491,7 +29491,7 @@
       </c>
       <c r="I118">
         <f t="shared" si="7"/>
-        <v>78.892174834212994</v>
+        <v>78.869473205950243</v>
       </c>
       <c r="J118">
         <f t="shared" si="8"/>
@@ -29507,11 +29507,11 @@
         <v>40817</v>
       </c>
       <c r="B119">
-        <v>191.10678904115784</v>
+        <v>191.54096885908805</v>
       </c>
       <c r="C119">
         <f t="shared" si="5"/>
-        <v>107.6893248907609</v>
+        <v>107.93377174317665</v>
       </c>
       <c r="D119">
         <v>0.62867176359614396</v>
@@ -29528,7 +29528,7 @@
       </c>
       <c r="I119">
         <f t="shared" si="7"/>
-        <v>78.23548258529452</v>
+        <v>78.212969923597214</v>
       </c>
       <c r="J119">
         <f t="shared" si="8"/>
@@ -29544,11 +29544,11 @@
         <v>40848</v>
       </c>
       <c r="B120">
-        <v>191.22468830794131</v>
+        <v>191.65913598387093</v>
       </c>
       <c r="C120">
         <f t="shared" si="5"/>
-        <v>107.75576152814428</v>
+        <v>108.00035918684381</v>
       </c>
       <c r="D120">
         <v>0.62804866981687701</v>
@@ -29565,7 +29565,7 @@
       </c>
       <c r="I120">
         <f t="shared" si="7"/>
-        <v>78.283748301439587</v>
+        <v>78.261221751034711</v>
       </c>
       <c r="J120">
         <f t="shared" si="8"/>
@@ -29581,11 +29581,11 @@
         <v>40878</v>
       </c>
       <c r="B121">
-        <v>188.61105303143364</v>
+        <v>189.03956273051699</v>
       </c>
       <c r="C121">
         <f t="shared" si="5"/>
-        <v>106.28296917026958</v>
+        <v>106.52422369856592</v>
       </c>
       <c r="D121">
         <v>0.61812931582590702</v>
@@ -29602,7 +29602,7 @@
       </c>
       <c r="I121">
         <f t="shared" si="7"/>
-        <v>77.213775757892279</v>
+        <v>77.191557097578979</v>
       </c>
       <c r="J121">
         <f t="shared" si="8"/>
@@ -29618,11 +29618,11 @@
         <v>40909</v>
       </c>
       <c r="B122">
-        <v>188.81727320988239</v>
+        <v>189.24625142523342</v>
       </c>
       <c r="C122">
         <f t="shared" si="5"/>
-        <v>106.39917494143776</v>
+        <v>106.64069324829357</v>
       </c>
       <c r="D122">
         <v>0.44726462170380799</v>
@@ -29639,7 +29639,7 @@
       </c>
       <c r="I122">
         <f t="shared" si="7"/>
-        <v>77.298198374486432</v>
+        <v>77.275955421131869</v>
       </c>
       <c r="J122">
         <f t="shared" si="8"/>
@@ -29655,11 +29655,11 @@
         <v>40940</v>
       </c>
       <c r="B123">
-        <v>193.12915621524033</v>
+        <v>193.56622553080774</v>
       </c>
       <c r="C123">
         <f t="shared" si="5"/>
-        <v>108.82893566414518</v>
+        <v>109.07500848552365</v>
       </c>
       <c r="D123">
         <v>0.45900100122812798</v>
@@ -29676,7 +29676,7 @@
       </c>
       <c r="I123">
         <f t="shared" si="7"/>
-        <v>79.063401219806892</v>
+        <v>79.039954041388256</v>
       </c>
       <c r="J123">
         <f t="shared" si="8"/>
@@ -29692,11 +29692,11 @@
         <v>40969</v>
       </c>
       <c r="B124">
-        <v>190.98856523787504</v>
+        <v>191.42079019616506</v>
       </c>
       <c r="C124">
         <f t="shared" si="5"/>
-        <v>107.62270537595759</v>
+        <v>107.86605079319087</v>
       </c>
       <c r="D124">
         <v>0.45334628766052198</v>
@@ -29713,7 +29713,7 @@
       </c>
       <c r="I124">
         <f t="shared" si="7"/>
-        <v>78.187084010082685</v>
+        <v>78.163896713804846</v>
       </c>
       <c r="J124">
         <f t="shared" si="8"/>
@@ -29729,11 +29729,11 @@
         <v>41000</v>
       </c>
       <c r="B125">
-        <v>191.31707809699046</v>
+        <v>191.75004651055832</v>
       </c>
       <c r="C125">
         <f t="shared" si="5"/>
-        <v>107.80782348815848</v>
+        <v>108.05158747547041</v>
       </c>
       <c r="D125">
         <v>0.45262883932659698</v>
@@ -29750,7 +29750,7 @@
       </c>
       <c r="I125">
         <f t="shared" si="7"/>
-        <v>78.321570922857063</v>
+        <v>78.298343742908784</v>
       </c>
       <c r="J125">
         <f t="shared" si="8"/>
@@ -29766,11 +29766,11 @@
         <v>41030</v>
       </c>
       <c r="B126">
-        <v>188.09132554012325</v>
+        <v>188.51699377442327</v>
       </c>
       <c r="C126">
         <f t="shared" si="5"/>
-        <v>105.99010096319439</v>
+        <v>106.22975490286622</v>
       </c>
       <c r="D126">
         <v>0.44366700850746299</v>
@@ -29787,7 +29787,7 @@
       </c>
       <c r="I126">
         <f t="shared" si="7"/>
-        <v>77.00100921359774</v>
+        <v>76.978173661704062</v>
       </c>
       <c r="J126">
         <f t="shared" si="8"/>
@@ -29803,11 +29803,11 @@
         <v>41061</v>
       </c>
       <c r="B127">
-        <v>186.47304886445085</v>
+        <v>186.89505478751369</v>
       </c>
       <c r="C127">
         <f t="shared" si="5"/>
-        <v>105.07819655852096</v>
+        <v>105.31578859353191</v>
       </c>
       <c r="D127">
         <v>0.43928324308731398</v>
@@ -29824,7 +29824,7 @@
       </c>
       <c r="I127">
         <f t="shared" si="7"/>
-        <v>76.338517539110498</v>
+        <v>76.315878456888669</v>
       </c>
       <c r="J127">
         <f t="shared" si="8"/>
@@ -29840,11 +29840,11 @@
         <v>41091</v>
       </c>
       <c r="B128">
-        <v>187.76299167832366</v>
+        <v>188.1879168624335</v>
       </c>
       <c r="C128">
         <f t="shared" si="5"/>
-        <v>105.80508371658908</v>
+        <v>106.04431931424921</v>
       </c>
       <c r="D128">
         <v>0.44088906123746402</v>
@@ -29861,7 +29861,7 @@
       </c>
       <c r="I128">
         <f t="shared" si="7"/>
-        <v>76.866595578918066</v>
+        <v>76.843799888963346</v>
       </c>
       <c r="J128">
         <f t="shared" si="8"/>
@@ -29877,11 +29877,11 @@
         <v>41122</v>
       </c>
       <c r="B129">
-        <v>189.5760577586309</v>
+        <v>190.0050860805907</v>
       </c>
       <c r="C129">
         <f t="shared" si="5"/>
-        <v>106.82675261255162</v>
+        <v>107.06829830307638</v>
       </c>
       <c r="D129">
         <v>0.44420389620223999</v>
@@ -29898,7 +29898,7 @@
       </c>
       <c r="I129">
         <f t="shared" si="7"/>
-        <v>77.608830328732807</v>
+        <v>77.585814520362518</v>
       </c>
       <c r="J129">
         <f t="shared" si="8"/>
@@ -29914,11 +29914,11 @@
         <v>41153</v>
       </c>
       <c r="B130">
-        <v>193.62175720641272</v>
+        <v>194.05994132402395</v>
       </c>
       <c r="C130">
         <f t="shared" si="5"/>
-        <v>109.10651799623308</v>
+        <v>109.35321845829561</v>
       </c>
       <c r="D130">
         <v>0.45276264291868701</v>
@@ -29935,7 +29935,7 @@
       </c>
       <c r="I130">
         <f t="shared" si="7"/>
-        <v>79.26506269117445</v>
+        <v>79.241555707682593</v>
       </c>
       <c r="J130">
         <f t="shared" si="8"/>
@@ -29951,11 +29951,11 @@
         <v>41183</v>
       </c>
       <c r="B131">
-        <v>196.49413332164613</v>
+        <v>196.93881789463831</v>
       </c>
       <c r="C131">
         <f t="shared" ref="C131:C194" si="10">B131/AVERAGE(B$2:B$13)*100</f>
-        <v>110.72511169577568</v>
+        <v>110.97547195581269</v>
       </c>
       <c r="D131">
         <v>0.45765318078878098</v>
@@ -29972,7 +29972,7 @@
       </c>
       <c r="I131">
         <f t="shared" ref="I131:I194" si="12">B131/B$169*100</f>
-        <v>80.440958810141524</v>
+        <v>80.417103100871671</v>
       </c>
       <c r="J131">
         <f t="shared" ref="J131:J194" si="13">D131/D$169*100</f>
@@ -29988,11 +29988,11 @@
         <v>41214</v>
       </c>
       <c r="B132">
-        <v>197.16771496433444</v>
+        <v>197.61392391548534</v>
       </c>
       <c r="C132">
         <f t="shared" si="10"/>
-        <v>111.10467723985633</v>
+        <v>111.3558957345509</v>
       </c>
       <c r="D132">
         <v>0.456794976709264</v>
@@ -30009,7 +30009,7 @@
       </c>
       <c r="I132">
         <f t="shared" si="12"/>
-        <v>80.716710316096481</v>
+        <v>80.692772829485151</v>
       </c>
       <c r="J132">
         <f t="shared" si="13"/>
@@ -30025,11 +30025,11 @@
         <v>41244</v>
       </c>
       <c r="B133">
-        <v>200.06452723424468</v>
+        <v>200.5172919420765</v>
       </c>
       <c r="C133">
         <f t="shared" si="10"/>
-        <v>112.73704079557866</v>
+        <v>112.99195022323349</v>
       </c>
       <c r="D133">
         <v>0.461934717442466</v>
@@ -30046,7 +30046,7 @@
       </c>
       <c r="I133">
         <f t="shared" si="12"/>
-        <v>81.902610131757243</v>
+        <v>81.878320952654377</v>
       </c>
       <c r="J133">
         <f t="shared" si="13"/>
@@ -30062,11 +30062,11 @@
         <v>41275</v>
       </c>
       <c r="B134">
-        <v>203.14235277374499</v>
+        <v>203.60208288819044</v>
       </c>
       <c r="C134">
         <f t="shared" si="10"/>
-        <v>114.47140594368939</v>
+        <v>114.73023693983787</v>
       </c>
       <c r="D134">
         <v>0.49588715537095102</v>
@@ -30083,7 +30083,7 @@
       </c>
       <c r="I134">
         <f t="shared" si="12"/>
-        <v>83.16261333522425</v>
+        <v>83.13795048740154</v>
       </c>
       <c r="J134">
         <f t="shared" si="13"/>
@@ -30099,11 +30099,11 @@
         <v>41306</v>
       </c>
       <c r="B135">
-        <v>206.15213161023533</v>
+        <v>206.61867313525107</v>
       </c>
       <c r="C135">
         <f t="shared" si="10"/>
-        <v>116.16742654347216</v>
+        <v>116.43009240735647</v>
       </c>
       <c r="D135">
         <v>0.50107642117644502</v>
@@ -30120,7 +30120,7 @@
       </c>
       <c r="I135">
         <f t="shared" si="12"/>
-        <v>84.394759513438331</v>
+        <v>84.369731258223183</v>
       </c>
       <c r="J135">
         <f t="shared" si="13"/>
@@ -30136,11 +30136,11 @@
         <v>41334</v>
       </c>
       <c r="B136">
-        <v>206.91316942879814</v>
+        <v>207.38143325346559</v>
       </c>
       <c r="C136">
         <f t="shared" si="10"/>
-        <v>116.59627393978165</v>
+        <v>116.85990946939052</v>
       </c>
       <c r="D136">
         <v>0.50002554270329902</v>
@@ -30157,7 +30157,7 @@
       </c>
       <c r="I136">
         <f t="shared" si="12"/>
-        <v>84.706313913465948</v>
+        <v>84.681193263141409</v>
       </c>
       <c r="J136">
         <f t="shared" si="13"/>
@@ -30173,11 +30173,11 @@
         <v>41365</v>
       </c>
       <c r="B137">
-        <v>209.35935298354795</v>
+        <v>209.83315275003267</v>
       </c>
       <c r="C137">
         <f t="shared" si="10"/>
-        <v>117.97470668354543</v>
+        <v>118.24145898382072</v>
       </c>
       <c r="D137">
         <v>0.50402125126298103</v>
@@ -30194,7 +30194,7 @@
       </c>
       <c r="I137">
         <f t="shared" si="12"/>
-        <v>85.707734908807183</v>
+        <v>85.682317275347742</v>
       </c>
       <c r="J137">
         <f t="shared" si="13"/>
@@ -30210,11 +30210,11 @@
         <v>41395</v>
       </c>
       <c r="B138">
-        <v>210.15328352892374</v>
+        <v>210.62888003437254</v>
       </c>
       <c r="C138">
         <f t="shared" si="10"/>
-        <v>118.42208924316375</v>
+        <v>118.68985311897278</v>
       </c>
       <c r="D138">
         <v>0.50542868593199897</v>
@@ -30231,7 +30231,7 @@
       </c>
       <c r="I138">
         <f t="shared" si="12"/>
-        <v>86.032754965228634</v>
+        <v>86.00724094326155</v>
       </c>
       <c r="J138">
         <f t="shared" si="13"/>
@@ -30247,11 +30247,11 @@
         <v>41426</v>
       </c>
       <c r="B139">
-        <v>209.2652419136904</v>
+        <v>209.7388286980356</v>
       </c>
       <c r="C139">
         <f t="shared" si="10"/>
-        <v>117.92167477594782</v>
+        <v>118.18830716591573</v>
       </c>
       <c r="D139">
         <v>0.50277211048841797</v>
@@ -30268,7 +30268,7 @@
       </c>
       <c r="I139">
         <f t="shared" si="12"/>
-        <v>85.669207627783479</v>
+        <v>85.643801420040859</v>
       </c>
       <c r="J139">
         <f t="shared" si="13"/>
@@ -30284,11 +30284,11 @@
         <v>41456</v>
       </c>
       <c r="B140">
-        <v>202.67061121881062</v>
+        <v>203.12927373806443</v>
       </c>
       <c r="C140">
         <f t="shared" si="10"/>
-        <v>114.20557797478945</v>
+        <v>114.46380790801372</v>
       </c>
       <c r="D140">
         <v>0.50361398170647698</v>
@@ -30305,7 +30305,7 @@
       </c>
       <c r="I140">
         <f t="shared" si="12"/>
-        <v>82.96949132008811</v>
+        <v>82.944885744862773</v>
       </c>
       <c r="J140">
         <f t="shared" si="13"/>
@@ -30321,11 +30321,11 @@
         <v>41487</v>
       </c>
       <c r="B141">
-        <v>204.62184906324595</v>
+        <v>205.08492741595489</v>
       </c>
       <c r="C141">
         <f t="shared" si="10"/>
-        <v>115.30510712926281</v>
+        <v>115.5658232049783</v>
       </c>
       <c r="D141">
         <v>0.50674027818299106</v>
@@ -30342,7 +30342,7 @@
       </c>
       <c r="I141">
         <f t="shared" si="12"/>
-        <v>83.768290960666079</v>
+        <v>83.743448492043754</v>
       </c>
       <c r="J141">
         <f t="shared" si="13"/>
@@ -30358,11 +30358,11 @@
         <v>41518</v>
       </c>
       <c r="B142">
-        <v>209.44732657208385</v>
+        <v>209.92132543101468</v>
       </c>
       <c r="C142">
         <f t="shared" si="10"/>
-        <v>118.02428009956682</v>
+        <v>118.29114449016322</v>
       </c>
       <c r="D142">
         <v>0.51508928036393198</v>
@@ -30379,7 +30379,7 @@
       </c>
       <c r="I142">
         <f t="shared" si="12"/>
-        <v>85.743749621776828</v>
+        <v>85.718321307732069</v>
       </c>
       <c r="J142">
         <f t="shared" si="13"/>
@@ -30395,11 +30395,11 @@
         <v>41548</v>
       </c>
       <c r="B143">
-        <v>214.71557274060496</v>
+        <v>215.20149413258176</v>
       </c>
       <c r="C143">
         <f t="shared" si="10"/>
-        <v>120.99295471386422</v>
+        <v>121.26653156685528</v>
       </c>
       <c r="D143">
         <v>0.52644149674374796</v>
@@ -30416,7 +30416,7 @@
       </c>
       <c r="I143">
         <f t="shared" si="12"/>
-        <v>87.900469346075099</v>
+        <v>87.874401431514897</v>
       </c>
       <c r="J143">
         <f t="shared" si="13"/>
@@ -30432,11 +30432,11 @@
         <v>41579</v>
       </c>
       <c r="B144">
-        <v>216.74328724922853</v>
+        <v>217.23379754849316</v>
       </c>
       <c r="C144">
         <f t="shared" si="10"/>
-        <v>122.13557872842944</v>
+        <v>122.41173916558698</v>
       </c>
       <c r="D144">
         <v>0.52800512167208502</v>
@@ -30453,7 +30453,7 @@
       </c>
       <c r="I144">
         <f t="shared" si="12"/>
-        <v>88.730577077586432</v>
+        <v>88.704262984847858</v>
       </c>
       <c r="J144">
         <f t="shared" si="13"/>
@@ -30469,11 +30469,11 @@
         <v>41609</v>
       </c>
       <c r="B145">
-        <v>224.45192663872496</v>
+        <v>224.95988230878677</v>
       </c>
       <c r="C145">
         <f t="shared" si="10"/>
-        <v>126.47942321373662</v>
+        <v>126.76540550628221</v>
       </c>
       <c r="D145">
         <v>0.54058115359438597</v>
@@ -30490,7 +30490,7 @@
       </c>
       <c r="I145">
         <f t="shared" si="12"/>
-        <v>91.886347344771323</v>
+        <v>91.859097371367852</v>
       </c>
       <c r="J145">
         <f t="shared" si="13"/>
@@ -30506,11 +30506,11 @@
         <v>41640</v>
       </c>
       <c r="B146">
-        <v>241.81811112625732</v>
+        <v>242.36536809352734</v>
       </c>
       <c r="C146">
         <f t="shared" si="10"/>
-        <v>136.26532717232388</v>
+        <v>136.57343634667836</v>
       </c>
       <c r="D146">
         <v>0.607841027187908</v>
@@ -30527,7 +30527,7 @@
       </c>
       <c r="I146">
         <f t="shared" si="12"/>
-        <v>98.995732787664949</v>
+        <v>98.966374442671651</v>
       </c>
       <c r="J146">
         <f t="shared" si="13"/>
@@ -30543,11 +30543,11 @@
         <v>41671</v>
       </c>
       <c r="B147">
-        <v>257.78643787545963</v>
+        <v>258.36983265733932</v>
       </c>
       <c r="C147">
         <f t="shared" si="10"/>
-        <v>145.26353354628125</v>
+        <v>145.59198854149921</v>
       </c>
       <c r="D147">
         <v>0.63599484609405099</v>
@@ -30564,7 +30564,7 @@
       </c>
       <c r="I147">
         <f t="shared" si="12"/>
-        <v>105.53286187434776</v>
+        <v>105.50156486709513</v>
       </c>
       <c r="J147">
         <f t="shared" si="13"/>
@@ -30580,11 +30580,11 @@
         <v>41699</v>
       </c>
       <c r="B148">
-        <v>257.15520718481719</v>
+        <v>257.73717343269749</v>
       </c>
       <c r="C148">
         <f t="shared" si="10"/>
-        <v>144.90783290756153</v>
+        <v>145.23548362899697</v>
       </c>
       <c r="D148">
         <v>0.63738743655166996</v>
@@ -30601,7 +30601,7 @@
       </c>
       <c r="I148">
         <f t="shared" si="12"/>
-        <v>105.27444804220272</v>
+        <v>105.24322767060113</v>
       </c>
       <c r="J148">
         <f t="shared" si="13"/>
@@ -30617,11 +30617,11 @@
         <v>41730</v>
       </c>
       <c r="B149">
-        <v>256.62083869435702</v>
+        <v>257.20159561644232</v>
       </c>
       <c r="C149">
         <f t="shared" si="10"/>
-        <v>144.6067144477241</v>
+        <v>144.93368431099873</v>
       </c>
       <c r="D149">
         <v>0.63953343044448996</v>
@@ -30638,7 +30638,7 @@
       </c>
       <c r="I149">
         <f t="shared" si="12"/>
-        <v>105.05568775148106</v>
+        <v>105.02453225580804</v>
       </c>
       <c r="J149">
         <f t="shared" si="13"/>
@@ -30654,11 +30654,11 @@
         <v>41760</v>
       </c>
       <c r="B150">
-        <v>254.66916888492588</v>
+        <v>255.24550899597892</v>
       </c>
       <c r="C150">
         <f t="shared" si="10"/>
-        <v>143.50694187950805</v>
+        <v>143.83142504990926</v>
       </c>
       <c r="D150">
         <v>0.63747151864375196</v>
@@ -30675,7 +30675,7 @@
       </c>
       <c r="I150">
         <f t="shared" si="12"/>
-        <v>104.2567112726543</v>
+        <v>104.22579272282171</v>
       </c>
       <c r="J150">
         <f t="shared" si="13"/>
@@ -30691,11 +30691,11 @@
         <v>41791</v>
       </c>
       <c r="B151">
-        <v>253.49603492601227</v>
+        <v>254.06972012536508</v>
       </c>
       <c r="C151">
         <f t="shared" si="10"/>
-        <v>142.84587690805574</v>
+        <v>143.16886534618152</v>
       </c>
       <c r="D151">
         <v>0.63437703799441303</v>
@@ -30712,7 +30712,7 @@
       </c>
       <c r="I151">
         <f t="shared" si="12"/>
-        <v>103.77645255514199</v>
+        <v>103.74567643166171</v>
       </c>
       <c r="J151">
         <f t="shared" si="13"/>
@@ -30728,11 +30728,11 @@
         <v>41821</v>
       </c>
       <c r="B152">
-        <v>252.45780441840091</v>
+        <v>253.02914000516154</v>
       </c>
       <c r="C152">
         <f t="shared" si="10"/>
-        <v>142.26083048973317</v>
+        <v>142.58249608093487</v>
       </c>
       <c r="D152">
         <v>0.63218983465658596</v>
@@ -30749,7 +30749,7 @@
       </c>
       <c r="I152">
         <f t="shared" si="12"/>
-        <v>103.35142074331944</v>
+        <v>103.32077066800522</v>
       </c>
       <c r="J152">
         <f t="shared" si="13"/>
@@ -30765,11 +30765,11 @@
         <v>41852</v>
       </c>
       <c r="B153">
-        <v>251.72451980600925</v>
+        <v>252.29419590121543</v>
       </c>
       <c r="C153">
         <f t="shared" si="10"/>
-        <v>141.84762211938985</v>
+        <v>142.16835340622765</v>
       </c>
       <c r="D153">
         <v>0.62896314904241402</v>
@@ -30786,7 +30786,7 @@
       </c>
       <c r="I153">
         <f t="shared" si="12"/>
-        <v>103.05122797774231</v>
+        <v>103.02066692811158</v>
       </c>
       <c r="J153">
         <f t="shared" si="13"/>
@@ -30802,11 +30802,11 @@
         <v>41883</v>
       </c>
       <c r="B154">
-        <v>248.07537289281231</v>
+        <v>248.63679062778425</v>
       </c>
       <c r="C154">
         <f t="shared" si="10"/>
-        <v>139.79131543619425</v>
+        <v>140.10739721337669</v>
       </c>
       <c r="D154">
         <v>0.620069011945795</v>
@@ -30823,7 +30823,7 @@
       </c>
       <c r="I154">
         <f t="shared" si="12"/>
-        <v>101.55733667638663</v>
+        <v>101.52721865773282</v>
       </c>
       <c r="J154">
         <f t="shared" si="13"/>
@@ -30839,11 +30839,11 @@
         <v>41913</v>
       </c>
       <c r="B155">
-        <v>243.54910697552089</v>
+        <v>244.10028134804401</v>
       </c>
       <c r="C155">
         <f t="shared" si="10"/>
-        <v>137.24074921426794</v>
+        <v>137.55106391284659</v>
       </c>
       <c r="D155">
         <v>0.60964932283498796</v>
@@ -30860,7 +30860,7 @@
       </c>
       <c r="I155">
         <f t="shared" si="12"/>
-        <v>99.704369546723839</v>
+        <v>99.674801047192958</v>
       </c>
       <c r="J155">
         <f t="shared" si="13"/>
@@ -30876,11 +30876,11 @@
         <v>41944</v>
       </c>
       <c r="B156">
-        <v>239.86543791556579</v>
+        <v>240.40827580101279</v>
       </c>
       <c r="C156">
         <f t="shared" si="10"/>
-        <v>135.16498918408863</v>
+        <v>135.47061038710001</v>
       </c>
       <c r="D156">
         <v>0.60128957295183905</v>
@@ -30897,7 +30897,7 @@
       </c>
       <c r="I156">
         <f t="shared" si="12"/>
-        <v>98.196345535457354</v>
+        <v>98.167224258124179</v>
       </c>
       <c r="J156">
         <f t="shared" si="13"/>
@@ -30913,11 +30913,11 @@
         <v>41974</v>
       </c>
       <c r="B157">
-        <v>235.32671668445641</v>
+        <v>235.85928301991629</v>
       </c>
       <c r="C157">
         <f t="shared" si="10"/>
-        <v>132.60740435051022</v>
+        <v>132.90724260515336</v>
       </c>
       <c r="D157">
         <v>0.59066551089461306</v>
@@ -30934,7 +30934,7 @@
       </c>
       <c r="I157">
         <f t="shared" si="12"/>
-        <v>96.338279437347722</v>
+        <v>96.309709191296321</v>
       </c>
       <c r="J157">
         <f t="shared" si="13"/>
@@ -30950,11 +30950,11 @@
         <v>42005</v>
       </c>
       <c r="B158">
-        <v>229.06954008615259</v>
+        <v>229.58794584665424</v>
       </c>
       <c r="C158">
         <f t="shared" si="10"/>
-        <v>129.08146407923871</v>
+        <v>129.37332983956986</v>
       </c>
       <c r="D158">
         <v>0.52329669849272098</v>
@@ -30971,7 +30971,7 @@
       </c>
       <c r="I158">
         <f t="shared" si="12"/>
-        <v>93.77671041488729</v>
+        <v>93.748899832156383</v>
       </c>
       <c r="J158">
         <f t="shared" si="13"/>
@@ -30987,11 +30987,11 @@
         <v>42036</v>
       </c>
       <c r="B159">
-        <v>226.86781408130622</v>
+        <v>227.44868970535632</v>
       </c>
       <c r="C159">
         <f t="shared" si="10"/>
-        <v>127.84078399536543</v>
+        <v>128.16785413674566</v>
       </c>
       <c r="D159">
         <v>0.51947299478514697</v>
@@ -31008,7 +31008,7 @@
       </c>
       <c r="I159">
         <f t="shared" si="12"/>
-        <v>92.8753656883394</v>
+        <v>92.875365688339372</v>
       </c>
       <c r="J159">
         <f t="shared" si="13"/>
@@ -31024,11 +31024,11 @@
         <v>42064</v>
       </c>
       <c r="B160">
-        <v>222.1521671435261</v>
+        <v>222.72096875712711</v>
       </c>
       <c r="C160">
         <f t="shared" si="10"/>
-        <v>125.1835009249908</v>
+        <v>125.50377262598016</v>
       </c>
       <c r="D160">
         <v>0.50925207715821597</v>
@@ -31045,7 +31045,7 @@
       </c>
       <c r="I160">
         <f t="shared" si="12"/>
-        <v>90.944869572894547</v>
+        <v>90.944869572894532</v>
       </c>
       <c r="J160">
         <f t="shared" si="13"/>
@@ -31061,11 +31061,11 @@
         <v>42095</v>
       </c>
       <c r="B161">
-        <v>222.74291950966531</v>
+        <v>223.31323369414699</v>
       </c>
       <c r="C161">
         <f t="shared" si="10"/>
-        <v>125.5163918903319</v>
+        <v>125.83751526550297</v>
       </c>
       <c r="D161">
         <v>0.51148060855238597</v>
@@ -31082,7 +31082,7 @@
       </c>
       <c r="I161">
         <f t="shared" si="12"/>
-        <v>91.186712349308692</v>
+        <v>91.186712349308678</v>
       </c>
       <c r="J161">
         <f t="shared" si="13"/>
@@ -31098,11 +31098,11 @@
         <v>42125</v>
       </c>
       <c r="B162">
-        <v>223.88554674294008</v>
+        <v>224.45878652667378</v>
       </c>
       <c r="C162">
         <f t="shared" si="10"/>
-        <v>126.16026621824319</v>
+        <v>126.48303689297609</v>
       </c>
       <c r="D162">
         <v>0.51607436054098299</v>
@@ -31119,7 +31119,7 @@
       </c>
       <c r="I162">
         <f t="shared" si="12"/>
-        <v>91.654482193901174</v>
+        <v>91.65448219390116</v>
       </c>
       <c r="J162">
         <f t="shared" si="13"/>
@@ -31135,11 +31135,11 @@
         <v>42156</v>
       </c>
       <c r="B163">
-        <v>223.84600319990503</v>
+        <v>224.41914173578067</v>
       </c>
       <c r="C163">
         <f t="shared" si="10"/>
-        <v>126.13798329739774</v>
+        <v>126.4606969631086</v>
       </c>
       <c r="D163">
         <v>0.516752254252139</v>
@@ -31156,7 +31156,7 @@
       </c>
       <c r="I163">
         <f t="shared" si="12"/>
-        <v>91.63829381991404</v>
+        <v>91.638293819914026</v>
       </c>
       <c r="J163">
         <f t="shared" si="13"/>
@@ -31172,11 +31172,11 @@
         <v>42186</v>
       </c>
       <c r="B164">
-        <v>221.46504024535571</v>
+        <v>222.03208252933391</v>
       </c>
       <c r="C164">
         <f t="shared" si="10"/>
-        <v>124.79630258342735</v>
+        <v>125.11558366927528</v>
       </c>
       <c r="D164">
         <v>0.51039822642618904</v>
@@ -31193,7 +31193,7 @@
       </c>
       <c r="I164">
         <f t="shared" si="12"/>
-        <v>90.663572897117533</v>
+        <v>90.663572897117518</v>
       </c>
       <c r="J164">
         <f t="shared" si="13"/>
@@ -31209,11 +31209,11 @@
         <v>42217</v>
       </c>
       <c r="B165">
-        <v>217.14407130203259</v>
+        <v>217.70005011479248</v>
       </c>
       <c r="C165">
         <f t="shared" si="10"/>
-        <v>122.36142190380797</v>
+        <v>122.67447354750733</v>
       </c>
       <c r="D165">
         <v>0.50352134815537097</v>
@@ -31230,7 +31230,7 @@
       </c>
       <c r="I165">
         <f t="shared" si="12"/>
-        <v>88.894650441703618</v>
+        <v>88.894650441703604</v>
       </c>
       <c r="J165">
         <f t="shared" si="13"/>
@@ -31246,11 +31246,11 @@
         <v>42248</v>
       </c>
       <c r="B166">
-        <v>213.53365758243297</v>
+        <v>214.08039223982007</v>
       </c>
       <c r="C166">
         <f t="shared" si="10"/>
-        <v>120.32694150679659</v>
+        <v>120.6347880995702</v>
       </c>
       <c r="D166">
         <v>0.49745957078734199</v>
@@ -31267,7 +31267,7 @@
       </c>
       <c r="I166">
         <f t="shared" si="12"/>
-        <v>87.416615772696588</v>
+        <v>87.416615772696574</v>
       </c>
       <c r="J166">
         <f t="shared" si="13"/>
@@ -31283,11 +31283,11 @@
         <v>42278</v>
       </c>
       <c r="B167">
-        <v>215.79654270990787</v>
+        <v>216.34907129102055</v>
       </c>
       <c r="C167">
         <f t="shared" si="10"/>
-        <v>121.60208496405302</v>
+        <v>121.91319390658552</v>
       </c>
       <c r="D167">
         <v>0.50228708587509496</v>
@@ -31320,11 +31320,11 @@
         <v>42309</v>
       </c>
       <c r="B168">
-        <v>212.56888535057871</v>
+        <v>213.11314979122523</v>
       </c>
       <c r="C168">
         <f t="shared" si="10"/>
-        <v>119.78328907643024</v>
+        <v>120.08974477913179</v>
       </c>
       <c r="D168">
         <v>0.49383145718726801</v>
@@ -31341,7 +31341,7 @@
       </c>
       <c r="I168">
         <f t="shared" si="12"/>
-        <v>87.021656381024982</v>
+        <v>87.021656381024968</v>
       </c>
       <c r="J168">
         <f t="shared" si="13"/>
@@ -31357,11 +31357,11 @@
         <v>42339</v>
       </c>
       <c r="B169">
-        <v>244.27124717075512</v>
+        <v>244.89668279595566</v>
       </c>
       <c r="C169">
         <f t="shared" si="10"/>
-        <v>137.64767766768102</v>
+        <v>137.99983794070519</v>
       </c>
       <c r="D169">
         <v>0.54511990037499702</v>
@@ -31394,11 +31394,11 @@
         <v>42370</v>
       </c>
       <c r="B170">
-        <v>277.03882483107429</v>
+        <v>277.74815903483312</v>
       </c>
       <c r="C170">
         <f t="shared" si="10"/>
-        <v>156.1123190038158</v>
+        <v>156.51171954448853</v>
       </c>
       <c r="D170">
         <v>0.634067308787716</v>
@@ -31431,11 +31431,11 @@
         <v>42401</v>
       </c>
       <c r="B171">
-        <v>290.70842827393653</v>
+        <v>291.45276232755305</v>
       </c>
       <c r="C171">
         <f t="shared" si="10"/>
-        <v>163.81518698496964</v>
+        <v>164.23429468043986</v>
       </c>
       <c r="D171">
         <v>0.65661248814283801</v>
@@ -31468,11 +31468,11 @@
         <v>42430</v>
       </c>
       <c r="B172">
-        <v>289.26456892365115</v>
+        <v>290.00520609895756</v>
       </c>
       <c r="C172">
         <f t="shared" si="10"/>
-        <v>163.00156733571708</v>
+        <v>163.41859345216852</v>
       </c>
       <c r="D172">
         <v>0.65665440860475999</v>
@@ -31489,7 +31489,7 @@
       </c>
       <c r="I172">
         <f t="shared" si="12"/>
-        <v>118.41940968248463</v>
+        <v>118.41940968248461</v>
       </c>
       <c r="J172">
         <f t="shared" si="13"/>
@@ -31505,11 +31505,11 @@
         <v>42461</v>
       </c>
       <c r="B173">
-        <v>264.9173445177841</v>
+        <v>265.59564270847994</v>
       </c>
       <c r="C173">
         <f t="shared" si="10"/>
-        <v>149.28182366576823</v>
+        <v>149.66374894536938</v>
       </c>
       <c r="D173">
         <v>0.62058591890627002</v>
@@ -31542,11 +31542,11 @@
         <v>42491</v>
       </c>
       <c r="B174">
-        <v>248.27148478818734</v>
+        <v>248.90716267949239</v>
       </c>
       <c r="C174">
         <f t="shared" si="10"/>
-        <v>139.9018251555085</v>
+        <v>140.25975247966059</v>
       </c>
       <c r="D174">
         <v>0.59325786801778801</v>
@@ -31563,7 +31563,7 @@
       </c>
       <c r="I174">
         <f t="shared" si="12"/>
-        <v>101.63762115425558</v>
+        <v>101.63762115425557</v>
       </c>
       <c r="J174">
         <f t="shared" si="13"/>
@@ -31579,11 +31579,11 @@
         <v>42522</v>
       </c>
       <c r="B175">
-        <v>242.87062187394477</v>
+        <v>243.49247131792941</v>
       </c>
       <c r="C175">
         <f t="shared" si="10"/>
-        <v>136.85842055444502</v>
+        <v>137.20856157799693</v>
       </c>
       <c r="D175">
         <v>0.58387573868220899</v>
@@ -31600,7 +31600,7 @@
       </c>
       <c r="I175">
         <f t="shared" si="12"/>
-        <v>99.42661065801525</v>
+        <v>99.426610658015235</v>
       </c>
       <c r="J175">
         <f t="shared" si="13"/>
@@ -31616,11 +31616,11 @@
         <v>42552</v>
       </c>
       <c r="B176">
-        <v>251.22400189927237</v>
+        <v>251.86723945798272</v>
       </c>
       <c r="C176">
         <f t="shared" si="10"/>
-        <v>141.56557857848443</v>
+        <v>141.92776247906127</v>
       </c>
       <c r="D176">
         <v>0.59823550880691001</v>
@@ -31653,11 +31653,11 @@
         <v>42583</v>
       </c>
       <c r="B177">
-        <v>251.77918277198629</v>
+        <v>252.42384182381238</v>
       </c>
       <c r="C177">
         <f t="shared" si="10"/>
-        <v>141.87842488642983</v>
+        <v>142.24140917857946</v>
       </c>
       <c r="D177">
         <v>0.60056768928372395</v>
@@ -31690,11 +31690,11 @@
         <v>42614</v>
       </c>
       <c r="B178">
-        <v>253.16774568583062</v>
+        <v>253.81596003417323</v>
       </c>
       <c r="C178">
         <f t="shared" si="10"/>
-        <v>142.66088480588377</v>
+        <v>143.02587095744383</v>
       </c>
       <c r="D178">
         <v>0.60249531549239999</v>
@@ -31727,11 +31727,11 @@
         <v>42644</v>
       </c>
       <c r="B179">
-        <v>248.28141624720652</v>
+        <v>248.91711956716253</v>
       </c>
       <c r="C179">
         <f t="shared" si="10"/>
-        <v>139.90742156640695</v>
+        <v>140.26536320851645</v>
       </c>
       <c r="D179">
         <v>0.593431966322572</v>
@@ -31748,7 +31748,7 @@
       </c>
       <c r="I179">
         <f t="shared" si="12"/>
-        <v>101.64168690457791</v>
+        <v>101.64168690457788</v>
       </c>
       <c r="J179">
         <f t="shared" si="13"/>
@@ -31764,11 +31764,11 @@
         <v>42675</v>
       </c>
       <c r="B180">
-        <v>243.24096507123281</v>
+        <v>243.86376274728249</v>
       </c>
       <c r="C180">
         <f t="shared" si="10"/>
-        <v>137.06711020432053</v>
+        <v>137.41778514319398</v>
       </c>
       <c r="D180">
         <v>0.58274469533017603</v>
@@ -31785,7 +31785,7 @@
       </c>
       <c r="I180">
         <f t="shared" si="12"/>
-        <v>99.578222115187344</v>
+        <v>99.57822211518733</v>
       </c>
       <c r="J180">
         <f t="shared" si="13"/>
@@ -31801,11 +31801,11 @@
         <v>42705</v>
       </c>
       <c r="B181">
-        <v>244.97530974324278</v>
+        <v>245.60254806041095</v>
       </c>
       <c r="C181">
         <f t="shared" si="10"/>
-        <v>138.0444193192595</v>
+        <v>138.39759462319958</v>
       </c>
       <c r="D181">
         <v>0.58354968956502296</v>
@@ -31822,7 +31822,7 @@
       </c>
       <c r="I181">
         <f t="shared" si="12"/>
-        <v>100.28822981854901</v>
+        <v>100.28822981854898</v>
       </c>
       <c r="J181">
         <f t="shared" si="13"/>
@@ -31838,11 +31838,11 @@
         <v>42736</v>
       </c>
       <c r="B182">
-        <v>247.56177819389609</v>
+        <v>248.19563894219863</v>
       </c>
       <c r="C182">
         <f t="shared" si="10"/>
-        <v>139.5019030784687</v>
+        <v>139.85880723484763</v>
       </c>
       <c r="D182">
         <v>0.60314984229635604</v>
@@ -31875,11 +31875,11 @@
         <v>42767</v>
       </c>
       <c r="B183">
-        <v>239.58091027258317</v>
+        <v>240.19433669152511</v>
       </c>
       <c r="C183">
         <f t="shared" si="10"/>
-        <v>135.00465689061389</v>
+        <v>135.35005521215268</v>
       </c>
       <c r="D183">
         <v>0.59032775128328396</v>
@@ -31896,7 +31896,7 @@
       </c>
       <c r="I183">
         <f t="shared" si="12"/>
-        <v>98.079865333109296</v>
+        <v>98.079865333109282</v>
       </c>
       <c r="J183">
         <f t="shared" si="13"/>
@@ -31912,11 +31912,11 @@
         <v>42795</v>
       </c>
       <c r="B184">
-        <v>233.60084967181731</v>
+        <v>234.19745129869727</v>
       </c>
       <c r="C184">
         <f t="shared" si="10"/>
-        <v>131.63487242542874</v>
+        <v>131.97079664927236</v>
       </c>
       <c r="D184">
         <v>0.58023705766020806</v>
@@ -31933,7 +31933,7 @@
       </c>
       <c r="I184">
         <f t="shared" si="12"/>
-        <v>95.631742326398822</v>
+        <v>95.631124368404443</v>
       </c>
       <c r="J184">
         <f t="shared" si="13"/>
@@ -31949,11 +31949,11 @@
         <v>42826</v>
       </c>
       <c r="B185">
-        <v>226.53185901816988</v>
+        <v>227.11040689511574</v>
       </c>
       <c r="C185">
         <f t="shared" si="10"/>
-        <v>127.65147217591462</v>
+        <v>127.97723100351921</v>
       </c>
       <c r="D185">
         <v>0.56884583208642203</v>
@@ -31970,7 +31970,7 @@
       </c>
       <c r="I185">
         <f t="shared" si="12"/>
-        <v>92.737832078867342</v>
+        <v>92.737232820887499</v>
       </c>
       <c r="J185">
         <f t="shared" si="13"/>
@@ -31986,11 +31986,11 @@
         <v>42856</v>
       </c>
       <c r="B186">
-        <v>230.31268774959418</v>
+        <v>230.90089162126475</v>
       </c>
       <c r="C186">
         <f t="shared" si="10"/>
-        <v>129.78198201105704</v>
+        <v>130.11317777075701</v>
       </c>
       <c r="D186">
         <v>0.57774045976427602</v>
@@ -32007,7 +32007,7 @@
       </c>
       <c r="I186">
         <f t="shared" si="12"/>
-        <v>94.285631410641074</v>
+        <v>94.285022151013791</v>
       </c>
       <c r="J186">
         <f t="shared" si="13"/>
@@ -32023,11 +32023,11 @@
         <v>42887</v>
       </c>
       <c r="B187">
-        <v>234.00438580070551</v>
+        <v>234.60201803304489</v>
       </c>
       <c r="C187">
         <f t="shared" si="10"/>
-        <v>131.8622664050306</v>
+        <v>132.19877092454126</v>
       </c>
       <c r="D187">
         <v>0.584733579185165</v>
@@ -32044,7 +32044,7 @@
       </c>
       <c r="I187">
         <f t="shared" si="12"/>
-        <v>95.796942338091611</v>
+        <v>95.796323312599483</v>
       </c>
       <c r="J187">
         <f t="shared" si="13"/>
@@ -32060,11 +32060,11 @@
         <v>42917</v>
       </c>
       <c r="B188">
-        <v>247.22569901397665</v>
+        <v>247.85709763451027</v>
       </c>
       <c r="C188">
         <f t="shared" si="10"/>
-        <v>139.31252131878892</v>
+        <v>139.66803843772124</v>
       </c>
       <c r="D188">
         <v>0.61109095769322697</v>
@@ -32081,7 +32081,7 @@
       </c>
       <c r="I188">
         <f t="shared" si="12"/>
-        <v>101.20949636006739</v>
+        <v>101.20884235946193</v>
       </c>
       <c r="J188">
         <f t="shared" si="13"/>
@@ -32097,11 +32097,11 @@
         <v>42948</v>
       </c>
       <c r="B189">
-        <v>249.24801217056469</v>
+        <v>250.00098901092383</v>
       </c>
       <c r="C189">
         <f t="shared" si="10"/>
-        <v>140.45210165313159</v>
+        <v>140.87612610607911</v>
       </c>
       <c r="D189">
         <v>0.61741383854285103</v>
@@ -32118,7 +32118,7 @@
       </c>
       <c r="I189">
         <f t="shared" si="12"/>
-        <v>102.03739288084554</v>
+        <v>102.08426923414923</v>
       </c>
       <c r="J189">
         <f t="shared" si="13"/>
@@ -32134,11 +32134,11 @@
         <v>42979</v>
       </c>
       <c r="B190">
-        <v>243.93289140716081</v>
+        <v>244.66981129764218</v>
       </c>
       <c r="C190">
         <f t="shared" si="10"/>
-        <v>137.45701304536598</v>
+        <v>137.87199533523099</v>
       </c>
       <c r="D190">
         <v>0.60806201878771504</v>
@@ -32155,7 +32155,7 @@
       </c>
       <c r="I190">
         <f t="shared" si="12"/>
-        <v>99.861483589446863</v>
+        <v>99.907360322025056</v>
       </c>
       <c r="J190">
         <f t="shared" si="13"/>
@@ -32171,11 +32171,11 @@
         <v>43009</v>
       </c>
       <c r="B191">
-        <v>241.71701456266851</v>
+        <v>242.44724030168823</v>
       </c>
       <c r="C191">
         <f t="shared" si="10"/>
-        <v>136.20835891527619</v>
+        <v>136.61957152225142</v>
       </c>
       <c r="D191">
         <v>0.60282835827900405</v>
@@ -32192,7 +32192,7 @@
       </c>
       <c r="I191">
         <f t="shared" si="12"/>
-        <v>98.954345778444775</v>
+        <v>98.999805768578625</v>
       </c>
       <c r="J191">
         <f t="shared" si="13"/>
@@ -32208,11 +32208,11 @@
         <v>43040</v>
       </c>
       <c r="B192">
-        <v>238.387810692389</v>
+        <v>239.10797892527526</v>
       </c>
       <c r="C192">
         <f t="shared" si="10"/>
-        <v>134.33234122373884</v>
+        <v>134.73789013920634</v>
       </c>
       <c r="D192">
         <v>0.59682191850491495</v>
@@ -32229,7 +32229,7 @@
       </c>
       <c r="I192">
         <f t="shared" si="12"/>
-        <v>97.591433070199471</v>
+        <v>97.636266933226096</v>
       </c>
       <c r="J192">
         <f t="shared" si="13"/>
@@ -32245,11 +32245,11 @@
         <v>43070</v>
       </c>
       <c r="B193">
-        <v>235.84149925660117</v>
+        <v>236.55397509698733</v>
       </c>
       <c r="C193">
         <f t="shared" si="10"/>
-        <v>132.89748607883573</v>
+        <v>133.29870317113568</v>
       </c>
       <c r="D193">
         <v>0.59291139769607504</v>
@@ -32266,7 +32266,7 @@
       </c>
       <c r="I193">
         <f t="shared" si="12"/>
-        <v>96.549021625839899</v>
+        <v>96.593376601217855</v>
       </c>
       <c r="J193">
         <f t="shared" si="13"/>
@@ -32282,11 +32282,11 @@
         <v>43101</v>
       </c>
       <c r="B194">
-        <v>254.05289614918922</v>
+        <v>254.8203885169743</v>
       </c>
       <c r="C194">
         <f t="shared" si="10"/>
-        <v>143.15967009919589</v>
+        <v>143.59186869276255</v>
       </c>
       <c r="D194">
         <v>0.64116462446310696</v>
@@ -32303,7 +32303,7 @@
       </c>
       <c r="I194">
         <f t="shared" si="12"/>
-        <v>104.00442094259105</v>
+        <v>104.05220095581569</v>
       </c>
       <c r="J194">
         <f t="shared" si="13"/>
@@ -32319,11 +32319,11 @@
         <v>43132</v>
       </c>
       <c r="B195">
-        <v>260.12699883724309</v>
+        <v>260.91284103502375</v>
       </c>
       <c r="C195">
         <f t="shared" ref="C195:C258" si="15">B195/AVERAGE(B$2:B$13)*100</f>
-        <v>146.58244760006639</v>
+        <v>147.02497954813813</v>
       </c>
       <c r="D195">
         <v>0.65283474664280505</v>
@@ -32340,7 +32340,7 @@
       </c>
       <c r="I195">
         <f t="shared" ref="I195:I258" si="17">B195/B$169*100</f>
-        <v>106.49104299017402</v>
+        <v>106.53996536670631</v>
       </c>
       <c r="J195">
         <f t="shared" ref="J195:J258" si="18">D195/D$169*100</f>
@@ -32356,11 +32356,11 @@
         <v>43160</v>
       </c>
       <c r="B196">
-        <v>264.49746355358934</v>
+        <v>265.29650890065233</v>
       </c>
       <c r="C196">
         <f t="shared" si="15"/>
-        <v>149.04521931594118</v>
+        <v>149.49518636407387</v>
       </c>
       <c r="D196">
         <v>0.65947290665941105</v>
@@ -32377,7 +32377,7 @@
       </c>
       <c r="I196">
         <f t="shared" si="17"/>
-        <v>108.2802280731368</v>
+        <v>108.32997240787191</v>
       </c>
       <c r="J196">
         <f t="shared" si="18"/>
@@ -32393,11 +32393,11 @@
         <v>43191</v>
       </c>
       <c r="B197">
-        <v>251.03866895593015</v>
+        <v>251.79705536034828</v>
       </c>
       <c r="C197">
         <f t="shared" si="15"/>
-        <v>141.46114283526109</v>
+        <v>141.88821358036247</v>
       </c>
       <c r="D197">
         <v>0.63411163731383502</v>
@@ -32414,7 +32414,7 @@
       </c>
       <c r="I197">
         <f t="shared" si="17"/>
-        <v>102.77045369177009</v>
+        <v>102.81766681590454</v>
       </c>
       <c r="J197">
         <f t="shared" si="18"/>
@@ -32430,11 +32430,11 @@
         <v>43221</v>
       </c>
       <c r="B198">
-        <v>280.95126741379022</v>
+        <v>281.80001960960459</v>
       </c>
       <c r="C198">
         <f t="shared" si="15"/>
-        <v>158.31699369130584</v>
+        <v>158.79495219710341</v>
       </c>
       <c r="D198">
         <v>0.68198162263662399</v>
@@ -32451,7 +32451,7 @@
       </c>
       <c r="I198">
         <f t="shared" si="17"/>
-        <v>115.01610225021463</v>
+        <v>115.06894107030281</v>
       </c>
       <c r="J198">
         <f t="shared" si="18"/>
@@ -32467,11 +32467,11 @@
         <v>43252</v>
       </c>
       <c r="B199">
-        <v>300.81112709902328</v>
+        <v>301.71987581904477</v>
       </c>
       <c r="C199">
         <f t="shared" si="15"/>
-        <v>169.50809209580777</v>
+        <v>170.01983649247489</v>
       </c>
       <c r="D199">
         <v>0.71456401888899601</v>
@@ -32488,7 +32488,7 @@
       </c>
       <c r="I199">
         <f t="shared" si="17"/>
-        <v>123.14635086328624</v>
+        <v>123.20292474946808</v>
       </c>
       <c r="J199">
         <f t="shared" si="18"/>
@@ -32504,11 +32504,11 @@
         <v>43282</v>
       </c>
       <c r="B200">
-        <v>299.95521211229931</v>
+        <v>300.86137511796863</v>
       </c>
       <c r="C200">
         <f t="shared" si="15"/>
-        <v>169.02578109290386</v>
+        <v>169.53606939417085</v>
       </c>
       <c r="D200">
         <v>0.71343811434805704</v>
@@ -32525,7 +32525,7 @@
       </c>
       <c r="I200">
         <f t="shared" si="17"/>
-        <v>122.79595555616865</v>
+        <v>122.8523684694586</v>
       </c>
       <c r="J200">
         <f t="shared" si="18"/>
@@ -32541,11 +32541,11 @@
         <v>43313</v>
       </c>
       <c r="B201">
-        <v>311.67164069668621</v>
+        <v>312.61319896709176</v>
       </c>
       <c r="C201">
         <f t="shared" si="15"/>
-        <v>175.62802840559198</v>
+        <v>176.15824887072148</v>
       </c>
       <c r="D201">
         <v>0.73071387684284395</v>
@@ -32562,7 +32562,7 @@
       </c>
       <c r="I201">
         <f t="shared" si="17"/>
-        <v>127.59243844971063</v>
+        <v>127.65105488487016</v>
       </c>
       <c r="J201">
         <f t="shared" si="18"/>
@@ -32578,11 +32578,11 @@
         <v>43344</v>
       </c>
       <c r="B202">
-        <v>371.2276989231114</v>
+        <v>372.34917570984555</v>
       </c>
       <c r="C202">
         <f t="shared" si="15"/>
-        <v>209.18806955189223</v>
+        <v>209.81960767564317</v>
       </c>
       <c r="D202">
         <v>0.82277653101954895</v>
@@ -32599,7 +32599,7 @@
       </c>
       <c r="I202">
         <f t="shared" si="17"/>
-        <v>151.97355530903266</v>
+        <v>152.04337251888441</v>
       </c>
       <c r="J202">
         <f t="shared" si="18"/>
@@ -32615,11 +32615,11 @@
         <v>43374</v>
       </c>
       <c r="B203">
-        <v>342.03645902846625</v>
+        <v>343.06974924395905</v>
       </c>
       <c r="C203">
         <f t="shared" si="15"/>
-        <v>192.73870669696211</v>
+        <v>193.3205842460132</v>
       </c>
       <c r="D203">
         <v>0.77615314413726699</v>
@@ -32636,7 +32636,7 @@
       </c>
       <c r="I203">
         <f t="shared" si="17"/>
-        <v>140.02321721859039</v>
+        <v>140.08754439920273</v>
       </c>
       <c r="J203">
         <f t="shared" si="18"/>
@@ -32652,11 +32652,11 @@
         <v>43405</v>
       </c>
       <c r="B204">
-        <v>327.07457565102663</v>
+        <v>328.06266610114017</v>
       </c>
       <c r="C204">
         <f t="shared" si="15"/>
-        <v>184.30763458228301</v>
+        <v>184.86405875114889</v>
       </c>
       <c r="D204">
         <v>0.75176078731539098</v>
@@ -32673,7 +32673,7 @@
       </c>
       <c r="I204">
         <f t="shared" si="17"/>
-        <v>133.89810689523716</v>
+        <v>133.95962017765558</v>
       </c>
       <c r="J204">
         <f t="shared" si="18"/>
@@ -32689,11 +32689,11 @@
         <v>43435</v>
       </c>
       <c r="B205">
-        <v>329.8748981895082</v>
+        <v>330.87144839823185</v>
       </c>
       <c r="C205">
         <f t="shared" si="15"/>
-        <v>185.88562584653116</v>
+        <v>186.44681396605853</v>
       </c>
       <c r="D205">
         <v>0.75734774039622899</v>
@@ -32710,7 +32710,7 @@
       </c>
       <c r="I205">
         <f t="shared" si="17"/>
-        <v>135.044505651094</v>
+        <v>135.10654559331419</v>
       </c>
       <c r="J205">
         <f t="shared" si="18"/>
@@ -32726,11 +32726,11 @@
         <v>43466</v>
       </c>
       <c r="B206">
-        <v>320.04066073564894</v>
+        <v>321.00750176843627</v>
       </c>
       <c r="C206">
         <f t="shared" si="15"/>
-        <v>180.34399963045018</v>
+        <v>180.88845759786832</v>
       </c>
       <c r="D206">
         <v>0.63415971586318598</v>
@@ -32747,7 +32747,7 @@
       </c>
       <c r="I206">
         <f t="shared" si="17"/>
-        <v>131.01855598744623</v>
+        <v>131.07874639359449</v>
       </c>
       <c r="J206">
         <f t="shared" si="18"/>
@@ -32763,11 +32763,11 @@
         <v>43497</v>
       </c>
       <c r="B207">
-        <v>318.62659197121923</v>
+        <v>319.87699575835848</v>
       </c>
       <c r="C207">
         <f t="shared" si="15"/>
-        <v>179.54716707753781</v>
+        <v>180.25141488907954</v>
       </c>
       <c r="D207">
         <v>0.63215451973342096</v>
@@ -32784,7 +32784,7 @@
       </c>
       <c r="I207">
         <f t="shared" si="17"/>
-        <v>130.43966314565333</v>
+        <v>130.61712070019149</v>
       </c>
       <c r="J207">
         <f t="shared" si="18"/>
@@ -32800,11 +32800,11 @@
         <v>43525</v>
       </c>
       <c r="B208">
-        <v>329.32874628955921</v>
+        <v>330.62114912708347</v>
       </c>
       <c r="C208">
         <f t="shared" si="15"/>
-        <v>185.57786739541382</v>
+        <v>186.30576975728937</v>
       </c>
       <c r="D208">
         <v>0.64694666490366504</v>
@@ -32821,7 +32821,7 @@
       </c>
       <c r="I208">
         <f t="shared" si="17"/>
-        <v>134.8209214567712</v>
+        <v>135.00433952490579</v>
       </c>
       <c r="J208">
         <f t="shared" si="18"/>
@@ -32837,11 +32837,11 @@
         <v>43556</v>
       </c>
       <c r="B209">
-        <v>332.3506295996051</v>
+        <v>333.65489137932184</v>
       </c>
       <c r="C209">
         <f t="shared" si="15"/>
-        <v>187.28070890716887</v>
+        <v>188.01529041874963</v>
       </c>
       <c r="D209">
         <v>0.65102426268656199</v>
@@ -32858,7 +32858,7 @@
       </c>
       <c r="I209">
         <f t="shared" si="17"/>
-        <v>136.05802297610538</v>
+        <v>136.24312406767805</v>
       </c>
       <c r="J209">
         <f t="shared" si="18"/>
@@ -32874,11 +32874,11 @@
         <v>43586</v>
       </c>
       <c r="B210">
-        <v>331.80361020757613</v>
+        <v>333.10572528913059</v>
       </c>
       <c r="C210">
         <f t="shared" si="15"/>
-        <v>186.97246162131728</v>
+        <v>187.70583407747256</v>
       </c>
       <c r="D210">
         <v>0.64873937776935298</v>
@@ -32895,7 +32895,7 @@
       </c>
       <c r="I210">
         <f t="shared" si="17"/>
-        <v>135.83408364703376</v>
+        <v>136.01888007877568</v>
       </c>
       <c r="J210">
         <f t="shared" si="18"/>
@@ -32911,11 +32911,11 @@
         <v>43617</v>
       </c>
       <c r="B211">
-        <v>317.65500652765996</v>
+        <v>318.90159746882603</v>
       </c>
       <c r="C211">
         <f t="shared" si="15"/>
-        <v>178.99967537922848</v>
+        <v>179.70177573371674</v>
       </c>
       <c r="D211">
         <v>0.62871148638262497</v>
@@ -32932,7 +32932,7 @@
       </c>
       <c r="I211">
         <f t="shared" si="17"/>
-        <v>130.0419145547682</v>
+        <v>130.21883098944636</v>
       </c>
       <c r="J211">
         <f t="shared" si="18"/>
@@ -32948,11 +32948,11 @@
         <v>43647</v>
       </c>
       <c r="B212">
-        <v>304.89690541965734</v>
+        <v>306.09342904584048</v>
       </c>
       <c r="C212">
         <f t="shared" si="15"/>
-        <v>171.81044206050541</v>
+        <v>172.48434368641563</v>
       </c>
       <c r="D212">
         <v>0.61032100060551897</v>
@@ -32969,7 +32969,7 @@
       </c>
       <c r="I212">
         <f t="shared" si="17"/>
-        <v>124.8189907535546</v>
+        <v>124.9888016249175</v>
       </c>
       <c r="J212">
         <f t="shared" si="18"/>
@@ -32985,11 +32985,11 @@
         <v>43678</v>
       </c>
       <c r="B213">
-        <v>357.66632440854261</v>
+        <v>359.06993395602512</v>
       </c>
       <c r="C213">
         <f t="shared" si="15"/>
-        <v>201.54618893952861</v>
+        <v>202.33672473463776</v>
       </c>
       <c r="D213">
         <v>0.68247432606571501</v>
@@ -33006,7 +33006,7 @@
       </c>
       <c r="I213">
         <f t="shared" si="17"/>
-        <v>146.42178666182514</v>
+        <v>146.62098720838819</v>
       </c>
       <c r="J213">
         <f t="shared" si="18"/>
@@ -33022,11 +33022,11 @@
         <v>43709</v>
       </c>
       <c r="B214">
-        <v>361.96929900350318</v>
+        <v>363.38979494987734</v>
       </c>
       <c r="C214">
         <f t="shared" si="15"/>
-        <v>203.97092974271169</v>
+        <v>204.7709762331551</v>
       </c>
       <c r="D214">
         <v>0.68686437662025002</v>
@@ -33043,7 +33043,7 @@
       </c>
       <c r="I214">
         <f t="shared" si="17"/>
-        <v>148.18334257345995</v>
+        <v>148.38493964111731</v>
       </c>
       <c r="J214">
         <f t="shared" si="18"/>
@@ -33059,11 +33059,11 @@
         <v>43739</v>
       </c>
       <c r="B215">
-        <v>365.69222948450363</v>
+        <v>367.12733553088202</v>
       </c>
       <c r="C215">
         <f t="shared" si="15"/>
-        <v>206.06881371703682</v>
+        <v>206.87708885414636</v>
       </c>
       <c r="D215">
         <v>0.69310685552399698</v>
@@ -33080,7 +33080,7 @@
       </c>
       <c r="I215">
         <f t="shared" si="17"/>
-        <v>149.70743946333991</v>
+        <v>149.91110999930007</v>
       </c>
       <c r="J215">
         <f t="shared" si="18"/>
@@ -33096,11 +33096,11 @@
         <v>43770</v>
       </c>
       <c r="B216">
-        <v>358.28224537925928</v>
+        <v>359.68827201914331</v>
       </c>
       <c r="C216">
         <f t="shared" si="15"/>
-        <v>201.89326249905696</v>
+        <v>202.68515964003817</v>
       </c>
       <c r="D216">
         <v>0.68206352086772903</v>
@@ -33117,7 +33117,7 @@
       </c>
       <c r="I216">
         <f t="shared" si="17"/>
-        <v>146.67393298598341</v>
+        <v>146.87347656678156</v>
       </c>
       <c r="J216">
         <f t="shared" si="18"/>
@@ -33133,11 +33133,11 @@
         <v>43800</v>
       </c>
       <c r="B217">
-        <v>349.02904352393591</v>
+        <v>350.39875731694963</v>
       </c>
       <c r="C217">
         <f t="shared" si="15"/>
-        <v>196.67905181676085</v>
+        <v>197.45049696999038</v>
       </c>
       <c r="D217">
         <v>0.669190009516901</v>
@@ -33154,7 +33154,7 @@
       </c>
       <c r="I217">
         <f t="shared" si="17"/>
-        <v>142.88584823900743</v>
+        <v>143.08023829334462</v>
       </c>
       <c r="J217">
         <f t="shared" si="18"/>
@@ -33170,11 +33170,11 @@
         <v>43831</v>
       </c>
       <c r="B218">
-        <v>345.88995631734048</v>
+        <v>347.24735121849079</v>
       </c>
       <c r="C218">
         <f t="shared" si="15"/>
-        <v>194.9101655111117</v>
+        <v>195.67467246347789</v>
       </c>
       <c r="D218">
         <v>0.63699794193228598</v>
@@ -33191,7 +33191,7 @@
       </c>
       <c r="I218">
         <f t="shared" si="17"/>
-        <v>141.60076567486877</v>
+        <v>141.7934074296189</v>
       </c>
       <c r="J218">
         <f t="shared" si="18"/>
@@ -33207,11 +33207,11 @@
         <v>43862</v>
       </c>
       <c r="B219">
-        <v>342.84672352423161</v>
+        <v>344.19217570024364</v>
       </c>
       <c r="C219">
         <f t="shared" si="15"/>
-        <v>193.19529349311793</v>
+        <v>193.95307410785705</v>
       </c>
       <c r="D219">
         <v>0.63073650969359996</v>
@@ -33228,7 +33228,7 @@
       </c>
       <c r="I219">
         <f t="shared" si="17"/>
-        <v>140.35492408345891</v>
+        <v>140.54587092427852</v>
       </c>
       <c r="J219">
         <f t="shared" si="18"/>
@@ -33244,11 +33244,11 @@
         <v>43891</v>
       </c>
       <c r="B220">
-        <v>329.75919674487113</v>
+        <v>331.01254057709912</v>
       </c>
       <c r="C220">
         <f t="shared" si="15"/>
-        <v>185.82042768939417</v>
+        <v>186.52631972986103</v>
       </c>
       <c r="D220">
         <v>0.61069246608109795</v>
@@ -33265,7 +33265,7 @@
       </c>
       <c r="I220">
         <f t="shared" si="17"/>
-        <v>134.99713968151013</v>
+        <v>135.16415853329215</v>
       </c>
       <c r="J220">
         <f t="shared" si="18"/>
@@ -33281,11 +33281,11 @@
         <v>43922</v>
       </c>
       <c r="B221">
-        <v>329.83980531247545</v>
+        <v>331.09345552054378</v>
       </c>
       <c r="C221">
         <f t="shared" si="15"/>
-        <v>185.86585089109869</v>
+        <v>186.57191548458854</v>
       </c>
       <c r="D221">
         <v>0.60913300941251503</v>
@@ -33302,7 +33302,7 @@
       </c>
       <c r="I221">
         <f t="shared" si="17"/>
-        <v>135.03013929507003</v>
+        <v>135.19719897406941</v>
       </c>
       <c r="J221">
         <f t="shared" si="18"/>
@@ -33318,11 +33318,11 @@
         <v>43952</v>
       </c>
       <c r="B222">
-        <v>336.3877854598507</v>
+        <v>337.66632313311266</v>
       </c>
       <c r="C222">
         <f t="shared" si="15"/>
-        <v>189.55565995024773</v>
+        <v>190.27574133875888</v>
       </c>
       <c r="D222">
         <v>0.615996693629563</v>
@@ -33339,7 +33339,7 @@
       </c>
       <c r="I222">
         <f t="shared" si="17"/>
-        <v>137.71075775639795</v>
+        <v>137.88113390431315</v>
       </c>
       <c r="J222">
         <f t="shared" si="18"/>
@@ -33355,11 +33355,11 @@
         <v>43983</v>
       </c>
       <c r="B223">
-        <v>348.22767453441708</v>
+        <v>349.55121308132368</v>
       </c>
       <c r="C223">
         <f t="shared" si="15"/>
-        <v>196.22747766859655</v>
+        <v>196.97290386489547</v>
       </c>
       <c r="D223">
         <v>0.63314672252194104</v>
@@ -33376,7 +33376,7 @@
       </c>
       <c r="I223">
         <f t="shared" si="17"/>
-        <v>142.55778302511075</v>
+        <v>142.73415592671162</v>
       </c>
       <c r="J223">
         <f t="shared" si="18"/>
@@ -33392,11 +33392,11 @@
         <v>44013</v>
       </c>
       <c r="B224">
-        <v>352.55287808223272</v>
+        <v>353.89285579821569</v>
       </c>
       <c r="C224">
         <f t="shared" si="15"/>
-        <v>198.66474456223412</v>
+        <v>199.41942941390317</v>
       </c>
       <c r="D224">
         <v>0.64239506663567103</v>
@@ -33413,7 +33413,7 @@
       </c>
       <c r="I224">
         <f t="shared" si="17"/>
-        <v>144.3284390470175</v>
+        <v>144.50700260937143</v>
       </c>
       <c r="J224">
         <f t="shared" si="18"/>
@@ -33429,11 +33429,11 @@
         <v>44044</v>
       </c>
       <c r="B225">
-        <v>353.26000322383959</v>
+        <v>354.60266857050459</v>
       </c>
       <c r="C225">
         <f t="shared" si="15"/>
-        <v>199.06321198191603</v>
+        <v>199.81941052604313</v>
       </c>
       <c r="D225">
         <v>0.64582154802814795</v>
@@ -33450,7 +33450,7 @@
       </c>
       <c r="I225">
         <f t="shared" si="17"/>
-        <v>144.61792262308182</v>
+        <v>144.7968443353536</v>
       </c>
       <c r="J225">
         <f t="shared" si="18"/>
@@ -33466,11 +33466,11 @@
         <v>44075</v>
       </c>
       <c r="B226">
-        <v>354.46724802268761</v>
+        <v>355.81450184736195</v>
       </c>
       <c r="C226">
         <f t="shared" si="15"/>
-        <v>199.7434985275595</v>
+        <v>200.50228133469679</v>
       </c>
       <c r="D226">
         <v>0.64855593425240599</v>
@@ -33487,7 +33487,7 @@
       </c>
       <c r="I226">
         <f t="shared" si="17"/>
-        <v>145.11214566931866</v>
+        <v>145.29167883577313</v>
       </c>
       <c r="J226">
         <f t="shared" si="18"/>
@@ -33503,11 +33503,11 @@
         <v>44105</v>
       </c>
       <c r="B227">
-        <v>353.24288637794371</v>
+        <v>354.58548666715643</v>
       </c>
       <c r="C227">
         <f t="shared" si="15"/>
-        <v>199.05356658110094</v>
+        <v>199.80972848441442</v>
       </c>
       <c r="D227">
         <v>0.64525629280988095</v>
@@ -33524,7 +33524,7 @@
       </c>
       <c r="I227">
         <f t="shared" si="17"/>
-        <v>144.61091531211332</v>
+        <v>144.78982835491973</v>
       </c>
       <c r="J227">
         <f t="shared" si="18"/>
@@ -33540,11 +33540,11 @@
         <v>44136</v>
       </c>
       <c r="B228">
-        <v>358.89042671781772</v>
+        <v>360.25449209404582</v>
       </c>
       <c r="C228">
         <f t="shared" si="15"/>
-        <v>202.23597474956944</v>
+        <v>203.00422594050099</v>
       </c>
       <c r="D228">
         <v>0.65125583714344404</v>
@@ -33561,7 +33561,7 @@
       </c>
       <c r="I228">
         <f t="shared" si="17"/>
-        <v>146.92291085202481</v>
+        <v>147.10468430240218</v>
       </c>
       <c r="J228">
         <f t="shared" si="18"/>
@@ -33577,11 +33577,11 @@
         <v>44166</v>
       </c>
       <c r="B229">
-        <v>364.19859021287778</v>
+        <v>365.58283077767578</v>
       </c>
       <c r="C229">
         <f t="shared" si="15"/>
-        <v>205.22714291298664</v>
+        <v>206.00675691168107</v>
       </c>
       <c r="D229">
         <v>0.66063334159236797</v>
@@ -33598,7 +33598,7 @@
       </c>
       <c r="I229">
         <f t="shared" si="17"/>
-        <v>149.09597197016348</v>
+        <v>149.28043393804319</v>
       </c>
       <c r="J229">
         <f t="shared" si="18"/>
@@ -33614,11 +33614,11 @@
         <v>44197</v>
       </c>
       <c r="B230">
-        <v>364.0312197084811</v>
+        <v>365.41482413396454</v>
       </c>
       <c r="C230">
         <f t="shared" si="15"/>
-        <v>205.13282906513467</v>
+        <v>205.91208478570366</v>
       </c>
       <c r="D230">
         <v>0.56908080180375298</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="I230">
         <f t="shared" si="17"/>
-        <v>149.02745367079945</v>
+        <v>149.21183086764097</v>
       </c>
       <c r="J230">
         <f t="shared" si="18"/>
@@ -33651,11 +33651,11 @@
         <v>44228</v>
       </c>
       <c r="B231">
-        <v>363.61912129792421</v>
+        <v>365.00115942592078</v>
       </c>
       <c r="C231">
         <f t="shared" si="15"/>
-        <v>204.90061021072304</v>
+        <v>205.67898378155735</v>
       </c>
       <c r="D231">
         <v>0.56851730377883902</v>
@@ -33672,7 +33672,7 @@
       </c>
       <c r="I231">
         <f t="shared" si="17"/>
-        <v>148.85874842393559</v>
+        <v>149.04291689815759</v>
       </c>
       <c r="J231">
         <f t="shared" si="18"/>
@@ -33688,11 +33688,11 @@
         <v>44256</v>
       </c>
       <c r="B232">
-        <v>353.28130003881978</v>
+        <v>354.62404633010135</v>
       </c>
       <c r="C232">
         <f t="shared" si="15"/>
-        <v>199.07521280951116</v>
+        <v>199.83145694221426</v>
       </c>
       <c r="D232">
         <v>0.55436807529407495</v>
@@ -33709,7 +33709,7 @@
       </c>
       <c r="I232">
         <f t="shared" si="17"/>
-        <v>144.62664113384676</v>
+        <v>144.80557363268531</v>
       </c>
       <c r="J232">
         <f t="shared" si="18"/>
@@ -33725,11 +33725,11 @@
         <v>44287</v>
       </c>
       <c r="B233">
-        <v>349.13877922805653</v>
+        <v>350.46578068808151</v>
       </c>
       <c r="C233">
         <f t="shared" si="15"/>
-        <v>196.7408882588488</v>
+        <v>197.48826479211371</v>
       </c>
       <c r="D233">
         <v>0.547218220856872</v>
@@ -33746,7 +33746,7 @@
       </c>
       <c r="I233">
         <f t="shared" si="17"/>
-        <v>142.93077194795461</v>
+        <v>143.10760631252998</v>
       </c>
       <c r="J233">
         <f t="shared" si="18"/>
@@ -33762,11 +33762,11 @@
         <v>44317</v>
       </c>
       <c r="B234">
-        <v>346.57945631040036</v>
+        <v>347.89673033408639</v>
       </c>
       <c r="C234">
         <f t="shared" si="15"/>
-        <v>195.2987010997077</v>
+        <v>196.04059907257343</v>
       </c>
       <c r="D234">
         <v>0.54722820638536396</v>
@@ -33783,7 +33783,7 @@
       </c>
       <c r="I234">
         <f t="shared" si="17"/>
-        <v>141.88303385053248</v>
+        <v>142.05857195050245</v>
       </c>
       <c r="J234">
         <f t="shared" si="18"/>
@@ -33799,11 +33799,11 @@
         <v>44348</v>
       </c>
       <c r="B235">
-        <v>341.12313803561261</v>
+        <v>342.39830333382838</v>
       </c>
       <c r="C235">
         <f t="shared" si="15"/>
-        <v>192.22404721457301</v>
+        <v>192.9422229479911</v>
       </c>
       <c r="D235">
         <v>0.540180078124888</v>
@@ -33820,7 +33820,7 @@
       </c>
       <c r="I235">
         <f t="shared" si="17"/>
-        <v>139.64932098502541</v>
+        <v>139.81336922358793</v>
       </c>
       <c r="J235">
         <f t="shared" si="18"/>
@@ -33836,11 +33836,11 @@
         <v>44378</v>
       </c>
       <c r="B236">
-        <v>332.16945959667305</v>
+        <v>333.41115481102861</v>
       </c>
       <c r="C236">
         <f t="shared" si="15"/>
-        <v>187.17861899500983</v>
+        <v>187.87794430797067</v>
       </c>
       <c r="D236">
         <v>0.52687468340761301</v>
@@ -33857,7 +33857,7 @@
       </c>
       <c r="I236">
         <f t="shared" si="17"/>
-        <v>135.98385542465161</v>
+        <v>136.14359778356896</v>
       </c>
       <c r="J236">
         <f t="shared" si="18"/>
@@ -33873,11 +33873,11 @@
         <v>44409</v>
       </c>
       <c r="B237">
-        <v>328.00642614524367</v>
+        <v>329.23255936687383</v>
       </c>
       <c r="C237">
         <f t="shared" si="15"/>
-        <v>184.8327355016425</v>
+        <v>185.52329626811306</v>
       </c>
       <c r="D237">
         <v>0.52067868688863195</v>
@@ -33894,7 +33894,7 @@
       </c>
       <c r="I237">
         <f t="shared" si="17"/>
-        <v>134.27958875403553</v>
+        <v>134.43732908427575</v>
       </c>
       <c r="J237">
         <f t="shared" si="18"/>
@@ -33910,11 +33910,11 @@
         <v>44440</v>
       </c>
       <c r="B238">
-        <v>323.41880585564047</v>
+        <v>324.62778992043422</v>
       </c>
       <c r="C238">
         <f t="shared" si="15"/>
-        <v>182.24759588247321</v>
+        <v>182.92849820834337</v>
       </c>
       <c r="D238">
         <v>0.51356185078058902</v>
@@ -33931,7 +33931,7 @@
       </c>
       <c r="I238">
         <f t="shared" si="17"/>
-        <v>132.40150431194962</v>
+        <v>132.55703842706166</v>
       </c>
       <c r="J238">
         <f t="shared" si="18"/>
@@ -33947,11 +33947,11 @@
         <v>44470</v>
       </c>
       <c r="B239">
-        <v>315.91188557652322</v>
+        <v>317.09280773882767</v>
       </c>
       <c r="C239">
         <f t="shared" si="15"/>
-        <v>178.01742080118507</v>
+        <v>178.68251860553198</v>
       </c>
       <c r="D239">
         <v>0.50160945820390401</v>
@@ -33968,7 +33968,7 @@
       </c>
       <c r="I239">
         <f t="shared" si="17"/>
-        <v>129.32831400974857</v>
+        <v>129.48023800021201</v>
       </c>
       <c r="J239">
         <f t="shared" si="18"/>
@@ -33984,11 +33984,11 @@
         <v>44501</v>
       </c>
       <c r="B240">
-        <v>310.70818763109872</v>
+        <v>311.86965765339119</v>
       </c>
       <c r="C240">
         <f t="shared" si="15"/>
-        <v>175.08511932989867</v>
+        <v>175.73926164875738</v>
       </c>
       <c r="D240">
         <v>0.49492864048804902</v>
@@ -34005,7 +34005,7 @@
       </c>
       <c r="I240">
         <f t="shared" si="17"/>
-        <v>127.19801909960431</v>
+        <v>127.34744059936347</v>
       </c>
       <c r="J240">
         <f t="shared" si="18"/>
@@ -34021,11 +34021,11 @@
         <v>44531</v>
       </c>
       <c r="B241">
-        <v>302.86132003716784</v>
+        <v>303.99345738706199</v>
       </c>
       <c r="C241">
         <f t="shared" si="15"/>
-        <v>170.66338278177625</v>
+        <v>171.3010048788706</v>
       </c>
       <c r="D241">
         <v>0.48289840684172602</v>
@@ -34042,7 +34042,7 @@
       </c>
       <c r="I241">
         <f t="shared" si="17"/>
-        <v>123.98566083606883</v>
+        <v>124.13130872840156</v>
       </c>
       <c r="J241">
         <f t="shared" si="18"/>
@@ -34058,11 +34058,11 @@
         <v>44562</v>
       </c>
       <c r="B242">
-        <v>301.7522414358229</v>
+        <v>302.88023289706945</v>
       </c>
       <c r="C242">
         <f t="shared" si="15"/>
-        <v>170.03841322193554</v>
+        <v>170.67370034596848</v>
       </c>
       <c r="D242">
         <v>0.56650685579867599</v>
@@ -34079,7 +34079,7 @@
       </c>
       <c r="I242">
         <f t="shared" si="17"/>
-        <v>123.53162516294287</v>
+        <v>123.67673969247875</v>
       </c>
       <c r="J242">
         <f t="shared" si="18"/>
@@ -34095,11 +34095,11 @@
         <v>44593</v>
       </c>
       <c r="B243">
-        <v>298.73560930071727</v>
+        <v>299.85232417533786</v>
       </c>
       <c r="C243">
         <f t="shared" si="15"/>
-        <v>168.33853076509965</v>
+        <v>168.96746689222115</v>
       </c>
       <c r="D243">
         <v>0.56190343734050596</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="I243">
         <f t="shared" si="17"/>
-        <v>122.29667337469705</v>
+        <v>122.44033718707837</v>
       </c>
       <c r="J243">
         <f t="shared" si="18"/>
@@ -34132,11 +34132,11 @@
         <v>44621</v>
       </c>
       <c r="B244">
-        <v>290.0870515622953</v>
+        <v>291.17143693628117</v>
       </c>
       <c r="C244">
         <f t="shared" si="15"/>
-        <v>163.465039096895</v>
+        <v>164.0757671823909</v>
       </c>
       <c r="D244">
         <v>0.54799953602478502</v>
@@ -34153,7 +34153,7 @@
       </c>
       <c r="I244">
         <f t="shared" si="17"/>
-        <v>118.75611842253097</v>
+        <v>118.89562308970963</v>
       </c>
       <c r="J244">
         <f t="shared" si="18"/>
@@ -34169,11 +34169,11 @@
         <v>44652</v>
       </c>
       <c r="B245">
-        <v>285.94427513312411</v>
+        <v>287.01317423792528</v>
       </c>
       <c r="C245">
         <f t="shared" si="15"/>
-        <v>161.13057050439136</v>
+        <v>161.73257669105175</v>
       </c>
       <c r="D245">
         <v>0.54130360464218696</v>
@@ -34190,7 +34190,7 @@
       </c>
       <c r="I245">
         <f t="shared" si="17"/>
-        <v>117.06014459132716</v>
+        <v>117.19765697155664</v>
       </c>
       <c r="J245">
         <f t="shared" si="18"/>
@@ -34206,11 +34206,11 @@
         <v>44682</v>
       </c>
       <c r="B246">
-        <v>279.20359299599596</v>
+        <v>280.24729450207349</v>
       </c>
       <c r="C246">
         <f t="shared" si="15"/>
-        <v>157.33217321933097</v>
+        <v>157.91998806627322</v>
       </c>
       <c r="D246">
         <v>0.52868835746042198</v>
@@ -34227,7 +34227,7 @@
       </c>
       <c r="I246">
         <f t="shared" si="17"/>
-        <v>114.30063760259995</v>
+        <v>114.43490834686865</v>
       </c>
       <c r="J246">
         <f t="shared" si="18"/>
@@ -34243,11 +34243,11 @@
         <v>44713</v>
       </c>
       <c r="B247">
-        <v>278.39953076159429</v>
+        <v>279.44022657223638</v>
       </c>
       <c r="C247">
         <f t="shared" si="15"/>
-        <v>156.87908141852517</v>
+        <v>157.46520345158143</v>
       </c>
       <c r="D247">
         <v>0.52498840605334796</v>
@@ -34264,7 +34264,7 @@
       </c>
       <c r="I247">
         <f t="shared" si="17"/>
-        <v>113.97146982550188</v>
+        <v>114.10535389124152</v>
       </c>
       <c r="J247">
         <f t="shared" si="18"/>
@@ -34280,11 +34280,11 @@
         <v>44743</v>
       </c>
       <c r="B248">
-        <v>265.68822927974873</v>
+        <v>266.68140849377954</v>
       </c>
       <c r="C248">
         <f t="shared" si="15"/>
-        <v>149.71621984813862</v>
+        <v>150.2755804357034</v>
       </c>
       <c r="D248">
         <v>0.50279825897753805</v>
@@ -34301,7 +34301,7 @@
       </c>
       <c r="I248">
         <f t="shared" si="17"/>
-        <v>108.76770490061907</v>
+        <v>108.89547602242314</v>
       </c>
       <c r="J248">
         <f t="shared" si="18"/>
@@ -34317,11 +34317,11 @@
         <v>44774</v>
       </c>
       <c r="B249">
-        <v>264.86510042194783</v>
+        <v>265.85520266687752</v>
       </c>
       <c r="C249">
         <f t="shared" si="15"/>
-        <v>149.25238394027042</v>
+        <v>149.81001157247326</v>
       </c>
       <c r="D249">
         <v>0.50089158665553901</v>
@@ -34338,7 +34338,7 @@
       </c>
       <c r="I249">
         <f t="shared" si="17"/>
-        <v>108.43073161074778</v>
+        <v>108.55810688476504</v>
       </c>
       <c r="J249">
         <f t="shared" si="18"/>
@@ -34354,11 +34354,11 @@
         <v>44805</v>
       </c>
       <c r="B250">
-        <v>263.1020883927186</v>
+        <v>264.0856002557324</v>
       </c>
       <c r="C250">
         <f t="shared" si="15"/>
-        <v>148.25892067214394</v>
+        <v>148.81283658762067</v>
       </c>
       <c r="D250">
         <v>0.49653517765660199</v>
@@ -34375,7 +34375,7 @@
       </c>
       <c r="I250">
         <f t="shared" si="17"/>
-        <v>107.70898803689326</v>
+        <v>107.83551546746131</v>
       </c>
       <c r="J250">
         <f t="shared" si="18"/>
@@ -34391,11 +34391,11 @@
         <v>44835</v>
       </c>
       <c r="B251">
-        <v>260.63169679283033</v>
+        <v>261.60597399161315</v>
       </c>
       <c r="C251">
         <f t="shared" si="15"/>
-        <v>146.86684661270024</v>
+        <v>147.41556154618175</v>
       </c>
       <c r="D251">
         <v>0.492378560297071</v>
@@ -34412,7 +34412,7 @@
       </c>
       <c r="I251">
         <f t="shared" si="17"/>
-        <v>106.69765672856232</v>
+        <v>106.82299613244636</v>
       </c>
       <c r="J251">
         <f t="shared" si="18"/>
@@ -34428,11 +34428,11 @@
         <v>44866</v>
       </c>
       <c r="B252">
-        <v>266.10784167417052</v>
+        <v>267.10258945715617</v>
       </c>
       <c r="C252">
         <f t="shared" si="15"/>
-        <v>149.95267285798616</v>
+        <v>150.51291686683061</v>
       </c>
       <c r="D252">
         <v>0.50362402029953601</v>
@@ -34449,7 +34449,7 @@
       </c>
       <c r="I252">
         <f t="shared" si="17"/>
-        <v>108.93948622948272</v>
+        <v>109.06745914549694</v>
       </c>
       <c r="J252">
         <f t="shared" si="18"/>
@@ -34465,11 +34465,11 @@
         <v>44896</v>
       </c>
       <c r="B253">
-        <v>276.46885146835905</v>
+        <v>277.50233013374719</v>
       </c>
       <c r="C253">
         <f t="shared" si="15"/>
-        <v>155.79113707749866</v>
+        <v>156.37319439942047</v>
       </c>
       <c r="D253">
         <v>0.51847887022568195</v>
@@ -34486,7 +34486,7 @@
       </c>
       <c r="I253">
         <f t="shared" si="17"/>
-        <v>113.18108646454674</v>
+        <v>113.3140420546072</v>
       </c>
       <c r="J253">
         <f t="shared" si="18"/>
@@ -34502,11 +34502,11 @@
         <v>44927</v>
       </c>
       <c r="B254">
-        <v>280.12969603473914</v>
+        <v>281.17685944159655</v>
       </c>
       <c r="C254">
         <f t="shared" si="15"/>
-        <v>157.85403542800455</v>
+        <v>158.44380002462643</v>
       </c>
       <c r="D254">
         <v>0.451346033977644</v>
@@ -34523,7 +34523,7 @@
       </c>
       <c r="I254">
         <f t="shared" si="17"/>
-        <v>114.679766562504</v>
+        <v>114.8144826754836</v>
       </c>
       <c r="J254">
         <f t="shared" si="18"/>
@@ -34539,11 +34539,11 @@
         <v>44958</v>
       </c>
       <c r="B255">
-        <v>278.59400448458138</v>
+        <v>279.63542726479938</v>
       </c>
       <c r="C255">
         <f t="shared" si="15"/>
-        <v>156.98866802213328</v>
+        <v>157.57519948595831</v>
       </c>
       <c r="D255">
         <v>0.44850261302587502</v>
@@ -34560,7 +34560,7 @@
       </c>
       <c r="I255">
         <f t="shared" si="17"/>
-        <v>114.05108366677037</v>
+        <v>114.18506125613288</v>
       </c>
       <c r="J255">
         <f t="shared" si="18"/>
@@ -34576,11 +34576,11 @@
         <v>44986</v>
       </c>
       <c r="B256">
-        <v>274.4802682057786</v>
+        <v>275.50631327289585</v>
       </c>
       <c r="C256">
         <f t="shared" si="15"/>
-        <v>154.67056365302324</v>
+        <v>155.24843435702371</v>
       </c>
       <c r="D256">
         <v>0.44221503848777299</v>
@@ -34597,7 +34597,7 @@
       </c>
       <c r="I256">
         <f t="shared" si="17"/>
-        <v>112.36699832048028</v>
+        <v>112.49899758848252</v>
       </c>
       <c r="J256">
         <f t="shared" si="18"/>
@@ -34613,11 +34613,11 @@
         <v>45017</v>
       </c>
       <c r="B257">
-        <v>274.94873613838706</v>
+        <v>275.97653240319329</v>
       </c>
       <c r="C257">
         <f t="shared" si="15"/>
-        <v>154.93454692462072</v>
+        <v>155.51340390678169</v>
       </c>
       <c r="D257">
         <v>0.44320986236608101</v>
@@ -34634,7 +34634,7 @@
       </c>
       <c r="I257">
         <f t="shared" si="17"/>
-        <v>112.5587801769347</v>
+        <v>112.69100473407919</v>
       </c>
       <c r="J257">
         <f t="shared" si="18"/>
@@ -34650,11 +34650,11 @@
         <v>45047</v>
       </c>
       <c r="B258">
-        <v>272.77236205944183</v>
+        <v>273.79202273802724</v>
       </c>
       <c r="C258">
         <f t="shared" si="15"/>
-        <v>153.70815273712333</v>
+        <v>154.28242774029769</v>
       </c>
       <c r="D258">
         <v>0.43944021297511798</v>
@@ -34671,7 +34671,7 @@
       </c>
       <c r="I258">
         <f t="shared" si="17"/>
-        <v>111.66781404639217</v>
+        <v>111.79899197170701</v>
       </c>
       <c r="J258">
         <f t="shared" si="18"/>
@@ -34687,11 +34687,11 @@
         <v>45078</v>
       </c>
       <c r="B259">
-        <v>276.95315480822364</v>
+        <v>277.98844386623523</v>
       </c>
       <c r="C259">
         <f t="shared" ref="C259:C289" si="20">B259/AVERAGE(B$2:B$13)*100</f>
-        <v>156.06404365488419</v>
+        <v>156.64712059367599</v>
       </c>
       <c r="D259">
         <v>0.44434273803163599</v>
@@ -34708,10 +34708,10 @@
       </c>
       <c r="I259">
         <f t="shared" ref="I259:I289" si="22">B259/B$169*100</f>
-        <v>113.37935103537691</v>
+        <v>113.51253952992542</v>
       </c>
       <c r="J259">
-        <f t="shared" ref="J259:J289" si="23">D259/D$169*100</f>
+        <f t="shared" ref="J259:J277" si="23">D259/D$169*100</f>
         <v>81.512844738554818</v>
       </c>
       <c r="K259">
@@ -34724,11 +34724,11 @@
         <v>45108</v>
       </c>
       <c r="B260">
-        <v>280.82580568559229</v>
+        <v>281.87557124625147</v>
       </c>
       <c r="C260">
         <f t="shared" si="20"/>
-        <v>158.24629558122274</v>
+        <v>158.83752571624785</v>
       </c>
       <c r="D260">
         <v>0.44997724089063301</v>
@@ -34745,7 +34745,7 @@
       </c>
       <c r="I260">
         <f t="shared" si="22"/>
-        <v>114.96474060628353</v>
+        <v>115.09979148272338</v>
       </c>
       <c r="J260">
         <f t="shared" si="23"/>
@@ -34761,11 +34761,11 @@
         <v>45139</v>
       </c>
       <c r="B261">
-        <v>300.11158496087455</v>
+        <v>301.23344342212829</v>
       </c>
       <c r="C261">
         <f t="shared" si="20"/>
-        <v>169.11389772433699</v>
+        <v>169.74573073008892</v>
       </c>
       <c r="D261">
         <v>0.47186446240574298</v>
@@ -34782,7 +34782,7 @@
       </c>
       <c r="I261">
         <f t="shared" si="22"/>
-        <v>122.85997162452971</v>
+        <v>123.00429715216339</v>
       </c>
       <c r="J261">
         <f t="shared" si="23"/>
@@ -34798,11 +34798,11 @@
         <v>45170</v>
       </c>
       <c r="B262">
-        <v>287.7073763028265</v>
+        <v>288.78286612276304</v>
       </c>
       <c r="C262">
         <f t="shared" si="20"/>
-        <v>162.12408400347732</v>
+        <v>162.72980209453371</v>
       </c>
       <c r="D262">
         <v>0.45544522939205201</v>
@@ -34819,7 +34819,7 @@
       </c>
       <c r="I262">
         <f t="shared" si="22"/>
-        <v>117.78192465759503</v>
+        <v>117.92028492414195</v>
       </c>
       <c r="J262">
         <f t="shared" si="23"/>
@@ -34835,11 +34835,11 @@
         <v>45200</v>
       </c>
       <c r="B263">
-        <v>262.70373111647092</v>
+        <v>263.68575386509076</v>
       </c>
       <c r="C263">
         <f t="shared" si="20"/>
-        <v>148.03444499359966</v>
+        <v>148.58752223676973</v>
       </c>
       <c r="D263">
         <v>0.42462497703860702</v>
@@ -34856,7 +34856,7 @@
       </c>
       <c r="I263">
         <f t="shared" si="22"/>
-        <v>107.5459081489156</v>
+        <v>107.67224400699207</v>
       </c>
       <c r="J263">
         <f t="shared" si="23"/>
@@ -34872,11 +34872,11 @@
         <v>45231</v>
       </c>
       <c r="B264">
-        <v>239.52491092806088</v>
+        <v>240.42028805267512</v>
       </c>
       <c r="C264">
         <f t="shared" si="20"/>
-        <v>134.97310106972347</v>
+        <v>135.47737931824179</v>
       </c>
       <c r="D264">
         <v>0.39617158934237701</v>
@@ -34893,7 +34893,7 @@
       </c>
       <c r="I264">
         <f t="shared" si="22"/>
-        <v>98.056940267154573</v>
+        <v>98.172129286450897</v>
       </c>
       <c r="J264">
         <f t="shared" si="23"/>
@@ -34909,11 +34909,11 @@
         <v>45261</v>
       </c>
       <c r="B265">
-        <v>350.37854235504085</v>
+        <v>351.68830563003741</v>
       </c>
       <c r="C265">
         <f t="shared" si="20"/>
-        <v>197.43949899287483</v>
+        <v>198.1771603783759</v>
       </c>
       <c r="D265">
         <v>0.52855405861086702</v>
@@ -34930,7 +34930,7 @@
       </c>
       <c r="I265">
         <f t="shared" si="22"/>
-        <v>143.43830737889206</v>
+        <v>143.60680659895218</v>
       </c>
       <c r="J265">
         <f t="shared" si="23"/>
@@ -34946,11 +34946,11 @@
         <v>45292</v>
       </c>
       <c r="B266">
-        <v>369.71531803449284</v>
+        <v>371.10141006817247</v>
       </c>
       <c r="C266">
         <f t="shared" si="20"/>
-        <v>208.33583778299391</v>
+        <v>209.11648889766309</v>
       </c>
       <c r="D266">
         <v>0.74370610322305797</v>
@@ -34967,7 +34967,7 @@
       </c>
       <c r="I266">
         <f t="shared" si="22"/>
-        <v>151.35441535452082</v>
+        <v>151.53386555969351</v>
       </c>
       <c r="J266">
         <f t="shared" si="23"/>
@@ -34983,11 +34983,11 @@
         <v>45323</v>
       </c>
       <c r="B267">
-        <v>332.62197965931074</v>
+        <v>333.86900582712968</v>
       </c>
       <c r="C267">
         <f t="shared" si="20"/>
-        <v>187.43361558769752</v>
+        <v>188.13594439723926</v>
       </c>
       <c r="D267">
         <v>0.68292061067489396</v>
@@ -35004,7 +35004,7 @@
       </c>
       <c r="I267">
         <f t="shared" si="22"/>
-        <v>136.16910852663514</v>
+        <v>136.33055458954684</v>
       </c>
       <c r="J267">
         <f t="shared" si="23"/>
@@ -35020,11 +35020,11 @@
         <v>45352</v>
       </c>
       <c r="B268">
-        <v>303.19578138887584</v>
+        <v>304.33248640684099</v>
       </c>
       <c r="C268">
         <f t="shared" si="20"/>
-        <v>170.85185288976248</v>
+        <v>171.49204850286969</v>
       </c>
       <c r="D268">
         <v>0.63925326594510301</v>
@@ -35041,7 +35041,7 @@
       </c>
       <c r="I268">
         <f t="shared" si="22"/>
-        <v>124.12258294850812</v>
+        <v>124.26974629966972</v>
       </c>
       <c r="J268">
         <f t="shared" si="23"/>
@@ -35057,11 +35057,11 @@
         <v>45383</v>
       </c>
       <c r="B269">
-        <v>282.65848869175767</v>
+        <v>283.71819777146374</v>
       </c>
       <c r="C269">
         <f t="shared" si="20"/>
-        <v>159.27901868155286</v>
+        <v>159.87584995552064</v>
       </c>
       <c r="D269">
         <v>0.605360239092126</v>
@@ -35078,7 +35078,7 @@
       </c>
       <c r="I269">
         <f t="shared" si="22"/>
-        <v>115.71500615222567</v>
+        <v>115.85220123534855</v>
       </c>
       <c r="J269">
         <f t="shared" si="23"/>
@@ -35094,11 +35094,11 @@
         <v>45413</v>
       </c>
       <c r="B270">
-        <v>278.4572075714924</v>
+        <v>279.50116571525399</v>
       </c>
       <c r="C270">
         <f t="shared" si="20"/>
-        <v>156.9115824968539</v>
+        <v>157.49954279731966</v>
       </c>
       <c r="D270">
         <v>0.60007184124096702</v>
@@ -35115,7 +35115,7 @@
       </c>
       <c r="I270">
         <f t="shared" si="22"/>
-        <v>113.99508161385855</v>
+        <v>114.13023750433169</v>
       </c>
       <c r="J270">
         <f t="shared" si="23"/>
@@ -35131,11 +35131,11 @@
         <v>45444</v>
       </c>
       <c r="B271">
-        <v>268.83176690333573</v>
+        <v>269.68531424732004</v>
       </c>
       <c r="C271">
         <f t="shared" si="20"/>
-        <v>151.48761397888237</v>
+        <v>151.96828816226386</v>
       </c>
       <c r="D271">
         <v>0.58452706772000496</v>
@@ -35152,7 +35152,7 @@
       </c>
       <c r="I271">
         <f t="shared" si="22"/>
-        <v>110.05460938078065</v>
+        <v>110.12207726472877</v>
       </c>
       <c r="J271">
         <f t="shared" si="23"/>
@@ -35168,11 +35168,11 @@
         <v>45474</v>
       </c>
       <c r="B272">
-        <v>264.73876274742156</v>
+        <v>265.57931470449</v>
       </c>
       <c r="C272">
         <f t="shared" si="20"/>
-        <v>149.18119223145533</v>
+        <v>149.65454807797184</v>
       </c>
       <c r="D272">
         <v>0.57847657795572605</v>
@@ -35189,7 +35189,7 @@
       </c>
       <c r="I272">
         <f t="shared" si="22"/>
-        <v>108.37901137105949</v>
+        <v>108.44545204630917</v>
       </c>
       <c r="J272">
         <f t="shared" si="23"/>
@@ -35205,11 +35205,11 @@
         <v>45505</v>
       </c>
       <c r="B273">
-        <v>262.6233512246921</v>
+        <v>263.4571866991534</v>
       </c>
       <c r="C273">
         <f t="shared" si="20"/>
-        <v>147.9891506514997</v>
+        <v>148.45872411873148</v>
       </c>
       <c r="D273">
         <v>0.57276057690402804</v>
@@ -35226,7 +35226,7 @@
       </c>
       <c r="I273">
         <f t="shared" si="22"/>
-        <v>107.51300215088686</v>
+        <v>107.57891192779532</v>
       </c>
       <c r="J273">
         <f t="shared" si="23"/>
@@ -35242,11 +35242,11 @@
         <v>45536</v>
       </c>
       <c r="B274">
-        <v>261.38029653665978</v>
+        <v>262.21018528250482</v>
       </c>
       <c r="C274">
         <f t="shared" si="20"/>
-        <v>147.2886851116404</v>
+        <v>147.7560359832915</v>
       </c>
       <c r="D274">
         <v>0.56969816194909595</v>
@@ -35263,7 +35263,7 @@
       </c>
       <c r="I274">
         <f t="shared" si="22"/>
-        <v>107.00411921749627</v>
+        <v>107.06971702878252</v>
       </c>
       <c r="J274">
         <f t="shared" si="23"/>
@@ -35279,11 +35279,11 @@
         <v>45566</v>
       </c>
       <c r="B275">
-        <v>258.23322598112276</v>
+        <v>259.05312270204843</v>
       </c>
       <c r="C275">
         <f t="shared" si="20"/>
-        <v>145.51530016174002</v>
+        <v>145.97702403630387</v>
       </c>
       <c r="D275">
         <v>0.56503082508838198</v>
@@ -35300,7 +35300,7 @@
       </c>
       <c r="I275">
         <f t="shared" si="22"/>
-        <v>105.71576842222763</v>
+        <v>105.7805764228696</v>
       </c>
       <c r="J275">
         <f t="shared" si="23"/>
@@ -35316,11 +35316,11 @@
         <v>45597</v>
       </c>
       <c r="B276">
-        <v>253.42186562252857</v>
+        <v>254.22648615826847</v>
       </c>
       <c r="C276">
         <f t="shared" si="20"/>
-        <v>142.80408225355993</v>
+        <v>143.25720336239428</v>
       </c>
       <c r="D276">
         <v>0.55557864443550997</v>
@@ -35337,7 +35337,7 @@
       </c>
       <c r="I276">
         <f t="shared" si="22"/>
-        <v>103.74608905377096</v>
+        <v>103.80968956206166</v>
       </c>
       <c r="J276">
         <f t="shared" si="23"/>
@@ -35353,11 +35353,11 @@
         <v>45627</v>
       </c>
       <c r="B277">
-        <v>249.50174596157191</v>
+        <v>250.29392002283726</v>
       </c>
       <c r="C277">
         <f t="shared" si="20"/>
-        <v>140.59508150639914</v>
+        <v>141.04119339776449</v>
       </c>
       <c r="D277">
         <v>0.54672866549575505</v>
@@ -35374,7 +35374,7 @@
       </c>
       <c r="I277">
         <f t="shared" si="22"/>
-        <v>102.14126666621573</v>
+        <v>102.20388335409937</v>
       </c>
       <c r="J277">
         <f t="shared" si="23"/>
@@ -35390,11 +35390,11 @@
         <v>45658</v>
       </c>
       <c r="B278">
-        <v>248.4684163476532</v>
+        <v>249.25671174286305</v>
       </c>
       <c r="C278">
         <f t="shared" si="20"/>
-        <v>140.01279675832265</v>
+        <v>140.45672417215863</v>
       </c>
       <c r="F278">
         <v>79.7</v>
@@ -35405,7 +35405,7 @@
       </c>
       <c r="I278">
         <f t="shared" si="22"/>
-        <v>101.71824118700474</v>
+        <v>101.78035443237918</v>
       </c>
       <c r="K278">
         <f t="shared" si="24"/>
@@ -35417,11 +35417,11 @@
         <v>45689</v>
       </c>
       <c r="B279">
-        <v>248.37876651641727</v>
+        <v>249.1667774869498</v>
       </c>
       <c r="C279">
         <f t="shared" si="20"/>
-        <v>139.96227877384493</v>
+        <v>140.40604601433446</v>
       </c>
       <c r="F279">
         <v>81</v>
@@ -35432,7 +35432,7 @@
       </c>
       <c r="I279">
         <f t="shared" si="22"/>
-        <v>101.68154025217338</v>
+        <v>101.74363108648225</v>
       </c>
       <c r="K279">
         <f t="shared" si="24"/>
@@ -35444,11 +35444,11 @@
         <v>45717</v>
       </c>
       <c r="B280">
-        <v>244.10710050345972</v>
+        <v>244.88155910907847</v>
       </c>
       <c r="C280">
         <f t="shared" si="20"/>
-        <v>137.55518046298829</v>
+        <v>137.9913157087407</v>
       </c>
       <c r="F280">
         <v>80.5</v>
@@ -35459,7 +35459,7 @@
       </c>
       <c r="I280">
         <f t="shared" si="22"/>
-        <v>99.932801478194179</v>
+        <v>99.993824462338765</v>
       </c>
       <c r="K280">
         <f t="shared" si="24"/>
@@ -35471,11 +35471,11 @@
         <v>45748</v>
       </c>
       <c r="B281">
-        <v>251.06093972800451</v>
+        <v>252.45715126900001</v>
       </c>
       <c r="C281">
         <f t="shared" si="20"/>
-        <v>141.4736924909877</v>
+        <v>142.26017912672782</v>
       </c>
       <c r="F281">
         <v>82.3</v>
@@ -35486,7 +35486,7 @@
       </c>
       <c r="I281">
         <f t="shared" si="22"/>
-        <v>102.77957092203454</v>
+        <v>103.08720738342691</v>
       </c>
       <c r="K281">
         <f t="shared" si="24"/>
@@ -35498,11 +35498,11 @@
         <v>45778</v>
       </c>
       <c r="B282">
-        <v>255.14151091966016</v>
+        <v>256.56041551915297</v>
       </c>
       <c r="C282">
         <f t="shared" si="20"/>
-        <v>143.77310822081532</v>
+        <v>144.57237786737304</v>
       </c>
       <c r="F282">
         <v>83.9</v>
@@ -35513,7 +35513,7 @@
       </c>
       <c r="I282">
         <f t="shared" si="22"/>
-        <v>104.45007911279313</v>
+        <v>104.76271568484876</v>
       </c>
       <c r="K282">
         <f t="shared" si="24"/>
@@ -35525,11 +35525,11 @@
         <v>45809</v>
       </c>
       <c r="B283">
-        <v>260.842637241641</v>
+        <v>262.34349683852827</v>
       </c>
       <c r="C283">
         <f t="shared" si="20"/>
-        <v>146.98571227225398</v>
+        <v>147.83115734841911</v>
       </c>
       <c r="F283">
         <v>86.1</v>
@@ -35540,7 +35540,7 @@
       </c>
       <c r="I283">
         <f t="shared" si="22"/>
-        <v>106.7840117340138</v>
+        <v>107.12415286454045</v>
       </c>
       <c r="K283">
         <f t="shared" si="24"/>
@@ -35552,11 +35552,11 @@
         <v>45839</v>
       </c>
       <c r="B284">
-        <v>277.69272136747441</v>
+        <v>279.29982479432306</v>
       </c>
       <c r="C284">
         <f t="shared" si="20"/>
-        <v>156.48079192362488</v>
+        <v>157.38608673028727</v>
       </c>
       <c r="F284">
         <v>91.8</v>
@@ -35567,7 +35567,7 @@
       </c>
       <c r="I284">
         <f t="shared" si="22"/>
-        <v>113.68211551044989</v>
+        <v>114.04802286645572</v>
       </c>
       <c r="K284">
         <f t="shared" si="24"/>
@@ -35579,11 +35579,11 @@
         <v>45870</v>
       </c>
       <c r="B285">
-        <v>284.37620053154336</v>
+        <v>286.02198355436758</v>
       </c>
       <c r="C285">
         <f t="shared" si="20"/>
-        <v>160.24695513902506</v>
+        <v>161.17403848572511</v>
       </c>
       <c r="F285">
         <v>95</v>
@@ -35594,7 +35594,7 @@
       </c>
       <c r="I285">
         <f t="shared" si="22"/>
-        <v>116.41820469060499</v>
+        <v>116.79291866630832</v>
       </c>
       <c r="K285">
         <f t="shared" si="24"/>
@@ -35606,11 +35606,11 @@
         <v>45901</v>
       </c>
       <c r="B286">
-        <v>284.37620053154336</v>
+        <v>286.02198355436758</v>
       </c>
       <c r="C286">
         <f t="shared" si="20"/>
-        <v>160.24695513902506</v>
+        <v>161.17403848572511</v>
       </c>
       <c r="F286">
         <v>99.1</v>
@@ -35621,7 +35621,7 @@
       </c>
       <c r="I286">
         <f t="shared" si="22"/>
-        <v>116.41820469060499</v>
+        <v>116.79291866630832</v>
       </c>
       <c r="K286">
         <f t="shared" si="24"/>
@@ -35633,11 +35633,11 @@
         <v>45931</v>
       </c>
       <c r="B287">
-        <v>284.37620053154336</v>
+        <v>286.02198355436758</v>
       </c>
       <c r="C287">
         <f t="shared" si="20"/>
-        <v>160.24695513902506</v>
+        <v>161.17403848572511</v>
       </c>
       <c r="F287">
         <v>98.9</v>
@@ -35648,7 +35648,7 @@
       </c>
       <c r="I287">
         <f t="shared" si="22"/>
-        <v>116.41820469060499</v>
+        <v>116.79291866630832</v>
       </c>
       <c r="K287">
         <f t="shared" si="24"/>
@@ -35660,11 +35660,11 @@
         <v>45962</v>
       </c>
       <c r="B288">
-        <v>284.37620053154336</v>
+        <v>286.02198355436758</v>
       </c>
       <c r="C288">
         <f t="shared" si="20"/>
-        <v>160.24695513902506</v>
+        <v>161.17403848572511</v>
       </c>
       <c r="F288">
         <v>96</v>
@@ -35675,7 +35675,7 @@
       </c>
       <c r="I288">
         <f t="shared" si="22"/>
-        <v>116.41820469060499</v>
+        <v>116.79291866630832</v>
       </c>
       <c r="K288">
         <f t="shared" si="24"/>
@@ -35687,11 +35687,11 @@
         <v>45992</v>
       </c>
       <c r="B289">
-        <v>284.37620053154336</v>
+        <v>286.02198355436758</v>
       </c>
       <c r="C289">
         <f t="shared" si="20"/>
-        <v>160.24695513902506</v>
+        <v>161.17403848572511</v>
       </c>
       <c r="F289">
         <v>94.7</v>
@@ -35702,7 +35702,7 @@
       </c>
       <c r="I289">
         <f t="shared" si="22"/>
-        <v>116.41820469060499</v>
+        <v>116.79291866630832</v>
       </c>
       <c r="K289">
         <f t="shared" si="24"/>
